--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9072553-027C-47C4-9ADB-946E36F2F68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0209F952-E96C-47E4-A6DB-C1085A7996CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t xml:space="preserve"> Trabajadores asegurados a través del IMSS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Trabajadores del SCT asegurados</t>
-  </si>
-  <si>
     <t>Fuente: Para trabajadores asegurados del IMSS y trabajadores asegurados por el IMSS en transportes y comunicaciones: IMSS. Puestos de trabajo registrados por los patrones en el IMSS y su salario registrado. En: www.imss.gob.mx.</t>
   </si>
   <si>
@@ -64,12 +61,18 @@
   <si>
     <t>Sector laboral, Tranajadores asegurados a través del IMSS</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Trabajadores del SCT asegurados a través del IMSS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +99,22 @@
       <name val="Montserrat"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,12 +123,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -119,11 +142,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -134,122 +222,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/\y\y\y\y"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -260,17 +274,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}" name="Tabla3" displayName="Tabla3" ref="B4:D81" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{06D80863-A3AD-4C22-85BC-05BA2DFB088C}" name="Periodo" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{60052B64-29B6-4A81-94B4-6B103416241B}" name=" Trabajadores asegurados a través del IMSS" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{03726D84-8347-4B13-A8CA-CF2114774D7A}" name=" Trabajadores del SCT asegurados" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,15 +502,15 @@
   <dimension ref="B2:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="34.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.09765625" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" customWidth="1"/>
     <col min="5" max="5" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="19" customWidth="1"/>
@@ -518,7 +521,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -548,871 +551,867 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:14" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>5</v>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>45413</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>22348999</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>1559328</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="5">
+      <c r="B6" s="9">
         <v>45383</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>22374202</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>1561135</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>45352</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>22289345</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1545250</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="5">
+      <c r="B8" s="9">
         <v>45323</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>22289810</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>1540972</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>45292</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>22133407</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>1532544</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="5">
+      <c r="B10" s="9">
         <v>45261</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>22024386</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>1522386</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>45231</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>22409268</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>1536052</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="5">
+      <c r="B12" s="9">
         <v>45200</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>22302690</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <v>1517214</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>45170</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>22129433</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>1492386</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="5">
+      <c r="B14" s="9">
         <v>45139</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>21996875</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <v>1486423</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="4">
+      <c r="B15" s="6">
         <v>45108</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>21885139</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>1476689</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="5">
+      <c r="B16" s="9">
         <v>45078</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>21887307</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="11">
         <v>1472427</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="4">
+      <c r="B17" s="6">
         <v>45047</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>21862909</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>1473285</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="5">
+      <c r="B18" s="9">
         <v>45017</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="10">
         <v>21820291</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="11">
         <v>1458395</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="4">
+      <c r="B19" s="6">
         <v>44986</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>21796280</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>1453808</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="5">
+      <c r="B20" s="9">
         <v>44958</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="10">
         <v>21660469</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="11">
         <v>1439808</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="4">
+      <c r="B21" s="6">
         <v>44927</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>21484595</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>1431720</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="5">
+      <c r="B22" s="9">
         <v>44896</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="10">
         <v>21372896</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="11">
         <v>1432765</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="4">
+      <c r="B23" s="6">
         <v>44866</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>21718601</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>1449414</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="5">
+      <c r="B24" s="9">
         <v>44835</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="10">
         <v>21617326</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="11">
         <v>1438643</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="4">
+      <c r="B25" s="6">
         <v>44805</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>21409358</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>1421088</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="5">
+      <c r="B26" s="9">
         <v>44774</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="10">
         <v>21236866</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="11">
         <v>1409658</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="4">
+      <c r="B27" s="6">
         <v>44743</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>21079434</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>1400461</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="5">
+      <c r="B28" s="9">
         <v>44713</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="10">
         <v>21068708</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="11">
         <v>1394745</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="4">
+      <c r="B29" s="6">
         <v>44682</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <v>21008487</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>1387090</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="5">
+      <c r="B30" s="9">
         <v>44652</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="10">
         <v>21011342</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="11">
         <v>1371403</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="4">
+      <c r="B31" s="6">
         <v>44621</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <v>21005852</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>1366419</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="5">
+      <c r="B32" s="9">
         <v>44593</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="10">
         <v>20941286</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="11">
         <v>1362139</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="4">
+      <c r="B33" s="6">
         <v>44562</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="7">
         <v>20762419</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>1353437</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="5">
+      <c r="B34" s="9">
         <v>44531</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="10">
         <v>20620148</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="11">
         <v>1346231</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="4">
+      <c r="B35" s="6">
         <v>44501</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="7">
         <v>20933050</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>1355387</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="5">
+      <c r="B36" s="9">
         <v>44470</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="10">
         <v>20767587</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="11">
         <v>1334726</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="4">
+      <c r="B37" s="6">
         <v>44440</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="7">
         <v>20594919</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>1322061</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="5">
+      <c r="B38" s="9">
         <v>44409</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="10">
         <v>20420823</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="11">
         <v>1297793</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="4">
+      <c r="B39" s="6">
         <v>44378</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="7">
         <v>20291923</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>1281115</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="5">
+      <c r="B40" s="9">
         <v>44348</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="10">
         <v>20175380</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="11">
         <v>1238603</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="4">
+      <c r="B41" s="6">
         <v>44317</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="7">
         <v>20109444</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>1233478</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="5">
+      <c r="B42" s="9">
         <v>44287</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="10">
         <v>20070483</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="11">
         <v>1228178</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="4">
+      <c r="B43" s="6">
         <v>44256</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="7">
         <v>20025709</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>1221474</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="5">
+      <c r="B44" s="9">
         <v>44228</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="10">
         <v>19936938</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="11">
         <v>1217940</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="4">
+      <c r="B45" s="6">
         <v>44197</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="7">
         <v>19821651</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>1215685</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="5">
+      <c r="B46" s="9">
         <v>44166</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="10">
         <v>19773732</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="11">
         <v>1213211</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="4">
+      <c r="B47" s="6">
         <v>44136</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="7">
         <v>20051552</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>1220915</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="5">
+      <c r="B48" s="9">
         <v>44105</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="10">
         <v>19902833</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="11">
         <v>1208882</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="4">
+      <c r="B49" s="6">
         <v>44075</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="7">
         <v>19702192</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>1193903</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="5">
+      <c r="B50" s="9">
         <v>44044</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="10">
         <v>19588342</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="11">
         <v>1187467</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="4">
+      <c r="B51" s="6">
         <v>44013</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="7">
         <v>19495952</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>1183455</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="5">
+      <c r="B52" s="9">
         <v>43983</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="10">
         <v>19499859</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="11">
         <v>1182594</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="4">
+      <c r="B53" s="6">
         <v>43952</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="7">
         <v>19583170</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>1186977</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B54" s="5">
+      <c r="B54" s="9">
         <v>43922</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="10">
         <v>19927696</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="11">
         <v>1202788</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B55" s="4">
+      <c r="B55" s="6">
         <v>43891</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="7">
         <v>20482943</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>1226995</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B56" s="5">
+      <c r="B56" s="9">
         <v>43862</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="10">
         <v>20613536</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="11">
         <v>1223755</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B57" s="4">
+      <c r="B57" s="6">
         <v>43831</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="7">
         <v>20490397</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>1217337</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B58" s="5">
+      <c r="B58" s="9">
         <v>43800</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="10">
         <v>20421442</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="11">
         <v>1215181</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B59" s="4">
+      <c r="B59" s="6">
         <v>43770</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="7">
         <v>20803652</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>1220127</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B60" s="5">
+      <c r="B60" s="9">
         <v>43739</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="10">
         <v>20727424</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="11">
         <v>1214110</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B61" s="4">
+      <c r="B61" s="6">
         <v>43709</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="7">
         <v>20567426</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>1204267</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B62" s="5">
+      <c r="B62" s="9">
         <v>43678</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="10">
         <v>20422010</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="11">
         <v>1199362</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B63" s="4">
+      <c r="B63" s="6">
         <v>43647</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="7">
         <v>20385379</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>1196621</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B64" s="5">
+      <c r="B64" s="9">
         <v>43617</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="10">
         <v>20368666</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="11">
         <v>1183628</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B65" s="4">
+      <c r="B65" s="6">
         <v>43586</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="7">
         <v>20382910</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>1176213</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B66" s="5">
+      <c r="B66" s="9">
         <v>43556</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="10">
         <v>20378927</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="11">
         <v>1173595</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="4">
+      <c r="B67" s="6">
         <v>43525</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="7">
         <v>20348508</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>1166805</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B68" s="5">
+      <c r="B68" s="9">
         <v>43497</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="10">
         <v>20299993</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="11">
         <v>1162018</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B69" s="4">
+      <c r="B69" s="6">
         <v>43466</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="7">
         <v>20174011</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <v>1151961</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B70" s="5">
+      <c r="B70" s="9">
         <v>43435</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="10">
         <v>20079365</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="11">
         <v>1150983</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="4">
+      <c r="B71" s="6">
         <v>43405</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="7">
         <v>20457926</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="8">
         <v>1158571</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="5">
+      <c r="B72" s="9">
         <v>43374</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="10">
         <v>20356179</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="11">
         <v>1154332</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="4">
+      <c r="B73" s="6">
         <v>43344</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="7">
         <v>20192960</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="8">
         <v>1140678</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="5">
+      <c r="B74" s="9">
         <v>43313</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="10">
         <v>20063433</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="11">
         <v>1138592</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="4">
+      <c r="B75" s="6">
         <v>43282</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="7">
         <v>19949244</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="8">
         <v>1130363</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="5">
+      <c r="B76" s="9">
         <v>43252</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="10">
         <v>19894575</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="11">
         <v>1125051</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B77" s="4">
+      <c r="B77" s="6">
         <v>43221</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="7">
         <v>19908072</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="8">
         <v>1122774</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B78" s="5">
+      <c r="B78" s="9">
         <v>43191</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="10">
         <v>19874106</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="11">
         <v>1118667</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B79" s="4">
+      <c r="B79" s="6">
         <v>43160</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="7">
         <v>19786997</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="8">
         <v>1110710</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B80" s="5">
+      <c r="B80" s="9">
         <v>43132</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="10">
         <v>19696488</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="11">
         <v>1103513</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B81" s="4">
+      <c r="B81" s="12">
         <v>43101</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="13">
         <v>19532177</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="14">
         <v>1098889</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" s="2"/>
       <c r="E82" s="2"/>
@@ -1422,7 +1421,7 @@
     </row>
     <row r="83" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" s="2"/>
       <c r="E83" s="2"/>
@@ -1435,7 +1434,7 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C84" s="3"/>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E84" s="3"/>
@@ -1448,7 +1447,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C85" s="3"/>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E85" s="3"/>
@@ -1459,8 +1458,5 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0209F952-E96C-47E4-A6DB-C1085A7996CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25335CAB-B164-438B-BFFF-84E892BACCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -134,43 +134,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -206,12 +173,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -225,45 +214,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -274,6 +343,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:D81" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B4:D81" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{46948D3F-0611-434F-8A82-2A70C95C7C5B}" name="Periodo" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EE1B569B-2FF8-474E-B700-FB8912C251C0}" name=" Trabajadores asegurados a través del IMSS" dataDxfId="2" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="3" xr3:uid="{19680E34-D68D-4E30-A493-410799CD222F}" name=" Trabajadores del SCT asegurados a través del IMSS" dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,8 +596,8 @@
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.09765625" customWidth="1"/>
-    <col min="4" max="4" width="24.19921875" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="24.69921875" customWidth="1"/>
     <col min="5" max="5" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="19" customWidth="1"/>
@@ -551,861 +638,861 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:14" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6">
+      <c r="B5" s="15">
         <v>45413</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="16">
         <v>22348999</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="16">
         <v>1559328</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>45383</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>22374202</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="6">
         <v>1561135</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>45352</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>22289345</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>1545250</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>45323</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>22289810</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="6">
         <v>1540972</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="6">
+      <c r="B9" s="11">
         <v>45292</v>
       </c>
       <c r="C9" s="7">
         <v>22133407</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>1532544</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="9">
+    <row r="10" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="17">
         <v>45261</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="18">
         <v>22024386</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="18">
         <v>1522386</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="6">
+    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
         <v>45231</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>22409268</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>1536052</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="9">
+    <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10">
         <v>45200</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>22302690</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="6">
         <v>1517214</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="6">
+    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
         <v>45170</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>22129433</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>1492386</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="9">
+    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10">
         <v>45139</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>21996875</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <v>1486423</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="6">
+    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="9">
         <v>45108</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>21885139</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>1476689</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="9">
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="10">
         <v>45078</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>21887307</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="6">
         <v>1472427</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="6">
+    <row r="17" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9">
         <v>45047</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>21862909</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>1473285</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="9">
+    <row r="18" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="10">
         <v>45017</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>21820291</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="6">
         <v>1458395</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="6">
+    <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="9">
         <v>44986</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>21796280</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>1453808</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="9">
+    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="10">
         <v>44958</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>21660469</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="6">
         <v>1439808</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="6">
+    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="11">
         <v>44927</v>
       </c>
       <c r="C21" s="7">
         <v>21484595</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>1431720</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="9">
+    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="17">
         <v>44896</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="18">
         <v>21372896</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="18">
         <v>1432765</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="6">
+    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
         <v>44866</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>21718601</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <v>1449414</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="9">
+    <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="10">
         <v>44835</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="6">
         <v>21617326</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="6">
         <v>1438643</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="6">
+    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="9">
         <v>44805</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>21409358</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <v>1421088</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="9">
+    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="10">
         <v>44774</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="6">
         <v>21236866</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="6">
         <v>1409658</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="6">
+    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="9">
         <v>44743</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>21079434</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <v>1400461</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="9">
+    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="10">
         <v>44713</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="6">
         <v>21068708</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="6">
         <v>1394745</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="6">
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
         <v>44682</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>21008487</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="5">
         <v>1387090</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="9">
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="10">
         <v>44652</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="6">
         <v>21011342</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="6">
         <v>1371403</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="6">
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="9">
         <v>44621</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>21005852</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="5">
         <v>1366419</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="9">
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10">
         <v>44593</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="6">
         <v>20941286</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="6">
         <v>1362139</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="6">
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="11">
         <v>44562</v>
       </c>
       <c r="C33" s="7">
         <v>20762419</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>1353437</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="9">
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="17">
         <v>44531</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="18">
         <v>20620148</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="18">
         <v>1346231</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="6">
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="9">
         <v>44501</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="5">
         <v>20933050</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="5">
         <v>1355387</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="9">
+    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10">
         <v>44470</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="6">
         <v>20767587</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="6">
         <v>1334726</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="6">
+    <row r="37" spans="2:4" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="9">
         <v>44440</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="5">
         <v>20594919</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="5">
         <v>1322061</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="9">
+    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10">
         <v>44409</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="6">
         <v>20420823</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="6">
         <v>1297793</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="6">
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="9">
         <v>44378</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="5">
         <v>20291923</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="5">
         <v>1281115</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="9">
+    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="10">
         <v>44348</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="6">
         <v>20175380</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="6">
         <v>1238603</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="6">
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="9">
         <v>44317</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="5">
         <v>20109444</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="5">
         <v>1233478</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="9">
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="10">
         <v>44287</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="6">
         <v>20070483</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="6">
         <v>1228178</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="6">
+    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="9">
         <v>44256</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="5">
         <v>20025709</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="5">
         <v>1221474</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="9">
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="10">
         <v>44228</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="6">
         <v>19936938</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="6">
         <v>1217940</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="6">
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="11">
         <v>44197</v>
       </c>
       <c r="C45" s="7">
         <v>19821651</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>1215685</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="9">
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="17">
         <v>44166</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="18">
         <v>19773732</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="18">
         <v>1213211</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="6">
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="9">
         <v>44136</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="5">
         <v>20051552</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="5">
         <v>1220915</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="9">
+    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="10">
         <v>44105</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="6">
         <v>19902833</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="6">
         <v>1208882</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="6">
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="9">
         <v>44075</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="5">
         <v>19702192</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="5">
         <v>1193903</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="9">
+    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="10">
         <v>44044</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="6">
         <v>19588342</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="6">
         <v>1187467</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="6">
+    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="9">
         <v>44013</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="5">
         <v>19495952</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="5">
         <v>1183455</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="9">
+    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="10">
         <v>43983</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="6">
         <v>19499859</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="6">
         <v>1182594</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="6">
+    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="9">
         <v>43952</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="5">
         <v>19583170</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="5">
         <v>1186977</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B54" s="9">
+    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="10">
         <v>43922</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="6">
         <v>19927696</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="6">
         <v>1202788</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B55" s="6">
+    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="9">
         <v>43891</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="5">
         <v>20482943</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="5">
         <v>1226995</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B56" s="9">
+    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="10">
         <v>43862</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="6">
         <v>20613536</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="6">
         <v>1223755</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B57" s="6">
+    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="11">
         <v>43831</v>
       </c>
       <c r="C57" s="7">
         <v>20490397</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>1217337</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B58" s="9">
+    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="17">
         <v>43800</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="18">
         <v>20421442</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="18">
         <v>1215181</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B59" s="6">
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="9">
         <v>43770</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="5">
         <v>20803652</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="5">
         <v>1220127</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B60" s="9">
+    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="10">
         <v>43739</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="6">
         <v>20727424</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="6">
         <v>1214110</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B61" s="6">
+    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="9">
         <v>43709</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="5">
         <v>20567426</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="5">
         <v>1204267</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B62" s="9">
+    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="10">
         <v>43678</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="6">
         <v>20422010</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="6">
         <v>1199362</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B63" s="6">
+    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="9">
         <v>43647</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="5">
         <v>20385379</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="5">
         <v>1196621</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B64" s="9">
+    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="10">
         <v>43617</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="6">
         <v>20368666</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="6">
         <v>1183628</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B65" s="6">
+    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="9">
         <v>43586</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="5">
         <v>20382910</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="5">
         <v>1176213</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B66" s="9">
+    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="10">
         <v>43556</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="6">
         <v>20378927</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="6">
         <v>1173595</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="6">
+    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="9">
         <v>43525</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="5">
         <v>20348508</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="5">
         <v>1166805</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B68" s="9">
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="10">
         <v>43497</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="6">
         <v>20299993</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="6">
         <v>1162018</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B69" s="6">
+    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="11">
         <v>43466</v>
       </c>
       <c r="C69" s="7">
         <v>20174011</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>1151961</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B70" s="9">
+    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="10">
         <v>43435</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="6">
         <v>20079365</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="6">
         <v>1150983</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="6">
+    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="9">
         <v>43405</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="5">
         <v>20457926</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="5">
         <v>1158571</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="9">
+    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="10">
         <v>43374</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="6">
         <v>20356179</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="6">
         <v>1154332</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="6">
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="9">
         <v>43344</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="5">
         <v>20192960</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="5">
         <v>1140678</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="9">
+    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="10">
         <v>43313</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="6">
         <v>20063433</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="6">
         <v>1138592</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="6">
+    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="9">
         <v>43282</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="5">
         <v>19949244</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="5">
         <v>1130363</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="9">
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="10">
         <v>43252</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="6">
         <v>19894575</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="6">
         <v>1125051</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B77" s="6">
+    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="9">
         <v>43221</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="5">
         <v>19908072</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="5">
         <v>1122774</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B78" s="9">
+    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="10">
         <v>43191</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="6">
         <v>19874106</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="6">
         <v>1118667</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B79" s="6">
+    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="9">
         <v>43160</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="5">
         <v>19786997</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="5">
         <v>1110710</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B80" s="9">
+    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="10">
         <v>43132</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="6">
         <v>19696488</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="6">
         <v>1103513</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B81" s="12">
+    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="9">
         <v>43101</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="5">
         <v>19532177</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="5">
         <v>1098889</v>
       </c>
     </row>
@@ -1434,7 +1521,7 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C84" s="3"/>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E84" s="3"/>
@@ -1447,7 +1534,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C85" s="3"/>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E85" s="3"/>
@@ -1458,5 +1545,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F37B7F-5272-42ED-9FA6-604B2849C883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A77DA9-FA78-424A-BBC9-A9B7382C1C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -63,6 +63,42 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -257,8 +293,8 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -269,8 +305,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -354,10 +390,10 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{46948D3F-0611-434F-8A82-2A70C95C7C5B}" name="Año" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{773BD48A-E753-498B-BBD1-E56680654DA2}" name="Mes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{46948D3F-0611-434F-8A82-2A70C95C7C5B}" name="Año" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{773BD48A-E753-498B-BBD1-E56680654DA2}" name="Mes" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{EE1B569B-2FF8-474E-B700-FB8912C251C0}" name=" Trabajadores asegurados a través del IMSS" dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="3" xr3:uid="{19680E34-D68D-4E30-A493-410799CD222F}" name=" Trabajadores del SCT asegurados a través del IMSS" dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="3" xr3:uid="{19680E34-D68D-4E30-A493-410799CD222F}" name=" Trabajadores del SCT asegurados a través del IMSS" dataDxfId="0" dataCellStyle="20% - Énfasis5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -659,8 +695,8 @@
       <c r="B5" s="13">
         <v>2024</v>
       </c>
-      <c r="C5" s="13">
-        <v>8</v>
+      <c r="C5" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="6">
         <v>22389835</v>
@@ -673,8 +709,8 @@
       <c r="B6" s="14">
         <v>2024</v>
       </c>
-      <c r="C6" s="14">
-        <v>7</v>
+      <c r="C6" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="5">
         <v>22331788</v>
@@ -687,8 +723,8 @@
       <c r="B7" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="13">
-        <v>6</v>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="6">
         <v>22319444</v>
@@ -701,8 +737,8 @@
       <c r="B8" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="14">
-        <v>5</v>
+      <c r="C8" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="5">
         <v>22348999</v>
@@ -715,8 +751,8 @@
       <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="13">
-        <v>4</v>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="6">
         <v>22374202</v>
@@ -729,8 +765,8 @@
       <c r="B10" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="14">
-        <v>3</v>
+      <c r="C10" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="5">
         <v>22289345</v>
@@ -743,8 +779,8 @@
       <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="13">
-        <v>2</v>
+      <c r="C11" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="6">
         <v>22289810</v>
@@ -757,8 +793,8 @@
       <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="15">
-        <v>1</v>
+      <c r="C12" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="7">
         <v>22133407</v>
@@ -771,8 +807,8 @@
       <c r="B13" s="16">
         <v>2023</v>
       </c>
-      <c r="C13" s="16">
-        <v>12</v>
+      <c r="C13" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="12">
         <v>22024386</v>
@@ -785,8 +821,8 @@
       <c r="B14" s="14">
         <v>2023</v>
       </c>
-      <c r="C14" s="14">
-        <v>11</v>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="5">
         <v>22409268</v>
@@ -799,8 +835,8 @@
       <c r="B15" s="13">
         <v>2023</v>
       </c>
-      <c r="C15" s="13">
-        <v>10</v>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="6">
         <v>22302690</v>
@@ -813,8 +849,8 @@
       <c r="B16" s="14">
         <v>2023</v>
       </c>
-      <c r="C16" s="14">
-        <v>9</v>
+      <c r="C16" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="5">
         <v>22129433</v>
@@ -827,8 +863,8 @@
       <c r="B17" s="13">
         <v>2023</v>
       </c>
-      <c r="C17" s="13">
-        <v>8</v>
+      <c r="C17" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D17" s="6">
         <v>21996875</v>
@@ -841,8 +877,8 @@
       <c r="B18" s="14">
         <v>2023</v>
       </c>
-      <c r="C18" s="14">
-        <v>7</v>
+      <c r="C18" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D18" s="5">
         <v>21885139</v>
@@ -855,8 +891,8 @@
       <c r="B19" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="13">
-        <v>6</v>
+      <c r="C19" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D19" s="6">
         <v>21887307</v>
@@ -869,8 +905,8 @@
       <c r="B20" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="14">
-        <v>5</v>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D20" s="5">
         <v>21862909</v>
@@ -883,8 +919,8 @@
       <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="13">
-        <v>4</v>
+      <c r="C21" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D21" s="6">
         <v>21820291</v>
@@ -897,8 +933,8 @@
       <c r="B22" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="14">
-        <v>3</v>
+      <c r="C22" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D22" s="5">
         <v>21796280</v>
@@ -911,8 +947,8 @@
       <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="13">
-        <v>2</v>
+      <c r="C23" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D23" s="6">
         <v>21660469</v>
@@ -925,8 +961,8 @@
       <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C24" s="15">
-        <v>1</v>
+      <c r="C24" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D24" s="7">
         <v>21484595</v>
@@ -939,8 +975,8 @@
       <c r="B25" s="16">
         <v>2022</v>
       </c>
-      <c r="C25" s="16">
-        <v>12</v>
+      <c r="C25" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D25" s="12">
         <v>21372896</v>
@@ -953,8 +989,8 @@
       <c r="B26" s="14">
         <v>2022</v>
       </c>
-      <c r="C26" s="14">
-        <v>11</v>
+      <c r="C26" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D26" s="5">
         <v>21718601</v>
@@ -967,8 +1003,8 @@
       <c r="B27" s="13">
         <v>2022</v>
       </c>
-      <c r="C27" s="13">
-        <v>10</v>
+      <c r="C27" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D27" s="6">
         <v>21617326</v>
@@ -981,8 +1017,8 @@
       <c r="B28" s="14">
         <v>2022</v>
       </c>
-      <c r="C28" s="14">
-        <v>9</v>
+      <c r="C28" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D28" s="5">
         <v>21409358</v>
@@ -995,8 +1031,8 @@
       <c r="B29" s="13">
         <v>2022</v>
       </c>
-      <c r="C29" s="13">
-        <v>8</v>
+      <c r="C29" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D29" s="6">
         <v>21236866</v>
@@ -1009,8 +1045,8 @@
       <c r="B30" s="14">
         <v>2022</v>
       </c>
-      <c r="C30" s="14">
-        <v>7</v>
+      <c r="C30" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D30" s="5">
         <v>21079434</v>
@@ -1023,8 +1059,8 @@
       <c r="B31" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="13">
-        <v>6</v>
+      <c r="C31" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D31" s="6">
         <v>21068708</v>
@@ -1037,8 +1073,8 @@
       <c r="B32" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="14">
-        <v>5</v>
+      <c r="C32" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D32" s="5">
         <v>21008487</v>
@@ -1051,8 +1087,8 @@
       <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="13">
-        <v>4</v>
+      <c r="C33" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D33" s="6">
         <v>21011342</v>
@@ -1065,8 +1101,8 @@
       <c r="B34" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="14">
-        <v>3</v>
+      <c r="C34" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D34" s="5">
         <v>21005852</v>
@@ -1079,8 +1115,8 @@
       <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="13">
-        <v>2</v>
+      <c r="C35" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D35" s="6">
         <v>20941286</v>
@@ -1093,8 +1129,8 @@
       <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="15">
-        <v>1</v>
+      <c r="C36" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D36" s="7">
         <v>20762419</v>
@@ -1107,8 +1143,8 @@
       <c r="B37" s="16">
         <v>2021</v>
       </c>
-      <c r="C37" s="16">
-        <v>12</v>
+      <c r="C37" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D37" s="12">
         <v>20620148</v>
@@ -1121,8 +1157,8 @@
       <c r="B38" s="14">
         <v>2021</v>
       </c>
-      <c r="C38" s="14">
-        <v>11</v>
+      <c r="C38" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D38" s="5">
         <v>20933050</v>
@@ -1135,8 +1171,8 @@
       <c r="B39" s="13">
         <v>2021</v>
       </c>
-      <c r="C39" s="13">
-        <v>10</v>
+      <c r="C39" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D39" s="6">
         <v>20767587</v>
@@ -1149,8 +1185,8 @@
       <c r="B40" s="14">
         <v>2021</v>
       </c>
-      <c r="C40" s="14">
-        <v>9</v>
+      <c r="C40" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D40" s="5">
         <v>20594919</v>
@@ -1163,8 +1199,8 @@
       <c r="B41" s="13">
         <v>2021</v>
       </c>
-      <c r="C41" s="13">
-        <v>8</v>
+      <c r="C41" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D41" s="6">
         <v>20420823</v>
@@ -1177,8 +1213,8 @@
       <c r="B42" s="14">
         <v>2021</v>
       </c>
-      <c r="C42" s="14">
-        <v>7</v>
+      <c r="C42" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D42" s="5">
         <v>20291923</v>
@@ -1191,8 +1227,8 @@
       <c r="B43" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="13">
-        <v>6</v>
+      <c r="C43" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D43" s="6">
         <v>20175380</v>
@@ -1205,8 +1241,8 @@
       <c r="B44" s="14">
         <v>2021</v>
       </c>
-      <c r="C44" s="14">
-        <v>5</v>
+      <c r="C44" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D44" s="5">
         <v>20109444</v>
@@ -1219,8 +1255,8 @@
       <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="13">
-        <v>4</v>
+      <c r="C45" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D45" s="6">
         <v>20070483</v>
@@ -1233,8 +1269,8 @@
       <c r="B46" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="14">
-        <v>3</v>
+      <c r="C46" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D46" s="5">
         <v>20025709</v>
@@ -1247,8 +1283,8 @@
       <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="13">
-        <v>2</v>
+      <c r="C47" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D47" s="6">
         <v>19936938</v>
@@ -1261,8 +1297,8 @@
       <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="15">
-        <v>1</v>
+      <c r="C48" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D48" s="7">
         <v>19821651</v>
@@ -1275,8 +1311,8 @@
       <c r="B49" s="16">
         <v>2020</v>
       </c>
-      <c r="C49" s="16">
-        <v>12</v>
+      <c r="C49" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D49" s="12">
         <v>19773732</v>
@@ -1289,8 +1325,8 @@
       <c r="B50" s="14">
         <v>2020</v>
       </c>
-      <c r="C50" s="14">
-        <v>11</v>
+      <c r="C50" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D50" s="5">
         <v>20051552</v>
@@ -1303,8 +1339,8 @@
       <c r="B51" s="13">
         <v>2020</v>
       </c>
-      <c r="C51" s="13">
-        <v>10</v>
+      <c r="C51" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D51" s="6">
         <v>19902833</v>
@@ -1317,8 +1353,8 @@
       <c r="B52" s="14">
         <v>2020</v>
       </c>
-      <c r="C52" s="14">
-        <v>9</v>
+      <c r="C52" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D52" s="5">
         <v>19702192</v>
@@ -1331,8 +1367,8 @@
       <c r="B53" s="13">
         <v>2020</v>
       </c>
-      <c r="C53" s="13">
-        <v>8</v>
+      <c r="C53" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D53" s="6">
         <v>19588342</v>
@@ -1345,8 +1381,8 @@
       <c r="B54" s="14">
         <v>2020</v>
       </c>
-      <c r="C54" s="14">
-        <v>7</v>
+      <c r="C54" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D54" s="5">
         <v>19495952</v>
@@ -1359,8 +1395,8 @@
       <c r="B55" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="13">
-        <v>6</v>
+      <c r="C55" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D55" s="6">
         <v>19499859</v>
@@ -1373,8 +1409,8 @@
       <c r="B56" s="14">
         <v>2020</v>
       </c>
-      <c r="C56" s="14">
-        <v>5</v>
+      <c r="C56" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D56" s="5">
         <v>19583170</v>
@@ -1387,8 +1423,8 @@
       <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="13">
-        <v>4</v>
+      <c r="C57" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D57" s="6">
         <v>19927696</v>
@@ -1401,8 +1437,8 @@
       <c r="B58" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="14">
-        <v>3</v>
+      <c r="C58" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D58" s="5">
         <v>20482943</v>
@@ -1415,8 +1451,8 @@
       <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="13">
-        <v>2</v>
+      <c r="C59" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D59" s="6">
         <v>20613536</v>
@@ -1429,8 +1465,8 @@
       <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="15">
-        <v>1</v>
+      <c r="C60" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D60" s="7">
         <v>20490397</v>
@@ -1443,8 +1479,8 @@
       <c r="B61" s="16">
         <v>2019</v>
       </c>
-      <c r="C61" s="16">
-        <v>12</v>
+      <c r="C61" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D61" s="12">
         <v>20421442</v>
@@ -1457,8 +1493,8 @@
       <c r="B62" s="14">
         <v>2019</v>
       </c>
-      <c r="C62" s="14">
-        <v>11</v>
+      <c r="C62" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D62" s="5">
         <v>20803652</v>
@@ -1471,8 +1507,8 @@
       <c r="B63" s="13">
         <v>2019</v>
       </c>
-      <c r="C63" s="13">
-        <v>10</v>
+      <c r="C63" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D63" s="6">
         <v>20727424</v>
@@ -1485,8 +1521,8 @@
       <c r="B64" s="14">
         <v>2019</v>
       </c>
-      <c r="C64" s="14">
-        <v>9</v>
+      <c r="C64" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D64" s="5">
         <v>20567426</v>
@@ -1499,8 +1535,8 @@
       <c r="B65" s="13">
         <v>2019</v>
       </c>
-      <c r="C65" s="13">
-        <v>8</v>
+      <c r="C65" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D65" s="6">
         <v>20422010</v>
@@ -1513,8 +1549,8 @@
       <c r="B66" s="14">
         <v>2019</v>
       </c>
-      <c r="C66" s="14">
-        <v>7</v>
+      <c r="C66" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D66" s="5">
         <v>20385379</v>
@@ -1527,8 +1563,8 @@
       <c r="B67" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="13">
-        <v>6</v>
+      <c r="C67" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D67" s="6">
         <v>20368666</v>
@@ -1541,8 +1577,8 @@
       <c r="B68" s="14">
         <v>2019</v>
       </c>
-      <c r="C68" s="14">
-        <v>5</v>
+      <c r="C68" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D68" s="5">
         <v>20382910</v>
@@ -1555,8 +1591,8 @@
       <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="13">
-        <v>4</v>
+      <c r="C69" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D69" s="6">
         <v>20378927</v>
@@ -1569,8 +1605,8 @@
       <c r="B70" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="14">
-        <v>3</v>
+      <c r="C70" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D70" s="5">
         <v>20348508</v>
@@ -1583,8 +1619,8 @@
       <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="13">
-        <v>2</v>
+      <c r="C71" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D71" s="6">
         <v>20299993</v>
@@ -1597,8 +1633,8 @@
       <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="15">
-        <v>1</v>
+      <c r="C72" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D72" s="7">
         <v>20174011</v>
@@ -1611,8 +1647,8 @@
       <c r="B73" s="13">
         <v>2018</v>
       </c>
-      <c r="C73" s="13">
-        <v>12</v>
+      <c r="C73" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D73" s="6">
         <v>20079365</v>
@@ -1625,8 +1661,8 @@
       <c r="B74" s="14">
         <v>2018</v>
       </c>
-      <c r="C74" s="14">
-        <v>11</v>
+      <c r="C74" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D74" s="5">
         <v>20457926</v>
@@ -1639,8 +1675,8 @@
       <c r="B75" s="13">
         <v>2018</v>
       </c>
-      <c r="C75" s="13">
-        <v>10</v>
+      <c r="C75" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D75" s="6">
         <v>20356179</v>
@@ -1653,8 +1689,8 @@
       <c r="B76" s="14">
         <v>2018</v>
       </c>
-      <c r="C76" s="14">
-        <v>9</v>
+      <c r="C76" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D76" s="5">
         <v>20192960</v>
@@ -1667,8 +1703,8 @@
       <c r="B77" s="13">
         <v>2018</v>
       </c>
-      <c r="C77" s="13">
-        <v>8</v>
+      <c r="C77" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D77" s="6">
         <v>20063433</v>
@@ -1681,8 +1717,8 @@
       <c r="B78" s="14">
         <v>2018</v>
       </c>
-      <c r="C78" s="14">
-        <v>7</v>
+      <c r="C78" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D78" s="5">
         <v>19949244</v>
@@ -1695,8 +1731,8 @@
       <c r="B79" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="13">
-        <v>6</v>
+      <c r="C79" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D79" s="6">
         <v>19894575</v>
@@ -1709,8 +1745,8 @@
       <c r="B80" s="14">
         <v>2018</v>
       </c>
-      <c r="C80" s="14">
-        <v>5</v>
+      <c r="C80" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D80" s="5">
         <v>19908072</v>
@@ -1723,8 +1759,8 @@
       <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13">
-        <v>4</v>
+      <c r="C81" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D81" s="6">
         <v>19874106</v>
@@ -1737,8 +1773,8 @@
       <c r="B82" s="14">
         <v>2018</v>
       </c>
-      <c r="C82" s="14">
-        <v>3</v>
+      <c r="C82" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D82" s="5">
         <v>19786997</v>
@@ -1755,8 +1791,8 @@
       <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13">
-        <v>2</v>
+      <c r="C83" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D83" s="6">
         <v>19696488</v>
@@ -1776,8 +1812,8 @@
       <c r="B84" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="14">
-        <v>1</v>
+      <c r="C84" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D84" s="5">
         <v>19532177</v>
@@ -1794,7 +1830,7 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A77DA9-FA78-424A-BBC9-A9B7382C1C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573C19A2-2FF3-4807-9B11-66ECC20D3DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -62,9 +62,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t>Ago.</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Sep.</t>
+  </si>
+  <si>
+    <t>Actualización: septiembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -236,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -286,6 +286,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -310,6 +316,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -319,13 +332,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -380,8 +386,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E84" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B4:E84" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E85" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="B4:E85" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -622,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O89"/>
+  <dimension ref="B2:O90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -691,1180 +697,1195 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="13">
+    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="14">
         <v>2024</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="17">
+        <v>22480803</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1573441</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>22389835</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1563033</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6">
-        <v>22389835</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1563033</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14">
+      <c r="D7" s="17">
+        <v>22331788</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1559076</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
-        <v>22331788</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1559076</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="13">
+      <c r="D8" s="6">
+        <v>22319444</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1555259</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="14">
         <v>2024</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6">
-        <v>22319444</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1555259</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="14">
+      <c r="D9" s="17">
+        <v>22348999</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1559328</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5">
-        <v>22348999</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1559328</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="13">
+      <c r="D10" s="6">
+        <v>22374202</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1561135</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6">
-        <v>22374202</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1561135</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="14">
+      <c r="D11" s="17">
+        <v>22289345</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1545250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5">
-        <v>22289345</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1545250</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="13">
+      <c r="D12" s="6">
+        <v>22289810</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1540972</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="6">
-        <v>22289810</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1540972</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="15">
-        <v>2024</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="D13" s="18">
+        <v>22133407</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1532544</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="16">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7">
-        <v>22133407</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1532544</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="16">
+      <c r="D14" s="12">
+        <v>22024386</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1522386</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="14">
         <v>2023</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="12">
-        <v>22024386</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1522386</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="14">
+      <c r="D15" s="17">
+        <v>22409268</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1536052</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="13">
         <v>2023</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5">
-        <v>22409268</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1536052</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="13">
+      <c r="D16" s="6">
+        <v>22302690</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1517214</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="14">
         <v>2023</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6">
-        <v>22302690</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1517214</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="14">
+      <c r="D17" s="17">
+        <v>22129433</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1492386</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="13">
         <v>2023</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5">
-        <v>22129433</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1492386</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="13">
+      <c r="C18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6">
+        <v>21996875</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1486423</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6">
-        <v>21996875</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1486423</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="14">
+      <c r="D19" s="17">
+        <v>21885139</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1476689</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="5">
-        <v>21885139</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1476689</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="13">
+      <c r="D20" s="6">
+        <v>21887307</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1472427</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="6">
-        <v>21887307</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1472427</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="14">
+      <c r="D21" s="17">
+        <v>21862909</v>
+      </c>
+      <c r="E21" s="17">
+        <v>1473285</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="5">
-        <v>21862909</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1473285</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="13">
+      <c r="D22" s="6">
+        <v>21820291</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1458395</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="6">
-        <v>21820291</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1458395</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="14">
+      <c r="D23" s="17">
+        <v>21796280</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1453808</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="5">
-        <v>21796280</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1453808</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="13">
+      <c r="D24" s="6">
+        <v>21660469</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1439808</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C25" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="6">
-        <v>21660469</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1439808</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="15" t="s">
+      <c r="D25" s="18">
+        <v>21484595</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1431720</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="16">
+        <v>2022</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="7">
-        <v>21484595</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1431720</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="16">
+      <c r="D26" s="12">
+        <v>21372896</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1432765</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="14">
         <v>2022</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="12">
-        <v>21372896</v>
-      </c>
-      <c r="E25" s="12">
-        <v>1432765</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="14">
+      <c r="D27" s="5">
+        <v>21718601</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1449414</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="13">
         <v>2022</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="5">
-        <v>21718601</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1449414</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13">
+      <c r="D28" s="6">
+        <v>21617326</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1438643</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="14">
         <v>2022</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="6">
-        <v>21617326</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1438643</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="14">
+      <c r="D29" s="5">
+        <v>21409358</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1421088</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="5">
-        <v>21409358</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1421088</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="13">
+      <c r="C30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6">
+        <v>21236866</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1409658</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="6">
-        <v>21236866</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1409658</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="14">
+      <c r="D31" s="5">
+        <v>21079434</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1400461</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="5">
-        <v>21079434</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1400461</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="13">
+      <c r="D32" s="6">
+        <v>21068708</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1394745</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="6">
-        <v>21068708</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1394745</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="14">
+      <c r="D33" s="5">
+        <v>21008487</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1387090</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="5">
-        <v>21008487</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1387090</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="13">
+      <c r="D34" s="6">
+        <v>21011342</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1371403</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C35" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="6">
-        <v>21011342</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1371403</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="14">
+      <c r="D35" s="5">
+        <v>21005852</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1366419</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="5">
-        <v>21005852</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1366419</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="13">
+      <c r="D36" s="6">
+        <v>20941286</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1362139</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="6">
-        <v>20941286</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1362139</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="15" t="s">
+      <c r="D37" s="7">
+        <v>20762419</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1353437</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="16">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="7">
-        <v>20762419</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1353437</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="16">
+      <c r="D38" s="12">
+        <v>20620148</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1346231</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="14">
         <v>2021</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C39" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="12">
-        <v>20620148</v>
-      </c>
-      <c r="E37" s="12">
-        <v>1346231</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="14">
+      <c r="D39" s="5">
+        <v>20933050</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1355387</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="13">
         <v>2021</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="5">
-        <v>20933050</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1355387</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="13">
+      <c r="D40" s="6">
+        <v>20767587</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1334726</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="14">
         <v>2021</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="6">
-        <v>20767587</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1334726</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="14">
+      <c r="D41" s="5">
+        <v>20594919</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1322061</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="13">
         <v>2021</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="5">
-        <v>20594919</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1322061</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="13">
+      <c r="C42" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="6">
+        <v>20420823</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1297793</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C43" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="6">
-        <v>20420823</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1297793</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="14">
+      <c r="D43" s="5">
+        <v>20291923</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1281115</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="5">
-        <v>20291923</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1281115</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="13">
+      <c r="D44" s="6">
+        <v>20175380</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1238603</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="6">
-        <v>20175380</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1238603</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="14">
+      <c r="D45" s="5">
+        <v>20109444</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1233478</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="5">
-        <v>20109444</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1233478</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="13">
+      <c r="D46" s="6">
+        <v>20070483</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1228178</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C47" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="6">
-        <v>20070483</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1228178</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="14">
+      <c r="D47" s="5">
+        <v>20025709</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1221474</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="5">
-        <v>20025709</v>
-      </c>
-      <c r="E46" s="5">
-        <v>1221474</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="13">
+      <c r="D48" s="6">
+        <v>19936938</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1217940</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C49" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="6">
-        <v>19936938</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1217940</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="15" t="s">
+      <c r="D49" s="7">
+        <v>19821651</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1215685</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="16">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="7">
-        <v>19821651</v>
-      </c>
-      <c r="E48" s="7">
-        <v>1215685</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="16">
+      <c r="D50" s="12">
+        <v>19773732</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1213211</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="14">
         <v>2020</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C51" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="12">
-        <v>19773732</v>
-      </c>
-      <c r="E49" s="12">
-        <v>1213211</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="14">
+      <c r="D51" s="5">
+        <v>20051552</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1220915</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="13">
         <v>2020</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="5">
-        <v>20051552</v>
-      </c>
-      <c r="E50" s="5">
-        <v>1220915</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="13">
+      <c r="D52" s="6">
+        <v>19902833</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1208882</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="14">
         <v>2020</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C53" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="6">
-        <v>19902833</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1208882</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="14">
+      <c r="D53" s="5">
+        <v>19702192</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1193903</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="13">
         <v>2020</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="5">
-        <v>19702192</v>
-      </c>
-      <c r="E52" s="5">
-        <v>1193903</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="13">
+      <c r="C54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="6">
+        <v>19588342</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1187467</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C55" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="6">
-        <v>19588342</v>
-      </c>
-      <c r="E53" s="6">
-        <v>1187467</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="14">
+      <c r="D55" s="5">
+        <v>19495952</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1183455</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C56" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="5">
-        <v>19495952</v>
-      </c>
-      <c r="E54" s="5">
-        <v>1183455</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="13">
+      <c r="D56" s="6">
+        <v>19499859</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1182594</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C57" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="6">
-        <v>19499859</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1182594</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="14">
+      <c r="D57" s="5">
+        <v>19583170</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1186977</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C58" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="5">
-        <v>19583170</v>
-      </c>
-      <c r="E56" s="5">
-        <v>1186977</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="13">
+      <c r="D58" s="6">
+        <v>19927696</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1202788</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C59" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="6">
-        <v>19927696</v>
-      </c>
-      <c r="E57" s="6">
-        <v>1202788</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="14">
+      <c r="D59" s="5">
+        <v>20482943</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1226995</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C60" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="5">
-        <v>20482943</v>
-      </c>
-      <c r="E58" s="5">
-        <v>1226995</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="13">
+      <c r="D60" s="6">
+        <v>20613536</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1223755</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C61" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="6">
-        <v>20613536</v>
-      </c>
-      <c r="E59" s="6">
-        <v>1223755</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="15" t="s">
+      <c r="D61" s="7">
+        <v>20490397</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1217337</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="16">
+        <v>2019</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="7">
-        <v>20490397</v>
-      </c>
-      <c r="E60" s="7">
-        <v>1217337</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="16">
+      <c r="D62" s="12">
+        <v>20421442</v>
+      </c>
+      <c r="E62" s="12">
+        <v>1215181</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="14">
         <v>2019</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C63" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="12">
-        <v>20421442</v>
-      </c>
-      <c r="E61" s="12">
-        <v>1215181</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="14">
+      <c r="D63" s="5">
+        <v>20803652</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1220127</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="13">
         <v>2019</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C64" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="5">
-        <v>20803652</v>
-      </c>
-      <c r="E62" s="5">
-        <v>1220127</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="13">
+      <c r="D64" s="6">
+        <v>20727424</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1214110</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="14">
         <v>2019</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C65" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="6">
-        <v>20727424</v>
-      </c>
-      <c r="E63" s="6">
-        <v>1214110</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="14">
+      <c r="D65" s="5">
+        <v>20567426</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1204267</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="13">
         <v>2019</v>
       </c>
-      <c r="C64" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="5">
-        <v>20567426</v>
-      </c>
-      <c r="E64" s="5">
-        <v>1204267</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="13">
+      <c r="C66" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="6">
+        <v>20422010</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1199362</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C67" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="6">
-        <v>20422010</v>
-      </c>
-      <c r="E65" s="6">
-        <v>1199362</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="14">
+      <c r="D67" s="5">
+        <v>20385379</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1196621</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C68" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="5">
-        <v>20385379</v>
-      </c>
-      <c r="E66" s="5">
-        <v>1196621</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="13">
+      <c r="D68" s="6">
+        <v>20368666</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1183628</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C69" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="6">
-        <v>20368666</v>
-      </c>
-      <c r="E67" s="6">
-        <v>1183628</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="14">
+      <c r="D69" s="5">
+        <v>20382910</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1176213</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C70" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="5">
-        <v>20382910</v>
-      </c>
-      <c r="E68" s="5">
-        <v>1176213</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="13">
+      <c r="D70" s="6">
+        <v>20378927</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1173595</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C71" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="6">
-        <v>20378927</v>
-      </c>
-      <c r="E69" s="6">
-        <v>1173595</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="14">
+      <c r="D71" s="5">
+        <v>20348508</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1166805</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C72" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="5">
-        <v>20348508</v>
-      </c>
-      <c r="E70" s="5">
-        <v>1166805</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="13">
+      <c r="D72" s="6">
+        <v>20299993</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1162018</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C73" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="6">
-        <v>20299993</v>
-      </c>
-      <c r="E71" s="6">
-        <v>1162018</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="15" t="s">
+      <c r="D73" s="7">
+        <v>20174011</v>
+      </c>
+      <c r="E73" s="7">
+        <v>1151961</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="7">
-        <v>20174011</v>
-      </c>
-      <c r="E72" s="7">
-        <v>1151961</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="13">
+      <c r="D74" s="6">
+        <v>20079365</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1150983</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="14">
         <v>2018</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C75" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="6">
-        <v>20079365</v>
-      </c>
-      <c r="E73" s="6">
-        <v>1150983</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="14">
+      <c r="D75" s="5">
+        <v>20457926</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1158571</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="13">
         <v>2018</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C76" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="5">
-        <v>20457926</v>
-      </c>
-      <c r="E74" s="5">
-        <v>1158571</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="13">
+      <c r="D76" s="6">
+        <v>20356179</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1154332</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="14">
         <v>2018</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C77" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="6">
-        <v>20356179</v>
-      </c>
-      <c r="E75" s="6">
-        <v>1154332</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="14">
+      <c r="D77" s="5">
+        <v>20192960</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1140678</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="5">
-        <v>20192960</v>
-      </c>
-      <c r="E76" s="5">
-        <v>1140678</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="13">
+      <c r="C78" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="6">
+        <v>20063433</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1138592</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="14">
         <v>2018</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C79" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="6">
-        <v>20063433</v>
-      </c>
-      <c r="E77" s="6">
-        <v>1138592</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="14">
+      <c r="D79" s="5">
+        <v>19949244</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1130363</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C80" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="5">
-        <v>19949244</v>
-      </c>
-      <c r="E78" s="5">
-        <v>1130363</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="13">
+      <c r="D80" s="6">
+        <v>19894575</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1125051</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C81" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="6">
-        <v>19894575</v>
-      </c>
-      <c r="E79" s="6">
-        <v>1125051</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="14">
+      <c r="D81" s="5">
+        <v>19908072</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1122774</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C82" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="5">
-        <v>19908072</v>
-      </c>
-      <c r="E80" s="5">
-        <v>1122774</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="13">
+      <c r="D82" s="6">
+        <v>19874106</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1118667</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C83" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="6">
-        <v>19874106</v>
-      </c>
-      <c r="E81" s="6">
-        <v>1118667</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="14">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="5">
+      <c r="D83" s="5">
         <v>19786997</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E83" s="5">
         <v>1110710</v>
-      </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="6">
-        <v>19696488</v>
-      </c>
-      <c r="E83" s="6">
-        <v>1103513</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-      <c r="J83" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="14">
+    </row>
+    <row r="84" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="5">
-        <v>19532177</v>
-      </c>
-      <c r="E84" s="5">
-        <v>1098889</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
+      <c r="C84" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="6">
+        <v>19696488</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1103513</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="2" t="s">
-        <v>8</v>
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="5">
+        <v>19532177</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1098889</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D88" s="3"/>
-      <c r="E88" s="8"/>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D89" s="3"/>
       <c r="E89" s="8"/>
     </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D90" s="3"/>
+      <c r="E90" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573C19A2-2FF3-4807-9B11-66ECC20D3DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330552AA-FF9E-474B-8215-0C5C6B3D0E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -112,19 +112,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -132,20 +132,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -316,13 +316,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -332,6 +325,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -350,7 +350,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -386,8 +386,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E85" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="B4:E85" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E86" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B4:E86" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -408,7 +408,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -416,28 +416,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -446,14 +446,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -628,28 +628,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O90"/>
+  <dimension ref="B2:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.8984375" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="24.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="12" width="18.875" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -667,7 +667,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -683,7 +683,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
@@ -697,1188 +697,1202 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14">
+    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
         <v>2024</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6">
+        <v>22618942</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1601366</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D6" s="17">
         <v>22480803</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E6" s="17">
         <v>1573441</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="13">
+    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <v>22389835</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="6">
         <v>1563033</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14">
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
         <v>2024</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D8" s="17">
         <v>22331788</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>1559076</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="13">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>22319444</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>1555259</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="14">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
         <v>2024</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D10" s="17">
         <v>22348999</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="17">
         <v>1559328</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="13">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>22374202</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <v>1561135</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="14">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
         <v>2024</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D12" s="17">
         <v>22289345</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>1545250</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="13">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>22289810</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>1540972</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D14" s="18">
         <v>22133407</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E14" s="18">
         <v>1532544</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="16">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
         <v>2023</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <v>22024386</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>1522386</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="14">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="14">
         <v>2023</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="17">
         <v>22409268</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="17">
         <v>1536052</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="13">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="13">
         <v>2023</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>22302690</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>1517214</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="14">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
         <v>2023</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D18" s="17">
         <v>22129433</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E18" s="17">
         <v>1492386</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="13">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
         <v>2023</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>21996875</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>1486423</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="14">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D20" s="17">
         <v>21885139</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="17">
         <v>1476689</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="13">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>21887307</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>1472427</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="14">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D22" s="17">
         <v>21862909</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E22" s="17">
         <v>1473285</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="13">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <v>21820291</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="6">
         <v>1458395</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="14">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <v>21796280</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>1453808</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="13">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>21660469</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>1439808</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="15">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D26" s="18">
         <v>21484595</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E26" s="18">
         <v>1431720</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="16">
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="16">
         <v>2022</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <v>21372896</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>1432765</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14">
+    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14">
         <v>2022</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D28" s="5">
         <v>21718601</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <v>1449414</v>
       </c>
     </row>
-    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="13">
+    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="13">
         <v>2022</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>21617326</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>1438643</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="14">
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="14">
         <v>2022</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D30" s="5">
         <v>21409358</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="5">
         <v>1421088</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="13">
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <v>21236866</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <v>1409658</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="14">
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="14">
         <v>2022</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D32" s="5">
         <v>21079434</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>1400461</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="13">
+    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>21068708</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <v>1394745</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="14">
+    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D34" s="5">
         <v>21008487</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>1387090</v>
       </c>
     </row>
-    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="13">
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <v>21011342</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E35" s="6">
         <v>1371403</v>
       </c>
     </row>
-    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="14">
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D36" s="5">
         <v>21005852</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E36" s="5">
         <v>1366419</v>
       </c>
     </row>
-    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="13">
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="6">
         <v>20941286</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E37" s="6">
         <v>1362139</v>
       </c>
     </row>
-    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="15">
+    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D38" s="7">
         <v>20762419</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="7">
         <v>1353437</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="16">
+    <row r="39" spans="2:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="16">
         <v>2021</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="12">
         <v>20620148</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>1346231</v>
       </c>
     </row>
-    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="14">
+    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="14">
         <v>2021</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D40" s="5">
         <v>20933050</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E40" s="5">
         <v>1355387</v>
       </c>
     </row>
-    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="13">
+    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="13">
         <v>2021</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="6">
         <v>20767587</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <v>1334726</v>
       </c>
     </row>
-    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="14">
+    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="14">
         <v>2021</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D42" s="5">
         <v>20594919</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E42" s="5">
         <v>1322061</v>
       </c>
     </row>
-    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="13">
+    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="13">
         <v>2021</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D43" s="6">
         <v>20420823</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E43" s="6">
         <v>1297793</v>
       </c>
     </row>
-    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="14">
+    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="14">
         <v>2021</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D44" s="5">
         <v>20291923</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E44" s="5">
         <v>1281115</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="13">
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D45" s="6">
         <v>20175380</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E45" s="6">
         <v>1238603</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="14">
+    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D46" s="5">
         <v>20109444</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E46" s="5">
         <v>1233478</v>
       </c>
     </row>
-    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="13">
+    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="6">
         <v>20070483</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E47" s="6">
         <v>1228178</v>
       </c>
     </row>
-    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="14">
+    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D48" s="5">
         <v>20025709</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E48" s="5">
         <v>1221474</v>
       </c>
     </row>
-    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="13">
+    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D49" s="6">
         <v>19936938</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E49" s="6">
         <v>1217940</v>
       </c>
     </row>
-    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="15">
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D50" s="7">
         <v>19821651</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="7">
         <v>1215685</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="16">
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="16">
         <v>2020</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <v>19773732</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>1213211</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="14">
+    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="14">
         <v>2020</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D52" s="5">
         <v>20051552</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E52" s="5">
         <v>1220915</v>
       </c>
     </row>
-    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="13">
+    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="13">
         <v>2020</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <v>19902833</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>1208882</v>
       </c>
     </row>
-    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="14">
+    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="14">
         <v>2020</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D54" s="5">
         <v>19702192</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E54" s="5">
         <v>1193903</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="13">
+    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="13">
         <v>2020</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D55" s="6">
         <v>19588342</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E55" s="6">
         <v>1187467</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="14">
+    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="14">
         <v>2020</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D56" s="5">
         <v>19495952</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E56" s="5">
         <v>1183455</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="13">
+    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <v>19499859</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="6">
         <v>1182594</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="14">
+    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D58" s="5">
         <v>19583170</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E58" s="5">
         <v>1186977</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="13">
+    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="6">
         <v>19927696</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E59" s="6">
         <v>1202788</v>
       </c>
     </row>
-    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="14">
+    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D60" s="5">
         <v>20482943</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E60" s="5">
         <v>1226995</v>
       </c>
     </row>
-    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="13">
+    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="6">
         <v>20613536</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E61" s="6">
         <v>1223755</v>
       </c>
     </row>
-    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="15">
+    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D62" s="7">
         <v>20490397</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="7">
         <v>1217337</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="16">
+    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="16">
         <v>2019</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <v>20421442</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>1215181</v>
       </c>
     </row>
-    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="14">
+    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="14">
         <v>2019</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D64" s="5">
         <v>20803652</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E64" s="5">
         <v>1220127</v>
       </c>
     </row>
-    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="13">
+    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="13">
         <v>2019</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <v>20727424</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="6">
         <v>1214110</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="14">
+    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="14">
         <v>2019</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D66" s="5">
         <v>20567426</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E66" s="5">
         <v>1204267</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="13">
+    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="13">
         <v>2019</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D67" s="6">
         <v>20422010</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E67" s="6">
         <v>1199362</v>
       </c>
     </row>
-    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="14">
+    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="14">
         <v>2019</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D68" s="5">
         <v>20385379</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E68" s="5">
         <v>1196621</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="13">
+    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="6">
         <v>20368666</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E69" s="6">
         <v>1183628</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="14">
+    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C70" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D70" s="5">
         <v>20382910</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E70" s="5">
         <v>1176213</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="13">
+    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D71" s="6">
         <v>20378927</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E71" s="6">
         <v>1173595</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="14">
+    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D72" s="5">
         <v>20348508</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E72" s="5">
         <v>1166805</v>
       </c>
     </row>
-    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="13">
+    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="6">
         <v>20299993</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <v>1162018</v>
       </c>
     </row>
-    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="15">
+    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D74" s="7">
         <v>20174011</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E74" s="7">
         <v>1151961</v>
       </c>
     </row>
-    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="13">
+    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="13">
         <v>2018</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <v>20079365</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>1150983</v>
       </c>
     </row>
-    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="14">
+    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="14">
         <v>2018</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C76" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D76" s="5">
         <v>20457926</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E76" s="5">
         <v>1158571</v>
       </c>
     </row>
-    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="13">
+    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="13">
         <v>2018</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <v>20356179</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <v>1154332</v>
       </c>
     </row>
-    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="14">
+    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="14">
         <v>2018</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C78" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D78" s="5">
         <v>20192960</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E78" s="5">
         <v>1140678</v>
       </c>
     </row>
-    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="13">
+    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D79" s="6">
         <v>20063433</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E79" s="6">
         <v>1138592</v>
       </c>
     </row>
-    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="14">
+    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="14">
         <v>2018</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D80" s="5">
         <v>19949244</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E80" s="5">
         <v>1130363</v>
       </c>
     </row>
-    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="13">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="6">
         <v>19894575</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E81" s="6">
         <v>1125051</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="14">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="14">
         <v>2018</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D82" s="5">
         <v>19908072</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E82" s="5">
         <v>1122774</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="13">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D83" s="6">
         <v>19874106</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E83" s="6">
         <v>1118667</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="14">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="14">
         <v>2018</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D84" s="5">
         <v>19786997</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E84" s="5">
         <v>1110710</v>
-      </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="6">
-        <v>19696488</v>
-      </c>
-      <c r="E84" s="6">
-        <v>1103513</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-      <c r="J84" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="14">
+    </row>
+    <row r="85" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="5">
-        <v>19532177</v>
-      </c>
-      <c r="E85" s="5">
-        <v>1098889</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
+      <c r="C85" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="6">
+        <v>19696488</v>
+      </c>
+      <c r="E85" s="6">
+        <v>1103513</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="2" t="s">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="5">
+        <v>19532177</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1098889</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="2" t="s">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D89" s="3"/>
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D90" s="3"/>
       <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D91" s="3"/>
+      <c r="E91" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330552AA-FF9E-474B-8215-0C5C6B3D0E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E04F2B2-1AE0-49F6-9880-2B53CE7D33FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -117,23 +117,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -143,11 +130,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -234,34 +236,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -271,48 +256,111 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -331,11 +379,17 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -350,9 +404,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -386,11 +441,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E86" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B4:E86" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E87" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="B4:E87" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
@@ -628,28 +682,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O91"/>
+  <dimension ref="B2:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="12" width="18.875" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="3" customWidth="1"/>
+    <col min="4" max="5" width="19.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="3" customWidth="1"/>
+    <col min="8" max="12" width="18.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -667,7 +721,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -683,1219 +737,1233 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:15" s="7" customFormat="1" ht="58.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
+    <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="8">
         <v>2024</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9">
+        <v>22643638</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1612249</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="11">
         <v>22618942</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E6" s="11">
         <v>1601366</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
         <v>2024</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D7" s="9">
         <v>22480803</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="9">
         <v>1573441</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="11">
         <v>22389835</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="11">
         <v>1563033</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="9">
         <v>22331788</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="9">
         <v>1559076</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="11">
         <v>22319444</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="11">
         <v>1555259</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D11" s="9">
         <v>22348999</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="9">
         <v>1559328</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="11">
         <v>22374202</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="11">
         <v>1561135</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="9">
         <v>22289345</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="9">
         <v>1545250</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="11">
         <v>22289810</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="11">
         <v>1540972</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D15" s="13">
         <v>22133407</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E15" s="13">
         <v>1532544</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="12">
-        <v>22024386</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1522386</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="B16" s="14">
         <v>2023</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="15">
+        <v>22024386</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1522386</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="8">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D17" s="9">
         <v>22409268</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="9">
         <v>1536052</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="13">
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10">
         <v>2023</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="11">
         <v>22302690</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="11">
         <v>1517214</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
+    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="8">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="9">
         <v>22129433</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E19" s="9">
         <v>1492386</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
+    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="11">
         <v>21996875</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="11">
         <v>1486423</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
+    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D21" s="9">
         <v>21885139</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="9">
         <v>1476689</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="13">
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="11">
         <v>21887307</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="11">
         <v>1472427</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
+    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="9">
         <v>21862909</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E23" s="9">
         <v>1473285</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="13">
+    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="11">
         <v>21820291</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="11">
         <v>1458395</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="9">
         <v>21796280</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="9">
         <v>1453808</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="13">
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="11">
         <v>21660469</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="11">
         <v>1439808</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D27" s="13">
         <v>21484595</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E27" s="13">
         <v>1431720</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
-        <v>2022</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="12">
-        <v>21372896</v>
-      </c>
-      <c r="E27" s="12">
-        <v>1432765</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14">
         <v>2022</v>
       </c>
       <c r="C28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="15">
+        <v>21372896</v>
+      </c>
+      <c r="E28" s="15">
+        <v>1432765</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D29" s="9">
         <v>21718601</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="9">
         <v>1449414</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="13">
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="10">
         <v>2022</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="11">
         <v>21617326</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="11">
         <v>1438643</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="14">
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="8">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D31" s="9">
         <v>21409358</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E31" s="9">
         <v>1421088</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13">
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="11">
         <v>21236866</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="11">
         <v>1409658</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14">
+    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D33" s="9">
         <v>21079434</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="9">
         <v>1400461</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="13">
+    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="11">
         <v>21068708</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="11">
         <v>1394745</v>
       </c>
     </row>
-    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="14">
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D35" s="9">
         <v>21008487</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="9">
         <v>1387090</v>
       </c>
     </row>
-    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13">
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="11">
         <v>21011342</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="11">
         <v>1371403</v>
       </c>
     </row>
-    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="14">
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D37" s="9">
         <v>21005852</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E37" s="9">
         <v>1366419</v>
       </c>
     </row>
-    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="13">
+    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="11">
         <v>20941286</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="11">
         <v>1362139</v>
       </c>
     </row>
-    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15">
+    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D39" s="13">
         <v>20762419</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="13">
         <v>1353437</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16">
-        <v>2021</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="12">
-        <v>20620148</v>
-      </c>
-      <c r="E39" s="12">
-        <v>1346231</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="14">
         <v>2021</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="15">
+        <v>20620148</v>
+      </c>
+      <c r="E40" s="15">
+        <v>1346231</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D41" s="9">
         <v>20933050</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E41" s="9">
         <v>1355387</v>
       </c>
     </row>
-    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="13">
+    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="10">
         <v>2021</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="11">
         <v>20767587</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="11">
         <v>1334726</v>
       </c>
     </row>
-    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="14">
+    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="8">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D43" s="9">
         <v>20594919</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E43" s="9">
         <v>1322061</v>
       </c>
     </row>
-    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="13">
+    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D44" s="11">
         <v>20420823</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E44" s="11">
         <v>1297793</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="14">
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D45" s="9">
         <v>20291923</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E45" s="9">
         <v>1281115</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="13">
+    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="11">
         <v>20175380</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="11">
         <v>1238603</v>
       </c>
     </row>
-    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="14">
+    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D47" s="9">
         <v>20109444</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E47" s="9">
         <v>1233478</v>
       </c>
     </row>
-    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="13">
+    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="11">
         <v>20070483</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="11">
         <v>1228178</v>
       </c>
     </row>
-    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="14">
+    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D49" s="9">
         <v>20025709</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="9">
         <v>1221474</v>
       </c>
     </row>
-    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="13">
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="11">
         <v>19936938</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="11">
         <v>1217940</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15">
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D51" s="13">
         <v>19821651</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="13">
         <v>1215685</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="16">
-        <v>2020</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="12">
-        <v>19773732</v>
-      </c>
-      <c r="E51" s="12">
-        <v>1213211</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="B52" s="14">
         <v>2020</v>
       </c>
       <c r="C52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="15">
+        <v>19773732</v>
+      </c>
+      <c r="E52" s="15">
+        <v>1213211</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D53" s="9">
         <v>20051552</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E53" s="9">
         <v>1220915</v>
       </c>
     </row>
-    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="13">
+    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="10">
         <v>2020</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="11">
         <v>19902833</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="11">
         <v>1208882</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="14">
+    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="8">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D55" s="9">
         <v>19702192</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E55" s="9">
         <v>1193903</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="13">
+    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D56" s="11">
         <v>19588342</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E56" s="11">
         <v>1187467</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="14">
+    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D57" s="9">
         <v>19495952</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E57" s="9">
         <v>1183455</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="13">
+    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="11">
         <v>19499859</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="11">
         <v>1182594</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="14">
+    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D59" s="9">
         <v>19583170</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E59" s="9">
         <v>1186977</v>
       </c>
     </row>
-    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="13">
+    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D60" s="11">
         <v>19927696</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E60" s="11">
         <v>1202788</v>
       </c>
     </row>
-    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="14">
+    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D61" s="9">
         <v>20482943</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E61" s="9">
         <v>1226995</v>
       </c>
     </row>
-    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="13">
+    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="11">
         <v>20613536</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="11">
         <v>1223755</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="15">
+    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D63" s="13">
         <v>20490397</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="13">
         <v>1217337</v>
       </c>
     </row>
-    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="16">
-        <v>2019</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="12">
-        <v>20421442</v>
-      </c>
-      <c r="E63" s="12">
-        <v>1215181</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="B64" s="14">
         <v>2019</v>
       </c>
       <c r="C64" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="15">
+        <v>20421442</v>
+      </c>
+      <c r="E64" s="15">
+        <v>1215181</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D65" s="9">
         <v>20803652</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E65" s="9">
         <v>1220127</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="13">
+    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="10">
         <v>2019</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="11">
         <v>20727424</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="11">
         <v>1214110</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="14">
+    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="8">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D67" s="9">
         <v>20567426</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E67" s="9">
         <v>1204267</v>
       </c>
     </row>
-    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="13">
+    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D68" s="11">
         <v>20422010</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E68" s="11">
         <v>1199362</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="14">
+    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D69" s="9">
         <v>20385379</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E69" s="9">
         <v>1196621</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="13">
+    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="11">
         <v>20368666</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E70" s="11">
         <v>1183628</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="14">
+    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D71" s="9">
         <v>20382910</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E71" s="9">
         <v>1176213</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="13">
+    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D72" s="11">
         <v>20378927</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E72" s="11">
         <v>1173595</v>
       </c>
     </row>
-    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="14">
+    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D73" s="9">
         <v>20348508</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E73" s="9">
         <v>1166805</v>
       </c>
     </row>
-    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="13">
+    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="11">
         <v>20299993</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="11">
         <v>1162018</v>
       </c>
     </row>
-    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="15">
+    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D75" s="13">
         <v>20174011</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="13">
         <v>1151961</v>
       </c>
     </row>
-    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="13">
+    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2018</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="11">
         <v>20079365</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="11">
         <v>1150983</v>
       </c>
     </row>
-    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="14">
+    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="8">
         <v>2018</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D77" s="9">
         <v>20457926</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E77" s="9">
         <v>1158571</v>
       </c>
     </row>
-    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="13">
+    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="10">
         <v>2018</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="11">
         <v>20356179</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="11">
         <v>1154332</v>
       </c>
     </row>
-    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="14">
+    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="8">
         <v>2018</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D79" s="9">
         <v>20192960</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E79" s="9">
         <v>1140678</v>
       </c>
     </row>
-    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="13">
+    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D80" s="11">
         <v>20063433</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E80" s="11">
         <v>1138592</v>
       </c>
     </row>
-    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="14">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D81" s="9">
         <v>19949244</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E81" s="9">
         <v>1130363</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="13">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="11">
         <v>19894575</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="11">
         <v>1125051</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="14">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D83" s="9">
         <v>19908072</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E83" s="9">
         <v>1122774</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="13">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="11">
         <v>19874106</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E84" s="11">
         <v>1118667</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="14">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D85" s="9">
         <v>19786997</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E85" s="9">
         <v>1110710</v>
-      </c>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="6">
-        <v>19696488</v>
-      </c>
-      <c r="E85" s="6">
-        <v>1103513</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" t="s">
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+    </row>
+    <row r="86" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="11">
+        <v>19696488</v>
+      </c>
+      <c r="E86" s="11">
+        <v>1103513</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="14">
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C87" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D87" s="9">
         <v>19532177</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E87" s="9">
         <v>1098889</v>
       </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" t="s">
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B88" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B89" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D90" s="3"/>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D91" s="3"/>
-      <c r="E91" s="8"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D91" s="16"/>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D92" s="16"/>
+      <c r="E92" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E04F2B2-1AE0-49F6-9880-2B53CE7D33FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7E7E12-3B0B-49EA-BF0B-F11EDBC282DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E87" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="B4:E87" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E88" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="B4:E88" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -682,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O92"/>
+  <dimension ref="B2:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -752,1137 +752,1137 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>2024</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11">
+        <v>22238379</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1581718</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="9">
         <v>22643638</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="9">
         <v>1612249</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>22618942</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>1601366</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="9">
         <v>22480803</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>1573441</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>22389835</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>1563033</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="8">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>22331788</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>1559076</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>22319444</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>1555259</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>22348999</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>1559328</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>22374202</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>1561135</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>22289345</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>1545250</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>22289810</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>1540972</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="12">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>22133407</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>1532544</v>
       </c>
     </row>
-    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="14">
+    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="14">
         <v>2023</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D17" s="15">
         <v>22024386</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="15">
         <v>1522386</v>
       </c>
     </row>
-    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="8">
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="8">
         <v>2023</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <v>22409268</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>1536052</v>
       </c>
     </row>
-    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
+    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10">
         <v>2023</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>22302690</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>1517214</v>
       </c>
     </row>
-    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8">
+    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="8">
         <v>2023</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>22129433</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>1492386</v>
       </c>
     </row>
-    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>21996875</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>1486423</v>
       </c>
     </row>
-    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="8">
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>21885139</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>1476689</v>
       </c>
     </row>
-    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>21887307</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>1472427</v>
       </c>
     </row>
-    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="8">
+    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>21862909</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>1473285</v>
       </c>
     </row>
-    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>21820291</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>1458395</v>
       </c>
     </row>
-    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="8">
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>21796280</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>1453808</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>21660469</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>1439808</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="12">
+    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <v>21484595</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>1431720</v>
       </c>
     </row>
-    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="14">
+    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="14">
         <v>2022</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D29" s="15">
         <v>21372896</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="15">
         <v>1432765</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="8">
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="8">
         <v>2022</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>21718601</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>1449414</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="10">
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="10">
         <v>2022</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>21617326</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>1438643</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="8">
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="8">
         <v>2022</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="9">
         <v>21409358</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>1421088</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>21236866</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>1409658</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="8">
+    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>21079434</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>1400461</v>
       </c>
     </row>
-    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>21068708</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>1394745</v>
       </c>
     </row>
-    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="8">
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="9">
         <v>21008487</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>1387090</v>
       </c>
     </row>
-    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>21011342</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>1371403</v>
       </c>
     </row>
-    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="8">
+    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>21005852</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>1366419</v>
       </c>
     </row>
-    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>20941286</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>1362139</v>
       </c>
     </row>
-    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="12">
+    <row r="40" spans="2:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>20762419</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>1353437</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="14">
+    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="14">
         <v>2021</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D41" s="15">
         <v>20620148</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="15">
         <v>1346231</v>
       </c>
     </row>
-    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="8">
+    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="8">
         <v>2021</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D42" s="9">
         <v>20933050</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>1355387</v>
       </c>
     </row>
-    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="10">
+    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="10">
         <v>2021</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>20767587</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="11">
         <v>1334726</v>
       </c>
     </row>
-    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="8">
+    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="8">
         <v>2021</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>20594919</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>1322061</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>20420823</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>1297793</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="8">
+    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>20291923</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>1281115</v>
       </c>
     </row>
-    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>20175380</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>1238603</v>
       </c>
     </row>
-    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="8">
+    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="9">
         <v>20109444</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>1233478</v>
       </c>
     </row>
-    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>20070483</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>1228178</v>
       </c>
     </row>
-    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="8">
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>20025709</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>1221474</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>19936938</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>1217940</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="12">
+    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <v>19821651</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>1215685</v>
       </c>
     </row>
-    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="14">
+    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="14">
         <v>2020</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D53" s="15">
         <v>19773732</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E53" s="15">
         <v>1213211</v>
       </c>
     </row>
-    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="8">
+    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="8">
         <v>2020</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="9">
         <v>20051552</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>1220915</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="10">
+    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="10">
         <v>2020</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>19902833</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>1208882</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="8">
+    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="8">
         <v>2020</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="9">
         <v>19702192</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>1193903</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>19588342</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>1187467</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="8">
+    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>19495952</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>1183455</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>19499859</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>1182594</v>
       </c>
     </row>
-    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="8">
+    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="9">
         <v>19583170</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>1186977</v>
       </c>
     </row>
-    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>19927696</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>1202788</v>
       </c>
     </row>
-    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="8">
+    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>20482943</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>1226995</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>20613536</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>1223755</v>
       </c>
     </row>
-    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="12">
+    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <v>20490397</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>1217337</v>
       </c>
     </row>
-    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="14">
+    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="14">
         <v>2019</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D65" s="15">
         <v>20421442</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E65" s="15">
         <v>1215181</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="8">
+    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="8">
         <v>2019</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="9">
         <v>20803652</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>1220127</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="10">
+    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="10">
         <v>2019</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>20727424</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>1214110</v>
       </c>
     </row>
-    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="8">
+    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="8">
         <v>2019</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="9">
         <v>20567426</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="9">
         <v>1204267</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>20422010</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>1199362</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="8">
+    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>20385379</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>1196621</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>20368666</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>1183628</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="8">
+    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="9">
         <v>20382910</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="9">
         <v>1176213</v>
       </c>
     </row>
-    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>20378927</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>1173595</v>
       </c>
     </row>
-    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="8">
+    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>20348508</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>1166805</v>
       </c>
     </row>
-    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>20299993</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>1162018</v>
       </c>
     </row>
-    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="12">
+    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <v>20174011</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>1151961</v>
       </c>
     </row>
-    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10">
+    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="10">
         <v>2018</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>20079365</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>1150983</v>
       </c>
     </row>
-    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="8">
+    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="8">
         <v>2018</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="9">
         <v>20457926</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>1158571</v>
       </c>
     </row>
-    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="10">
+    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="10">
         <v>2018</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>20356179</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>1154332</v>
       </c>
     </row>
-    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="8">
+    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="8">
         <v>2018</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="9">
         <v>20192960</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="9">
         <v>1140678</v>
       </c>
     </row>
-    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>20063433</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>1138592</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="8">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>19949244</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>1130363</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>19894575</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>1125051</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="8">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D84" s="9">
         <v>19908072</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E84" s="9">
         <v>1122774</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>19874106</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>1118667</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="9">
-        <v>19786997</v>
-      </c>
-      <c r="E85" s="9">
-        <v>1110710</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -1890,17 +1890,17 @@
       <c r="I85" s="16"/>
     </row>
     <row r="86" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="11">
-        <v>19696488</v>
-      </c>
-      <c r="E86" s="11">
-        <v>1103513</v>
+      <c r="C86" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="9">
+        <v>19786997</v>
+      </c>
+      <c r="E86" s="9">
+        <v>1110710</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -1911,17 +1911,17 @@
       </c>
     </row>
     <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="8">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="9">
-        <v>19532177</v>
-      </c>
-      <c r="E87" s="9">
-        <v>1098889</v>
+      <c r="C87" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="11">
+        <v>19696488</v>
+      </c>
+      <c r="E87" s="11">
+        <v>1103513</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
@@ -1931,17 +1931,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B88" s="2" t="s">
-        <v>20</v>
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="9">
+        <v>19532177</v>
+      </c>
+      <c r="E88" s="9">
+        <v>1098889</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B89" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+        <v>20</v>
+      </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
@@ -1949,18 +1956,25 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="D91" s="16"/>
-      <c r="E91" s="17"/>
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D92" s="16"/>
       <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D93" s="16"/>
+      <c r="E93" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7E7E12-3B0B-49EA-BF0B-F11EDBC282DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9806471-7260-4457-8995-4D63CB982B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -233,12 +233,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -288,6 +299,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -441,8 +458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E88" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="B4:E88" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E89" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="B4:E89" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -682,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O93"/>
+  <dimension ref="B2:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -752,1179 +769,1172 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="10">
+      <c r="B5" s="18">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19">
+        <v>22311546</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1572317</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
         <v>2024</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D6" s="11">
         <v>22238379</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E6" s="11">
         <v>1581718</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="8">
+    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
         <v>2024</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>22643638</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>1612249</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
+    <row r="8" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>22618942</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="11">
         <v>1601366</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="8">
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>22480803</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>1573441</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="10">
+    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>22389835</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>1563033</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="8">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>22331788</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>1559076</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="10">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>22319444</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>1555259</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="8">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>22348999</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>1559328</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="10">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>22374202</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>1561135</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="8">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>22289345</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>1545250</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="10">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>22289810</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>1540972</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="12">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <v>22133407</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>1532544</v>
       </c>
     </row>
-    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="14">
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="14">
         <v>2023</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D18" s="15">
         <v>22024386</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E18" s="15">
         <v>1522386</v>
       </c>
     </row>
-    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="8">
+    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="8">
         <v>2023</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>22409268</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>1536052</v>
       </c>
     </row>
-    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
+    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>22302690</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>1517214</v>
       </c>
     </row>
-    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="8">
+    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>22129433</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>1492386</v>
       </c>
     </row>
-    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>21996875</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>1486423</v>
       </c>
     </row>
-    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="8">
+    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>21885139</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>1476689</v>
       </c>
     </row>
-    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10">
+    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>21887307</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>1472427</v>
       </c>
     </row>
-    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="8">
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>21862909</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>1473285</v>
       </c>
     </row>
-    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>21820291</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>1458395</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="8">
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>21796280</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>1453808</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="10">
+    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>21660469</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>1439808</v>
       </c>
     </row>
-    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="12">
+    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>21484595</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>1431720</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="14">
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="14">
         <v>2022</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D30" s="15">
         <v>21372896</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="15">
         <v>1432765</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="8">
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="8">
         <v>2022</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="9">
         <v>21718601</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>1449414</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10">
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>21617326</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>1438643</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="8">
+    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>21409358</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>1421088</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="10">
+    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>21236866</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>1409658</v>
       </c>
     </row>
-    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="8">
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>21079434</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>1400461</v>
       </c>
     </row>
-    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="10">
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>21068708</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>1394745</v>
       </c>
     </row>
-    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="8">
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>21008487</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>1387090</v>
       </c>
     </row>
-    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="10">
+    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>21011342</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>1371403</v>
       </c>
     </row>
-    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="8">
+    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>21005852</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>1366419</v>
       </c>
     </row>
-    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10">
+    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>20941286</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>1362139</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="12">
+    <row r="41" spans="2:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <v>20762419</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>1353437</v>
       </c>
     </row>
-    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="14">
+    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="14">
         <v>2021</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D42" s="15">
         <v>20620148</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="15">
         <v>1346231</v>
       </c>
     </row>
-    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="8">
+    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="8">
         <v>2021</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>20933050</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>1355387</v>
       </c>
     </row>
-    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="10">
+    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>20767587</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>1334726</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="8">
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>20594919</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>1322061</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="10">
+    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>20420823</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>1297793</v>
       </c>
     </row>
-    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="8">
+    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>20291923</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>1281115</v>
       </c>
     </row>
-    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="10">
+    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>20175380</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>1238603</v>
       </c>
     </row>
-    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="8">
+    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>20109444</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>1233478</v>
       </c>
     </row>
-    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="10">
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>20070483</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>1228178</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="8">
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>20025709</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>1221474</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="10">
+    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>19936938</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>1217940</v>
       </c>
     </row>
-    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="12">
+    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <v>19821651</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>1215685</v>
       </c>
     </row>
-    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="14">
+    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="14">
         <v>2020</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D54" s="15">
         <v>19773732</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E54" s="15">
         <v>1213211</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="8">
+    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="8">
         <v>2020</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="9">
         <v>20051552</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>1220915</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="10">
+    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>19902833</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>1208882</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="8">
+    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>19702192</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>1193903</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="10">
+    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>19588342</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>1187467</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="8">
+    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>19495952</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>1183455</v>
       </c>
     </row>
-    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="10">
+    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>19499859</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="11">
         <v>1182594</v>
       </c>
     </row>
-    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="8">
+    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>19583170</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>1186977</v>
       </c>
     </row>
-    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="10">
+    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>19927696</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>1202788</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="8">
+    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>20482943</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>1226995</v>
       </c>
     </row>
-    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="10">
+    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>20613536</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>1223755</v>
       </c>
     </row>
-    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="12">
+    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <v>20490397</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>1217337</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="14">
+    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="14">
         <v>2019</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D66" s="15">
         <v>20421442</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E66" s="15">
         <v>1215181</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="8">
+    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="8">
         <v>2019</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="9">
         <v>20803652</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>1220127</v>
       </c>
     </row>
-    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="10">
+    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>20727424</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="11">
         <v>1214110</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="8">
+    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>20567426</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <v>1204267</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="10">
+    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>20422010</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>1199362</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="8">
+    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>20385379</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>1196621</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="10">
+    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>20368666</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>1183628</v>
       </c>
     </row>
-    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="8">
+    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>20382910</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>1176213</v>
       </c>
     </row>
-    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="10">
+    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>20378927</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>1173595</v>
       </c>
     </row>
-    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="8">
+    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>20348508</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>1166805</v>
       </c>
     </row>
-    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="10">
+    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>20299993</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>1162018</v>
       </c>
     </row>
-    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="12">
+    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <v>20174011</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>1151961</v>
       </c>
     </row>
-    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="10">
+    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="10">
         <v>2018</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>20079365</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>1150983</v>
       </c>
     </row>
-    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="8">
+    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="8">
         <v>2018</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="9">
         <v>20457926</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>1158571</v>
       </c>
     </row>
-    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="10">
+    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>20356179</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>1154332</v>
       </c>
     </row>
-    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="8">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>20192960</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>1140678</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>20063433</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>1138592</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="8">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>19949244</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>1130363</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>19894575</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>1125051</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="8">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>19908072</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E85" s="9">
         <v>1122774</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="10">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>19874106</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>1118667</v>
-      </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-    </row>
-    <row r="86" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="9">
-        <v>19786997</v>
-      </c>
-      <c r="E86" s="9">
-        <v>1110710</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="16"/>
       <c r="I86" s="16"/>
-      <c r="J86" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="10">
+    </row>
+    <row r="87" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="11">
-        <v>19696488</v>
-      </c>
-      <c r="E87" s="11">
-        <v>1103513</v>
-      </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
+      <c r="C87" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="9">
+        <v>19786997</v>
+      </c>
+      <c r="E87" s="9">
+        <v>1110710</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
       <c r="J87" s="3" t="s">
@@ -1932,49 +1942,70 @@
       </c>
     </row>
     <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="8">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="11">
+        <v>19696488</v>
+      </c>
+      <c r="E88" s="11">
+        <v>1103513</v>
+      </c>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D89" s="9">
         <v>19532177</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E89" s="9">
         <v>1098889</v>
       </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="D92" s="16"/>
-      <c r="E92" s="17"/>
+      <c r="B92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D93" s="16"/>
       <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D94" s="16"/>
+      <c r="E94" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9806471-7260-4457-8995-4D63CB982B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE5C2A7-FDA9-426F-B9E3-32D1397DBB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -181,43 +181,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -234,14 +199,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -249,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -258,15 +241,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -282,16 +256,16 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -300,11 +274,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -458,8 +435,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E89" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="B4:E89" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E90" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="B4:E90" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -705,7 +682,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
@@ -720,7 +697,7 @@
     <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -738,7 +715,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -754,1258 +731,1266 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="7" customFormat="1" ht="58.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="49.5">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="18">
+    <row r="5" spans="2:15" s="4" customFormat="1">
+      <c r="B5" s="7">
         <v>2025</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8">
+        <v>22430931</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1573792</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1">
+      <c r="B6" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D6" s="10">
         <v>22311546</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E6" s="10">
         <v>1572317</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+    <row r="7" spans="2:15" s="4" customFormat="1">
+      <c r="B7" s="7">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="8">
         <v>22238379</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="8">
         <v>1581718</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
+    <row r="8" spans="2:15" s="4" customFormat="1">
+      <c r="B8" s="5">
         <v>2024</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="6">
         <v>22643638</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="6">
         <v>1612249</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+    <row r="9" spans="2:15" s="4" customFormat="1">
+      <c r="B9" s="7">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="8">
         <v>22618942</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="8">
         <v>1601366</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="8">
+    <row r="10" spans="2:15" ht="18" customHeight="1">
+      <c r="B10" s="5">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="6">
         <v>22480803</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="6">
         <v>1573441</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+    <row r="11" spans="2:15" ht="18" customHeight="1">
+      <c r="B11" s="7">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="8">
         <v>22389835</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="8">
         <v>1563033</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
+    <row r="12" spans="2:15">
+      <c r="B12" s="5">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="6">
         <v>22331788</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="6">
         <v>1559076</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+    <row r="13" spans="2:15">
+      <c r="B13" s="7">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="8">
         <v>22319444</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="8">
         <v>1555259</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+    <row r="14" spans="2:15">
+      <c r="B14" s="5">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="6">
         <v>22348999</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="6">
         <v>1559328</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+    <row r="15" spans="2:15">
+      <c r="B15" s="7">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="8">
         <v>22374202</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="8">
         <v>1561135</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="8">
+    <row r="16" spans="2:15">
+      <c r="B16" s="5">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="6">
         <v>22289345</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="6">
         <v>1545250</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
+    <row r="17" spans="2:5">
+      <c r="B17" s="7">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="8">
         <v>22289810</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="8">
         <v>1540972</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="12">
+    <row r="18" spans="2:5">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="10">
         <v>22133407</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="10">
         <v>1532544</v>
       </c>
     </row>
-    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="14">
+    <row r="19" spans="2:5" hidden="1">
+      <c r="B19" s="11">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="12">
         <v>22024386</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="12">
         <v>1522386</v>
       </c>
     </row>
-    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8">
+    <row r="20" spans="2:5" hidden="1">
+      <c r="B20" s="5">
         <v>2023</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="6">
         <v>22409268</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="6">
         <v>1536052</v>
       </c>
     </row>
-    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+    <row r="21" spans="2:5" hidden="1">
+      <c r="B21" s="7">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="8">
         <v>22302690</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="8">
         <v>1517214</v>
       </c>
     </row>
-    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="8">
+    <row r="22" spans="2:5" hidden="1">
+      <c r="B22" s="5">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="6">
         <v>22129433</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="6">
         <v>1492386</v>
       </c>
     </row>
-    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="23" spans="2:5" hidden="1">
+      <c r="B23" s="7">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="8">
         <v>21996875</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="8">
         <v>1486423</v>
       </c>
     </row>
-    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="8">
+    <row r="24" spans="2:5" hidden="1">
+      <c r="B24" s="5">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="6">
         <v>21885139</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="6">
         <v>1476689</v>
       </c>
     </row>
-    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+    <row r="25" spans="2:5" hidden="1">
+      <c r="B25" s="7">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="8">
         <v>21887307</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="8">
         <v>1472427</v>
       </c>
     </row>
-    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="8">
+    <row r="26" spans="2:5" hidden="1">
+      <c r="B26" s="5">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="6">
         <v>21862909</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="6">
         <v>1473285</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="27" spans="2:5" hidden="1">
+      <c r="B27" s="7">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="8">
         <v>21820291</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="8">
         <v>1458395</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="8">
+    <row r="28" spans="2:5" hidden="1">
+      <c r="B28" s="5">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="6">
         <v>21796280</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="6">
         <v>1453808</v>
       </c>
     </row>
-    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10">
+    <row r="29" spans="2:5" hidden="1">
+      <c r="B29" s="7">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="8">
         <v>21660469</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="8">
         <v>1439808</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="12">
+    <row r="30" spans="2:5" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="10">
         <v>21484595</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="10">
         <v>1431720</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="14">
+    <row r="31" spans="2:5" hidden="1">
+      <c r="B31" s="11">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="12">
         <v>21372896</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="12">
         <v>1432765</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="8">
+    <row r="32" spans="2:5" hidden="1">
+      <c r="B32" s="5">
         <v>2022</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="6">
         <v>21718601</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="6">
         <v>1449414</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+    <row r="33" spans="2:5" hidden="1">
+      <c r="B33" s="7">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="8">
         <v>21617326</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="8">
         <v>1438643</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="8">
+    <row r="34" spans="2:5" hidden="1">
+      <c r="B34" s="5">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="6">
         <v>21409358</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="6">
         <v>1421088</v>
       </c>
     </row>
-    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+    <row r="35" spans="2:5" hidden="1">
+      <c r="B35" s="7">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="8">
         <v>21236866</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="8">
         <v>1409658</v>
       </c>
     </row>
-    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="8">
+    <row r="36" spans="2:5" hidden="1">
+      <c r="B36" s="5">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="6">
         <v>21079434</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="6">
         <v>1400461</v>
       </c>
     </row>
-    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+    <row r="37" spans="2:5" hidden="1">
+      <c r="B37" s="7">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="8">
         <v>21068708</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="8">
         <v>1394745</v>
       </c>
     </row>
-    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="8">
+    <row r="38" spans="2:5" hidden="1">
+      <c r="B38" s="5">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="6">
         <v>21008487</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="6">
         <v>1387090</v>
       </c>
     </row>
-    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+    <row r="39" spans="2:5" hidden="1">
+      <c r="B39" s="7">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="8">
         <v>21011342</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="8">
         <v>1371403</v>
       </c>
     </row>
-    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="8">
+    <row r="40" spans="2:5" hidden="1">
+      <c r="B40" s="5">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="6">
         <v>21005852</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="6">
         <v>1366419</v>
       </c>
     </row>
-    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10">
+    <row r="41" spans="2:5" hidden="1">
+      <c r="B41" s="7">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="8">
         <v>20941286</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="8">
         <v>1362139</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="12">
+    <row r="42" spans="2:5" ht="18" hidden="1" customHeight="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="10">
         <v>20762419</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="10">
         <v>1353437</v>
       </c>
     </row>
-    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="14">
+    <row r="43" spans="2:5" hidden="1">
+      <c r="B43" s="11">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="12">
         <v>20620148</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="12">
         <v>1346231</v>
       </c>
     </row>
-    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="8">
+    <row r="44" spans="2:5" hidden="1">
+      <c r="B44" s="5">
         <v>2021</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="6">
         <v>20933050</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="6">
         <v>1355387</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+    <row r="45" spans="2:5" hidden="1">
+      <c r="B45" s="7">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="8">
         <v>20767587</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="8">
         <v>1334726</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="8">
+    <row r="46" spans="2:5" hidden="1">
+      <c r="B46" s="5">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="6">
         <v>20594919</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="6">
         <v>1322061</v>
       </c>
     </row>
-    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+    <row r="47" spans="2:5" hidden="1">
+      <c r="B47" s="7">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="8">
         <v>20420823</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="8">
         <v>1297793</v>
       </c>
     </row>
-    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="8">
+    <row r="48" spans="2:5" hidden="1">
+      <c r="B48" s="5">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="6">
         <v>20291923</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="6">
         <v>1281115</v>
       </c>
     </row>
-    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+    <row r="49" spans="2:5" hidden="1">
+      <c r="B49" s="7">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="8">
         <v>20175380</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="8">
         <v>1238603</v>
       </c>
     </row>
-    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="8">
+    <row r="50" spans="2:5" hidden="1">
+      <c r="B50" s="5">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="6">
         <v>20109444</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="6">
         <v>1233478</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+    <row r="51" spans="2:5" hidden="1">
+      <c r="B51" s="7">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="8">
         <v>20070483</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="8">
         <v>1228178</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="8">
+    <row r="52" spans="2:5" hidden="1">
+      <c r="B52" s="5">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="6">
         <v>20025709</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="6">
         <v>1221474</v>
       </c>
     </row>
-    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="10">
+    <row r="53" spans="2:5" hidden="1">
+      <c r="B53" s="7">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="8">
         <v>19936938</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="8">
         <v>1217940</v>
       </c>
     </row>
-    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="12">
+    <row r="54" spans="2:5" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="10">
         <v>19821651</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="10">
         <v>1215685</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="14">
+    <row r="55" spans="2:5" hidden="1">
+      <c r="B55" s="11">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D55" s="12">
         <v>19773732</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="12">
         <v>1213211</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="8">
+    <row r="56" spans="2:5" hidden="1">
+      <c r="B56" s="5">
         <v>2020</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="6">
         <v>20051552</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="6">
         <v>1220915</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+    <row r="57" spans="2:5" hidden="1">
+      <c r="B57" s="7">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="8">
         <v>19902833</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="8">
         <v>1208882</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="8">
+    <row r="58" spans="2:5" hidden="1">
+      <c r="B58" s="5">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="6">
         <v>19702192</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="6">
         <v>1193903</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+    <row r="59" spans="2:5" hidden="1">
+      <c r="B59" s="7">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="8">
         <v>19588342</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="8">
         <v>1187467</v>
       </c>
     </row>
-    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="8">
+    <row r="60" spans="2:5" hidden="1">
+      <c r="B60" s="5">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="6">
         <v>19495952</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="6">
         <v>1183455</v>
       </c>
     </row>
-    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+    <row r="61" spans="2:5" hidden="1">
+      <c r="B61" s="7">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="8">
         <v>19499859</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="8">
         <v>1182594</v>
       </c>
     </row>
-    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="8">
+    <row r="62" spans="2:5" hidden="1">
+      <c r="B62" s="5">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="6">
         <v>19583170</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="6">
         <v>1186977</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+    <row r="63" spans="2:5" hidden="1">
+      <c r="B63" s="7">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="8">
         <v>19927696</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="8">
         <v>1202788</v>
       </c>
     </row>
-    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="8">
+    <row r="64" spans="2:5" hidden="1">
+      <c r="B64" s="5">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="6">
         <v>20482943</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="6">
         <v>1226995</v>
       </c>
     </row>
-    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="10">
+    <row r="65" spans="2:5" hidden="1">
+      <c r="B65" s="7">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="8">
         <v>20613536</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="8">
         <v>1223755</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="12">
+    <row r="66" spans="2:5" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="10">
         <v>20490397</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="10">
         <v>1217337</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="14">
+    <row r="67" spans="2:5" hidden="1">
+      <c r="B67" s="11">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D67" s="12">
         <v>20421442</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="12">
         <v>1215181</v>
       </c>
     </row>
-    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="8">
+    <row r="68" spans="2:5" hidden="1">
+      <c r="B68" s="5">
         <v>2019</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="6">
         <v>20803652</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="6">
         <v>1220127</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+    <row r="69" spans="2:5" hidden="1">
+      <c r="B69" s="7">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="8">
         <v>20727424</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="8">
         <v>1214110</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="8">
+    <row r="70" spans="2:5" hidden="1">
+      <c r="B70" s="5">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="6">
         <v>20567426</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="6">
         <v>1204267</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+    <row r="71" spans="2:5" hidden="1">
+      <c r="B71" s="7">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="8">
         <v>20422010</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="8">
         <v>1199362</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="8">
+    <row r="72" spans="2:5" hidden="1">
+      <c r="B72" s="5">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="6">
         <v>20385379</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="6">
         <v>1196621</v>
       </c>
     </row>
-    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+    <row r="73" spans="2:5" hidden="1">
+      <c r="B73" s="7">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="8">
         <v>20368666</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="8">
         <v>1183628</v>
       </c>
     </row>
-    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="8">
+    <row r="74" spans="2:5" hidden="1">
+      <c r="B74" s="5">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="6">
         <v>20382910</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="6">
         <v>1176213</v>
       </c>
     </row>
-    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+    <row r="75" spans="2:5" hidden="1">
+      <c r="B75" s="7">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="8">
         <v>20378927</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="8">
         <v>1173595</v>
       </c>
     </row>
-    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="8">
+    <row r="76" spans="2:5" hidden="1">
+      <c r="B76" s="5">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="6">
         <v>20348508</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="6">
         <v>1166805</v>
       </c>
     </row>
-    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10">
+    <row r="77" spans="2:5" hidden="1">
+      <c r="B77" s="7">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="8">
         <v>20299993</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="8">
         <v>1162018</v>
       </c>
     </row>
-    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="12">
+    <row r="78" spans="2:5" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="10">
         <v>20174011</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="10">
         <v>1151961</v>
       </c>
     </row>
-    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="10">
+    <row r="79" spans="2:5" hidden="1">
+      <c r="B79" s="7">
         <v>2018</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="8">
         <v>20079365</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="8">
         <v>1150983</v>
       </c>
     </row>
-    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="8">
+    <row r="80" spans="2:5" hidden="1">
+      <c r="B80" s="5">
         <v>2018</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="6">
         <v>20457926</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="6">
         <v>1158571</v>
       </c>
     </row>
-    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="7">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="8">
         <v>20356179</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="8">
         <v>1154332</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="8">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="5">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="6">
         <v>20192960</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="6">
         <v>1140678</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="7">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="8">
         <v>20063433</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="8">
         <v>1138592</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="8">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="5">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D84" s="6">
         <v>19949244</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E84" s="6">
         <v>1130363</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="8">
         <v>19894575</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="8">
         <v>1125051</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="8">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="5">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="6">
         <v>19908072</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="6">
         <v>1122774</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="8">
         <v>19874106</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="8">
         <v>1118667</v>
-      </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-    </row>
-    <row r="87" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="9">
-        <v>19786997</v>
-      </c>
-      <c r="E87" s="9">
-        <v>1110710</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10">
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+    </row>
+    <row r="88" spans="2:10" ht="18" hidden="1" customHeight="1">
+      <c r="B88" s="5">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="11">
-        <v>19696488</v>
-      </c>
-      <c r="E88" s="11">
-        <v>1103513</v>
-      </c>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
+      <c r="C88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="6">
+        <v>19786997</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1110710</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
       <c r="J88" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="8">
+    <row r="89" spans="2:10" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="8">
+        <v>19696488</v>
+      </c>
+      <c r="E89" s="8">
+        <v>1103513</v>
+      </c>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" hidden="1">
+      <c r="B90" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D90" s="6">
         <v>19532177</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="6">
         <v>1098889</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
+    <row r="91" spans="2:10">
+      <c r="B91" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:10">
       <c r="B92" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="D93" s="16"/>
-      <c r="E93" s="17"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="D94" s="16"/>
-      <c r="E94" s="17"/>
+    <row r="93" spans="2:10">
+      <c r="B93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="D94" s="13"/>
+      <c r="E94" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE5C2A7-FDA9-426F-B9E3-32D1397DBB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C633AE-C688-4600-AEDC-6BFDDF65B1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -435,8 +435,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E90" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="B4:E90" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E91" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="B4:E91" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -676,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O94"/>
+  <dimension ref="B2:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -746,1207 +746,1200 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="4" customFormat="1">
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>2025</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6">
+        <v>22465110</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1581128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1">
+      <c r="B6" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D6" s="8">
         <v>22430931</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="8">
         <v>1573792</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1">
-      <c r="B6" s="9">
+    <row r="7" spans="2:15" s="4" customFormat="1">
+      <c r="B7" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="10">
         <v>22311546</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="10">
         <v>1572317</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="4" customFormat="1">
-      <c r="B7" s="7">
+    <row r="8" spans="2:15" s="4" customFormat="1">
+      <c r="B8" s="7">
         <v>2024</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="8">
         <v>22238379</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="8">
         <v>1581718</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="4" customFormat="1">
-      <c r="B8" s="5">
+    <row r="9" spans="2:15" s="4" customFormat="1">
+      <c r="B9" s="5">
         <v>2024</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>22643638</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>1612249</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="4" customFormat="1">
-      <c r="B9" s="7">
+    <row r="10" spans="2:15" s="4" customFormat="1">
+      <c r="B10" s="7">
         <v>2024</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>22618942</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>1601366</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="18" customHeight="1">
-      <c r="B10" s="5">
+    <row r="11" spans="2:15" ht="18" customHeight="1">
+      <c r="B11" s="5">
         <v>2024</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>22480803</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <v>1573441</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="18" customHeight="1">
-      <c r="B11" s="7">
+    <row r="12" spans="2:15" ht="18" customHeight="1">
+      <c r="B12" s="7">
         <v>2024</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <v>22389835</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="8">
         <v>1563033</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="5">
+    <row r="13" spans="2:15">
+      <c r="B13" s="5">
         <v>2024</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>22331788</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>1559076</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="7">
+    <row r="14" spans="2:15">
+      <c r="B14" s="7">
         <v>2024</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <v>22319444</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>1555259</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="5">
+    <row r="15" spans="2:15">
+      <c r="B15" s="5">
         <v>2024</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>22348999</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>1559328</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="7">
+    <row r="16" spans="2:15">
+      <c r="B16" s="7">
         <v>2024</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <v>22374202</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>1561135</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="5">
+    <row r="17" spans="2:5">
+      <c r="B17" s="5">
         <v>2024</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>22289345</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>1545250</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="7">
+    <row r="18" spans="2:5">
+      <c r="B18" s="7">
         <v>2024</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>22289810</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>1540972</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="9">
+    <row r="19" spans="2:5">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="10">
         <v>22133407</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E19" s="10">
         <v>1532544</v>
       </c>
     </row>
-    <row r="19" spans="2:5" hidden="1">
-      <c r="B19" s="11">
+    <row r="20" spans="2:5" hidden="1">
+      <c r="B20" s="11">
         <v>2023</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <v>22024386</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>1522386</v>
       </c>
     </row>
-    <row r="20" spans="2:5" hidden="1">
-      <c r="B20" s="5">
+    <row r="21" spans="2:5" hidden="1">
+      <c r="B21" s="5">
         <v>2023</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>22409268</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>1536052</v>
       </c>
     </row>
-    <row r="21" spans="2:5" hidden="1">
-      <c r="B21" s="7">
+    <row r="22" spans="2:5" hidden="1">
+      <c r="B22" s="7">
         <v>2023</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>22302690</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>1517214</v>
       </c>
     </row>
-    <row r="22" spans="2:5" hidden="1">
-      <c r="B22" s="5">
+    <row r="23" spans="2:5" hidden="1">
+      <c r="B23" s="5">
         <v>2023</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <v>22129433</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="6">
         <v>1492386</v>
       </c>
     </row>
-    <row r="23" spans="2:5" hidden="1">
-      <c r="B23" s="7">
+    <row r="24" spans="2:5" hidden="1">
+      <c r="B24" s="7">
         <v>2023</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <v>21996875</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <v>1486423</v>
       </c>
     </row>
-    <row r="24" spans="2:5" hidden="1">
-      <c r="B24" s="5">
+    <row r="25" spans="2:5" hidden="1">
+      <c r="B25" s="5">
         <v>2023</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>21885139</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>1476689</v>
       </c>
     </row>
-    <row r="25" spans="2:5" hidden="1">
-      <c r="B25" s="7">
+    <row r="26" spans="2:5" hidden="1">
+      <c r="B26" s="7">
         <v>2023</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <v>21887307</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>1472427</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1">
-      <c r="B26" s="5">
+    <row r="27" spans="2:5" hidden="1">
+      <c r="B27" s="5">
         <v>2023</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="6">
         <v>21862909</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>1473285</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1">
-      <c r="B27" s="7">
+    <row r="28" spans="2:5" hidden="1">
+      <c r="B28" s="7">
         <v>2023</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>21820291</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>1458395</v>
       </c>
     </row>
-    <row r="28" spans="2:5" hidden="1">
-      <c r="B28" s="5">
+    <row r="29" spans="2:5" hidden="1">
+      <c r="B29" s="5">
         <v>2023</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>21796280</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>1453808</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1">
-      <c r="B29" s="7">
+    <row r="30" spans="2:5" hidden="1">
+      <c r="B30" s="7">
         <v>2023</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>21660469</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>1439808</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:5" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <v>21484595</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E31" s="10">
         <v>1431720</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1">
-      <c r="B31" s="11">
+    <row r="32" spans="2:5" hidden="1">
+      <c r="B32" s="11">
         <v>2022</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <v>21372896</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E32" s="12">
         <v>1432765</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1">
-      <c r="B32" s="5">
+    <row r="33" spans="2:5" hidden="1">
+      <c r="B33" s="5">
         <v>2022</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>21718601</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <v>1449414</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1">
-      <c r="B33" s="7">
+    <row r="34" spans="2:5" hidden="1">
+      <c r="B34" s="7">
         <v>2022</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <v>21617326</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <v>1438643</v>
       </c>
     </row>
-    <row r="34" spans="2:5" hidden="1">
-      <c r="B34" s="5">
+    <row r="35" spans="2:5" hidden="1">
+      <c r="B35" s="5">
         <v>2022</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <v>21409358</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E35" s="6">
         <v>1421088</v>
       </c>
     </row>
-    <row r="35" spans="2:5" hidden="1">
-      <c r="B35" s="7">
+    <row r="36" spans="2:5" hidden="1">
+      <c r="B36" s="7">
         <v>2022</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="8">
         <v>21236866</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E36" s="8">
         <v>1409658</v>
       </c>
     </row>
-    <row r="36" spans="2:5" hidden="1">
-      <c r="B36" s="5">
+    <row r="37" spans="2:5" hidden="1">
+      <c r="B37" s="5">
         <v>2022</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="6">
         <v>21079434</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E37" s="6">
         <v>1400461</v>
       </c>
     </row>
-    <row r="37" spans="2:5" hidden="1">
-      <c r="B37" s="7">
+    <row r="38" spans="2:5" hidden="1">
+      <c r="B38" s="7">
         <v>2022</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <v>21068708</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E38" s="8">
         <v>1394745</v>
       </c>
     </row>
-    <row r="38" spans="2:5" hidden="1">
-      <c r="B38" s="5">
+    <row r="39" spans="2:5" hidden="1">
+      <c r="B39" s="5">
         <v>2022</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="6">
         <v>21008487</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>1387090</v>
       </c>
     </row>
-    <row r="39" spans="2:5" hidden="1">
-      <c r="B39" s="7">
+    <row r="40" spans="2:5" hidden="1">
+      <c r="B40" s="7">
         <v>2022</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <v>21011342</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E40" s="8">
         <v>1371403</v>
       </c>
     </row>
-    <row r="40" spans="2:5" hidden="1">
-      <c r="B40" s="5">
+    <row r="41" spans="2:5" hidden="1">
+      <c r="B41" s="5">
         <v>2022</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="6">
         <v>21005852</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <v>1366419</v>
       </c>
     </row>
-    <row r="41" spans="2:5" hidden="1">
-      <c r="B41" s="7">
+    <row r="42" spans="2:5" hidden="1">
+      <c r="B42" s="7">
         <v>2022</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <v>20941286</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E42" s="8">
         <v>1362139</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="18" hidden="1" customHeight="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:5" ht="18" hidden="1" customHeight="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D43" s="10">
         <v>20762419</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E43" s="10">
         <v>1353437</v>
       </c>
     </row>
-    <row r="43" spans="2:5" hidden="1">
-      <c r="B43" s="11">
+    <row r="44" spans="2:5" hidden="1">
+      <c r="B44" s="11">
         <v>2021</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <v>20620148</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E44" s="12">
         <v>1346231</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1">
-      <c r="B44" s="5">
+    <row r="45" spans="2:5" hidden="1">
+      <c r="B45" s="5">
         <v>2021</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D45" s="6">
         <v>20933050</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E45" s="6">
         <v>1355387</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1">
-      <c r="B45" s="7">
+    <row r="46" spans="2:5" hidden="1">
+      <c r="B46" s="7">
         <v>2021</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <v>20767587</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E46" s="8">
         <v>1334726</v>
       </c>
     </row>
-    <row r="46" spans="2:5" hidden="1">
-      <c r="B46" s="5">
+    <row r="47" spans="2:5" hidden="1">
+      <c r="B47" s="5">
         <v>2021</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="6">
         <v>20594919</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E47" s="6">
         <v>1322061</v>
       </c>
     </row>
-    <row r="47" spans="2:5" hidden="1">
-      <c r="B47" s="7">
+    <row r="48" spans="2:5" hidden="1">
+      <c r="B48" s="7">
         <v>2021</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="8">
         <v>20420823</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E48" s="8">
         <v>1297793</v>
       </c>
     </row>
-    <row r="48" spans="2:5" hidden="1">
-      <c r="B48" s="5">
+    <row r="49" spans="2:5" hidden="1">
+      <c r="B49" s="5">
         <v>2021</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D49" s="6">
         <v>20291923</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E49" s="6">
         <v>1281115</v>
       </c>
     </row>
-    <row r="49" spans="2:5" hidden="1">
-      <c r="B49" s="7">
+    <row r="50" spans="2:5" hidden="1">
+      <c r="B50" s="7">
         <v>2021</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <v>20175380</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E50" s="8">
         <v>1238603</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1">
-      <c r="B50" s="5">
+    <row r="51" spans="2:5" hidden="1">
+      <c r="B51" s="5">
         <v>2021</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>20109444</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>1233478</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1">
-      <c r="B51" s="7">
+    <row r="52" spans="2:5" hidden="1">
+      <c r="B52" s="7">
         <v>2021</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="8">
         <v>20070483</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E52" s="8">
         <v>1228178</v>
       </c>
     </row>
-    <row r="52" spans="2:5" hidden="1">
-      <c r="B52" s="5">
+    <row r="53" spans="2:5" hidden="1">
+      <c r="B53" s="5">
         <v>2021</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <v>20025709</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>1221474</v>
       </c>
     </row>
-    <row r="53" spans="2:5" hidden="1">
-      <c r="B53" s="7">
+    <row r="54" spans="2:5" hidden="1">
+      <c r="B54" s="7">
         <v>2021</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <v>19936938</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E54" s="8">
         <v>1217940</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:5" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D55" s="10">
         <v>19821651</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E55" s="10">
         <v>1215685</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1">
-      <c r="B55" s="11">
+    <row r="56" spans="2:5" hidden="1">
+      <c r="B56" s="11">
         <v>2020</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D56" s="12">
         <v>19773732</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E56" s="12">
         <v>1213211</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1">
-      <c r="B56" s="5">
+    <row r="57" spans="2:5" hidden="1">
+      <c r="B57" s="5">
         <v>2020</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <v>20051552</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="6">
         <v>1220915</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1">
-      <c r="B57" s="7">
+    <row r="58" spans="2:5" hidden="1">
+      <c r="B58" s="7">
         <v>2020</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <v>19902833</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E58" s="8">
         <v>1208882</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1">
-      <c r="B58" s="5">
+    <row r="59" spans="2:5" hidden="1">
+      <c r="B59" s="5">
         <v>2020</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="6">
         <v>19702192</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E59" s="6">
         <v>1193903</v>
       </c>
     </row>
-    <row r="59" spans="2:5" hidden="1">
-      <c r="B59" s="7">
+    <row r="60" spans="2:5" hidden="1">
+      <c r="B60" s="7">
         <v>2020</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="8">
         <v>19588342</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E60" s="8">
         <v>1187467</v>
       </c>
     </row>
-    <row r="60" spans="2:5" hidden="1">
-      <c r="B60" s="5">
+    <row r="61" spans="2:5" hidden="1">
+      <c r="B61" s="5">
         <v>2020</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="6">
         <v>19495952</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E61" s="6">
         <v>1183455</v>
       </c>
     </row>
-    <row r="61" spans="2:5" hidden="1">
-      <c r="B61" s="7">
+    <row r="62" spans="2:5" hidden="1">
+      <c r="B62" s="7">
         <v>2020</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <v>19499859</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E62" s="8">
         <v>1182594</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1">
-      <c r="B62" s="5">
+    <row r="63" spans="2:5" hidden="1">
+      <c r="B63" s="5">
         <v>2020</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D63" s="6">
         <v>19583170</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>1186977</v>
       </c>
     </row>
-    <row r="63" spans="2:5" hidden="1">
-      <c r="B63" s="7">
+    <row r="64" spans="2:5" hidden="1">
+      <c r="B64" s="7">
         <v>2020</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <v>19927696</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E64" s="8">
         <v>1202788</v>
       </c>
     </row>
-    <row r="64" spans="2:5" hidden="1">
-      <c r="B64" s="5">
+    <row r="65" spans="2:5" hidden="1">
+      <c r="B65" s="5">
         <v>2020</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <v>20482943</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="6">
         <v>1226995</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1">
-      <c r="B65" s="7">
+    <row r="66" spans="2:5" hidden="1">
+      <c r="B66" s="7">
         <v>2020</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="8">
         <v>20613536</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E66" s="8">
         <v>1223755</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:5" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D67" s="10">
         <v>20490397</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E67" s="10">
         <v>1217337</v>
       </c>
     </row>
-    <row r="67" spans="2:5" hidden="1">
-      <c r="B67" s="11">
+    <row r="68" spans="2:5" hidden="1">
+      <c r="B68" s="11">
         <v>2019</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D68" s="12">
         <v>20421442</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>1215181</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1">
-      <c r="B68" s="5">
+    <row r="69" spans="2:5" hidden="1">
+      <c r="B69" s="5">
         <v>2019</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="6">
         <v>20803652</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E69" s="6">
         <v>1220127</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1">
-      <c r="B69" s="7">
+    <row r="70" spans="2:5" hidden="1">
+      <c r="B70" s="7">
         <v>2019</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="8">
         <v>20727424</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E70" s="8">
         <v>1214110</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1">
-      <c r="B70" s="5">
+    <row r="71" spans="2:5" hidden="1">
+      <c r="B71" s="5">
         <v>2019</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D71" s="6">
         <v>20567426</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E71" s="6">
         <v>1204267</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1">
-      <c r="B71" s="7">
+    <row r="72" spans="2:5" hidden="1">
+      <c r="B72" s="7">
         <v>2019</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="8">
         <v>20422010</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E72" s="8">
         <v>1199362</v>
       </c>
     </row>
-    <row r="72" spans="2:5" hidden="1">
-      <c r="B72" s="5">
+    <row r="73" spans="2:5" hidden="1">
+      <c r="B73" s="5">
         <v>2019</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="6">
         <v>20385379</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <v>1196621</v>
       </c>
     </row>
-    <row r="73" spans="2:5" hidden="1">
-      <c r="B73" s="7">
+    <row r="74" spans="2:5" hidden="1">
+      <c r="B74" s="7">
         <v>2019</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="8">
         <v>20368666</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E74" s="8">
         <v>1183628</v>
       </c>
     </row>
-    <row r="74" spans="2:5" hidden="1">
-      <c r="B74" s="5">
+    <row r="75" spans="2:5" hidden="1">
+      <c r="B75" s="5">
         <v>2019</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <v>20382910</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>1176213</v>
       </c>
     </row>
-    <row r="75" spans="2:5" hidden="1">
-      <c r="B75" s="7">
+    <row r="76" spans="2:5" hidden="1">
+      <c r="B76" s="7">
         <v>2019</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <v>20378927</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E76" s="8">
         <v>1173595</v>
       </c>
     </row>
-    <row r="76" spans="2:5" hidden="1">
-      <c r="B76" s="5">
+    <row r="77" spans="2:5" hidden="1">
+      <c r="B77" s="5">
         <v>2019</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <v>20348508</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <v>1166805</v>
       </c>
     </row>
-    <row r="77" spans="2:5" hidden="1">
-      <c r="B77" s="7">
+    <row r="78" spans="2:5" hidden="1">
+      <c r="B78" s="7">
         <v>2019</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <v>20299993</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E78" s="8">
         <v>1162018</v>
       </c>
     </row>
-    <row r="78" spans="2:5" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:5" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D79" s="10">
         <v>20174011</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E79" s="10">
         <v>1151961</v>
       </c>
     </row>
-    <row r="79" spans="2:5" hidden="1">
-      <c r="B79" s="7">
+    <row r="80" spans="2:5" hidden="1">
+      <c r="B80" s="7">
         <v>2018</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <v>20079365</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E80" s="8">
         <v>1150983</v>
       </c>
     </row>
-    <row r="80" spans="2:5" hidden="1">
-      <c r="B80" s="5">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="5">
         <v>2018</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="6">
         <v>20457926</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E81" s="6">
         <v>1158571</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1">
-      <c r="B81" s="7">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="7">
         <v>2018</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <v>20356179</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E82" s="8">
         <v>1154332</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="5">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="5">
         <v>2018</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D83" s="6">
         <v>20192960</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E83" s="6">
         <v>1140678</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1">
-      <c r="B83" s="7">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="7">
         <v>2018</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="8">
         <v>20063433</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E84" s="8">
         <v>1138592</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1">
-      <c r="B84" s="5">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="5">
         <v>2018</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D85" s="6">
         <v>19949244</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E85" s="6">
         <v>1130363</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1">
-      <c r="B85" s="7">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="7">
         <v>2018</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <v>19894575</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E86" s="8">
         <v>1125051</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1">
-      <c r="B86" s="5">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="5">
         <v>2018</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D87" s="6">
         <v>19908072</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E87" s="6">
         <v>1122774</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1">
-      <c r="B87" s="7">
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="7">
         <v>2018</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <v>19874106</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E88" s="8">
         <v>1118667</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-    </row>
-    <row r="88" spans="2:10" ht="18" hidden="1" customHeight="1">
-      <c r="B88" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="6">
-        <v>19786997</v>
-      </c>
-      <c r="E88" s="6">
-        <v>1110710</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
-      <c r="J88" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" hidden="1">
-      <c r="B89" s="7">
+    </row>
+    <row r="89" spans="2:10" ht="18" hidden="1" customHeight="1">
+      <c r="B89" s="5">
         <v>2018</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="8">
-        <v>19696488</v>
-      </c>
-      <c r="E89" s="8">
-        <v>1103513</v>
-      </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
+      <c r="C89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="6">
+        <v>19786997</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1110710</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
       <c r="J89" s="3" t="s">
@@ -1954,43 +1947,64 @@
       </c>
     </row>
     <row r="90" spans="2:10" hidden="1">
-      <c r="B90" s="5">
+      <c r="B90" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="8">
+        <v>19696488</v>
+      </c>
+      <c r="E90" s="8">
+        <v>1103513</v>
+      </c>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" hidden="1">
+      <c r="B91" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D91" s="6">
         <v>19532177</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E91" s="6">
         <v>1098889</v>
       </c>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="14"/>
-    </row>
-    <row r="94" spans="2:10">
       <c r="D94" s="13"/>
       <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="D95" s="13"/>
+      <c r="E95" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C633AE-C688-4600-AEDC-6BFDDF65B1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11966938-54C8-41BA-A83A-C302714A2090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -435,8 +435,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E91" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="B4:E91" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E92" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="B4:E92" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -676,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O95"/>
+  <dimension ref="B2:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -746,1221 +746,1214 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="4" customFormat="1">
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>2025</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8">
+        <v>22417668</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1579216</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1">
+      <c r="B6" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <v>22465110</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E6" s="6">
         <v>1581128</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1">
-      <c r="B6" s="7">
+    <row r="7" spans="2:15" s="4" customFormat="1">
+      <c r="B7" s="7">
         <v>2025</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="8">
         <v>22430931</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="8">
         <v>1573792</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="4" customFormat="1">
-      <c r="B7" s="9">
+    <row r="8" spans="2:15" s="4" customFormat="1">
+      <c r="B8" s="9">
         <v>2025</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>22311546</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="10">
         <v>1572317</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="4" customFormat="1">
-      <c r="B8" s="7">
+    <row r="9" spans="2:15" s="4" customFormat="1">
+      <c r="B9" s="7">
         <v>2024</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="8">
         <v>22238379</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>1581718</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="4" customFormat="1">
-      <c r="B9" s="5">
+    <row r="10" spans="2:15" s="4" customFormat="1">
+      <c r="B10" s="5">
         <v>2024</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="6">
         <v>22643638</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>1612249</v>
       </c>
     </row>
-    <row r="10" spans="2:15" s="4" customFormat="1">
-      <c r="B10" s="7">
+    <row r="11" spans="2:15" s="4" customFormat="1">
+      <c r="B11" s="7">
         <v>2024</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <v>22618942</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="8">
         <v>1601366</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="18" customHeight="1">
-      <c r="B11" s="5">
+    <row r="12" spans="2:15" ht="18" customHeight="1">
+      <c r="B12" s="5">
         <v>2024</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="6">
         <v>22480803</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="6">
         <v>1573441</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="18" customHeight="1">
-      <c r="B12" s="7">
+    <row r="13" spans="2:15" ht="18" customHeight="1">
+      <c r="B13" s="7">
         <v>2024</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <v>22389835</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="8">
         <v>1563033</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="5">
+    <row r="14" spans="2:15">
+      <c r="B14" s="5">
         <v>2024</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>22331788</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>1559076</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="7">
+    <row r="15" spans="2:15">
+      <c r="B15" s="7">
         <v>2024</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <v>22319444</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>1555259</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="5">
+    <row r="16" spans="2:15">
+      <c r="B16" s="5">
         <v>2024</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="6">
         <v>22348999</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>1559328</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="7">
+    <row r="17" spans="2:5">
+      <c r="B17" s="7">
         <v>2024</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>22374202</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>1561135</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="5">
+    <row r="18" spans="2:5">
+      <c r="B18" s="5">
         <v>2024</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>22289345</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>1545250</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="7">
+    <row r="19" spans="2:5">
+      <c r="B19" s="7">
         <v>2024</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <v>22289810</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>1540972</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="9">
+    <row r="20" spans="2:5">
+      <c r="B20" s="9">
         <v>2024</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>22133407</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E20" s="10">
         <v>1532544</v>
       </c>
     </row>
-    <row r="20" spans="2:5" hidden="1">
-      <c r="B20" s="11">
+    <row r="21" spans="2:5" hidden="1">
+      <c r="B21" s="11">
         <v>2023</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <v>22024386</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>1522386</v>
       </c>
     </row>
-    <row r="21" spans="2:5" hidden="1">
-      <c r="B21" s="5">
+    <row r="22" spans="2:5" hidden="1">
+      <c r="B22" s="5">
         <v>2023</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <v>22409268</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>1536052</v>
       </c>
     </row>
-    <row r="22" spans="2:5" hidden="1">
-      <c r="B22" s="7">
+    <row r="23" spans="2:5" hidden="1">
+      <c r="B23" s="7">
         <v>2023</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <v>22302690</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="8">
         <v>1517214</v>
       </c>
     </row>
-    <row r="23" spans="2:5" hidden="1">
-      <c r="B23" s="5">
+    <row r="24" spans="2:5" hidden="1">
+      <c r="B24" s="5">
         <v>2023</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <v>22129433</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="6">
         <v>1492386</v>
       </c>
     </row>
-    <row r="24" spans="2:5" hidden="1">
-      <c r="B24" s="7">
+    <row r="25" spans="2:5" hidden="1">
+      <c r="B25" s="7">
         <v>2023</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D25" s="8">
         <v>21996875</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="8">
         <v>1486423</v>
       </c>
     </row>
-    <row r="25" spans="2:5" hidden="1">
-      <c r="B25" s="5">
+    <row r="26" spans="2:5" hidden="1">
+      <c r="B26" s="5">
         <v>2023</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="6">
         <v>21885139</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>1476689</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1">
-      <c r="B26" s="7">
+    <row r="27" spans="2:5" hidden="1">
+      <c r="B27" s="7">
         <v>2023</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <v>21887307</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="8">
         <v>1472427</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1">
-      <c r="B27" s="5">
+    <row r="28" spans="2:5" hidden="1">
+      <c r="B28" s="5">
         <v>2023</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <v>21862909</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <v>1473285</v>
       </c>
     </row>
-    <row r="28" spans="2:5" hidden="1">
-      <c r="B28" s="7">
+    <row r="29" spans="2:5" hidden="1">
+      <c r="B29" s="7">
         <v>2023</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <v>21820291</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <v>1458395</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1">
-      <c r="B29" s="5">
+    <row r="30" spans="2:5" hidden="1">
+      <c r="B30" s="5">
         <v>2023</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <v>21796280</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <v>1453808</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1">
-      <c r="B30" s="7">
+    <row r="31" spans="2:5" hidden="1">
+      <c r="B31" s="7">
         <v>2023</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <v>21660469</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>1439808</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1">
-      <c r="B31" s="9">
+    <row r="32" spans="2:5" hidden="1">
+      <c r="B32" s="9">
         <v>2023</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <v>21484595</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E32" s="10">
         <v>1431720</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1">
-      <c r="B32" s="11">
+    <row r="33" spans="2:5" hidden="1">
+      <c r="B33" s="11">
         <v>2022</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="12">
         <v>21372896</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="12">
         <v>1432765</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1">
-      <c r="B33" s="5">
+    <row r="34" spans="2:5" hidden="1">
+      <c r="B34" s="5">
         <v>2022</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>21718601</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <v>1449414</v>
       </c>
     </row>
-    <row r="34" spans="2:5" hidden="1">
-      <c r="B34" s="7">
+    <row r="35" spans="2:5" hidden="1">
+      <c r="B35" s="7">
         <v>2022</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <v>21617326</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E35" s="8">
         <v>1438643</v>
       </c>
     </row>
-    <row r="35" spans="2:5" hidden="1">
-      <c r="B35" s="5">
+    <row r="36" spans="2:5" hidden="1">
+      <c r="B36" s="5">
         <v>2022</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="6">
         <v>21409358</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="6">
         <v>1421088</v>
       </c>
     </row>
-    <row r="36" spans="2:5" hidden="1">
-      <c r="B36" s="7">
+    <row r="37" spans="2:5" hidden="1">
+      <c r="B37" s="7">
         <v>2022</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D37" s="8">
         <v>21236866</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E37" s="8">
         <v>1409658</v>
       </c>
     </row>
-    <row r="37" spans="2:5" hidden="1">
-      <c r="B37" s="5">
+    <row r="38" spans="2:5" hidden="1">
+      <c r="B38" s="5">
         <v>2022</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="6">
         <v>21079434</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>1400461</v>
       </c>
     </row>
-    <row r="38" spans="2:5" hidden="1">
-      <c r="B38" s="7">
+    <row r="39" spans="2:5" hidden="1">
+      <c r="B39" s="7">
         <v>2022</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <v>21068708</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="8">
         <v>1394745</v>
       </c>
     </row>
-    <row r="39" spans="2:5" hidden="1">
-      <c r="B39" s="5">
+    <row r="40" spans="2:5" hidden="1">
+      <c r="B40" s="5">
         <v>2022</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <v>21008487</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="6">
         <v>1387090</v>
       </c>
     </row>
-    <row r="40" spans="2:5" hidden="1">
-      <c r="B40" s="7">
+    <row r="41" spans="2:5" hidden="1">
+      <c r="B41" s="7">
         <v>2022</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <v>21011342</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E41" s="8">
         <v>1371403</v>
       </c>
     </row>
-    <row r="41" spans="2:5" hidden="1">
-      <c r="B41" s="5">
+    <row r="42" spans="2:5" hidden="1">
+      <c r="B42" s="5">
         <v>2022</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <v>21005852</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>1366419</v>
       </c>
     </row>
-    <row r="42" spans="2:5" hidden="1">
-      <c r="B42" s="7">
+    <row r="43" spans="2:5" hidden="1">
+      <c r="B43" s="7">
         <v>2022</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <v>20941286</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E43" s="8">
         <v>1362139</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="18" hidden="1" customHeight="1">
-      <c r="B43" s="9">
+    <row r="44" spans="2:5" ht="18" hidden="1" customHeight="1">
+      <c r="B44" s="9">
         <v>2022</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D44" s="10">
         <v>20762419</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E44" s="10">
         <v>1353437</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1">
-      <c r="B44" s="11">
+    <row r="45" spans="2:5" hidden="1">
+      <c r="B45" s="11">
         <v>2021</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="12">
         <v>20620148</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E45" s="12">
         <v>1346231</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1">
-      <c r="B45" s="5">
+    <row r="46" spans="2:5" hidden="1">
+      <c r="B46" s="5">
         <v>2021</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="6">
         <v>20933050</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="6">
         <v>1355387</v>
       </c>
     </row>
-    <row r="46" spans="2:5" hidden="1">
-      <c r="B46" s="7">
+    <row r="47" spans="2:5" hidden="1">
+      <c r="B47" s="7">
         <v>2021</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <v>20767587</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E47" s="8">
         <v>1334726</v>
       </c>
     </row>
-    <row r="47" spans="2:5" hidden="1">
-      <c r="B47" s="5">
+    <row r="48" spans="2:5" hidden="1">
+      <c r="B48" s="5">
         <v>2021</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="6">
         <v>20594919</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="6">
         <v>1322061</v>
       </c>
     </row>
-    <row r="48" spans="2:5" hidden="1">
-      <c r="B48" s="7">
+    <row r="49" spans="2:5" hidden="1">
+      <c r="B49" s="7">
         <v>2021</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D49" s="8">
         <v>20420823</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E49" s="8">
         <v>1297793</v>
       </c>
     </row>
-    <row r="49" spans="2:5" hidden="1">
-      <c r="B49" s="5">
+    <row r="50" spans="2:5" hidden="1">
+      <c r="B50" s="5">
         <v>2021</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="6">
         <v>20291923</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>1281115</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1">
-      <c r="B50" s="7">
+    <row r="51" spans="2:5" hidden="1">
+      <c r="B51" s="7">
         <v>2021</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <v>20175380</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E51" s="8">
         <v>1238603</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1">
-      <c r="B51" s="5">
+    <row r="52" spans="2:5" hidden="1">
+      <c r="B52" s="5">
         <v>2021</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>20109444</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="6">
         <v>1233478</v>
       </c>
     </row>
-    <row r="52" spans="2:5" hidden="1">
-      <c r="B52" s="7">
+    <row r="53" spans="2:5" hidden="1">
+      <c r="B53" s="7">
         <v>2021</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="8">
         <v>20070483</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E53" s="8">
         <v>1228178</v>
       </c>
     </row>
-    <row r="53" spans="2:5" hidden="1">
-      <c r="B53" s="5">
+    <row r="54" spans="2:5" hidden="1">
+      <c r="B54" s="5">
         <v>2021</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="6">
         <v>20025709</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="6">
         <v>1221474</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1">
-      <c r="B54" s="7">
+    <row r="55" spans="2:5" hidden="1">
+      <c r="B55" s="7">
         <v>2021</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <v>19936938</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E55" s="8">
         <v>1217940</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1">
-      <c r="B55" s="9">
+    <row r="56" spans="2:5" hidden="1">
+      <c r="B56" s="9">
         <v>2021</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D56" s="10">
         <v>19821651</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E56" s="10">
         <v>1215685</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1">
-      <c r="B56" s="11">
+    <row r="57" spans="2:5" hidden="1">
+      <c r="B57" s="11">
         <v>2020</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="12">
         <v>19773732</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E57" s="12">
         <v>1213211</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1">
-      <c r="B57" s="5">
+    <row r="58" spans="2:5" hidden="1">
+      <c r="B58" s="5">
         <v>2020</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <v>20051552</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="6">
         <v>1220915</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1">
-      <c r="B58" s="7">
+    <row r="59" spans="2:5" hidden="1">
+      <c r="B59" s="7">
         <v>2020</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <v>19902833</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E59" s="8">
         <v>1208882</v>
       </c>
     </row>
-    <row r="59" spans="2:5" hidden="1">
-      <c r="B59" s="5">
+    <row r="60" spans="2:5" hidden="1">
+      <c r="B60" s="5">
         <v>2020</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D60" s="6">
         <v>19702192</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E60" s="6">
         <v>1193903</v>
       </c>
     </row>
-    <row r="60" spans="2:5" hidden="1">
-      <c r="B60" s="7">
+    <row r="61" spans="2:5" hidden="1">
+      <c r="B61" s="7">
         <v>2020</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D61" s="8">
         <v>19588342</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E61" s="8">
         <v>1187467</v>
       </c>
     </row>
-    <row r="61" spans="2:5" hidden="1">
-      <c r="B61" s="5">
+    <row r="62" spans="2:5" hidden="1">
+      <c r="B62" s="5">
         <v>2020</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="6">
         <v>19495952</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="6">
         <v>1183455</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1">
-      <c r="B62" s="7">
+    <row r="63" spans="2:5" hidden="1">
+      <c r="B63" s="7">
         <v>2020</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <v>19499859</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E63" s="8">
         <v>1182594</v>
       </c>
     </row>
-    <row r="63" spans="2:5" hidden="1">
-      <c r="B63" s="5">
+    <row r="64" spans="2:5" hidden="1">
+      <c r="B64" s="5">
         <v>2020</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="6">
         <v>19583170</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="6">
         <v>1186977</v>
       </c>
     </row>
-    <row r="64" spans="2:5" hidden="1">
-      <c r="B64" s="7">
+    <row r="65" spans="2:5" hidden="1">
+      <c r="B65" s="7">
         <v>2020</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <v>19927696</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E65" s="8">
         <v>1202788</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1">
-      <c r="B65" s="5">
+    <row r="66" spans="2:5" hidden="1">
+      <c r="B66" s="5">
         <v>2020</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="6">
         <v>20482943</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="6">
         <v>1226995</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1">
-      <c r="B66" s="7">
+    <row r="67" spans="2:5" hidden="1">
+      <c r="B67" s="7">
         <v>2020</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <v>20613536</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E67" s="8">
         <v>1223755</v>
       </c>
     </row>
-    <row r="67" spans="2:5" hidden="1">
-      <c r="B67" s="9">
+    <row r="68" spans="2:5" hidden="1">
+      <c r="B68" s="9">
         <v>2020</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>20490397</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>1217337</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1">
-      <c r="B68" s="11">
+    <row r="69" spans="2:5" hidden="1">
+      <c r="B69" s="11">
         <v>2019</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="12">
         <v>20421442</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="12">
         <v>1215181</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1">
-      <c r="B69" s="5">
+    <row r="70" spans="2:5" hidden="1">
+      <c r="B70" s="5">
         <v>2019</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="6">
         <v>20803652</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E70" s="6">
         <v>1220127</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1">
-      <c r="B70" s="7">
+    <row r="71" spans="2:5" hidden="1">
+      <c r="B71" s="7">
         <v>2019</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <v>20727424</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E71" s="8">
         <v>1214110</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1">
-      <c r="B71" s="5">
+    <row r="72" spans="2:5" hidden="1">
+      <c r="B72" s="5">
         <v>2019</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D72" s="6">
         <v>20567426</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E72" s="6">
         <v>1204267</v>
       </c>
     </row>
-    <row r="72" spans="2:5" hidden="1">
-      <c r="B72" s="7">
+    <row r="73" spans="2:5" hidden="1">
+      <c r="B73" s="7">
         <v>2019</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D73" s="8">
         <v>20422010</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E73" s="8">
         <v>1199362</v>
       </c>
     </row>
-    <row r="73" spans="2:5" hidden="1">
-      <c r="B73" s="5">
+    <row r="74" spans="2:5" hidden="1">
+      <c r="B74" s="5">
         <v>2019</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>20385379</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="6">
         <v>1196621</v>
       </c>
     </row>
-    <row r="74" spans="2:5" hidden="1">
-      <c r="B74" s="7">
+    <row r="75" spans="2:5" hidden="1">
+      <c r="B75" s="7">
         <v>2019</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <v>20368666</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E75" s="8">
         <v>1183628</v>
       </c>
     </row>
-    <row r="75" spans="2:5" hidden="1">
-      <c r="B75" s="5">
+    <row r="76" spans="2:5" hidden="1">
+      <c r="B76" s="5">
         <v>2019</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <v>20382910</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="6">
         <v>1176213</v>
       </c>
     </row>
-    <row r="76" spans="2:5" hidden="1">
-      <c r="B76" s="7">
+    <row r="77" spans="2:5" hidden="1">
+      <c r="B77" s="7">
         <v>2019</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <v>20378927</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E77" s="8">
         <v>1173595</v>
       </c>
     </row>
-    <row r="77" spans="2:5" hidden="1">
-      <c r="B77" s="5">
+    <row r="78" spans="2:5" hidden="1">
+      <c r="B78" s="5">
         <v>2019</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <v>20348508</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>1166805</v>
       </c>
     </row>
-    <row r="78" spans="2:5" hidden="1">
-      <c r="B78" s="7">
+    <row r="79" spans="2:5" hidden="1">
+      <c r="B79" s="7">
         <v>2019</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <v>20299993</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E79" s="8">
         <v>1162018</v>
       </c>
     </row>
-    <row r="79" spans="2:5" hidden="1">
-      <c r="B79" s="9">
+    <row r="80" spans="2:5" hidden="1">
+      <c r="B80" s="9">
         <v>2019</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D80" s="10">
         <v>20174011</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E80" s="10">
         <v>1151961</v>
       </c>
     </row>
-    <row r="80" spans="2:5" hidden="1">
-      <c r="B80" s="7">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="7">
         <v>2018</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D81" s="8">
         <v>20079365</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E81" s="8">
         <v>1150983</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1">
-      <c r="B81" s="5">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="5">
         <v>2018</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="6">
         <v>20457926</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="6">
         <v>1158571</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="7">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="7">
         <v>2018</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <v>20356179</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E83" s="8">
         <v>1154332</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1">
-      <c r="B83" s="5">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="5">
         <v>2018</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="6">
         <v>20192960</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E84" s="6">
         <v>1140678</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1">
-      <c r="B84" s="7">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D85" s="8">
         <v>20063433</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E85" s="8">
         <v>1138592</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1">
-      <c r="B85" s="5">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="5">
         <v>2018</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D86" s="6">
         <v>19949244</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E86" s="6">
         <v>1130363</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1">
-      <c r="B86" s="7">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <v>19894575</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E87" s="8">
         <v>1125051</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1">
-      <c r="B87" s="5">
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="5">
         <v>2018</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D88" s="6">
         <v>19908072</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E88" s="6">
         <v>1122774</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1">
-      <c r="B88" s="7">
+    <row r="89" spans="2:10" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D89" s="8">
         <v>19874106</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E89" s="8">
         <v>1118667</v>
-      </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-    </row>
-    <row r="89" spans="2:10" ht="18" hidden="1" customHeight="1">
-      <c r="B89" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="6">
-        <v>19786997</v>
-      </c>
-      <c r="E89" s="6">
-        <v>1110710</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
-      <c r="J89" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" hidden="1">
-      <c r="B90" s="7">
+    </row>
+    <row r="90" spans="2:10" ht="18" hidden="1" customHeight="1">
+      <c r="B90" s="5">
         <v>2018</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="8">
-        <v>19696488</v>
-      </c>
-      <c r="E90" s="8">
-        <v>1103513</v>
-      </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
+      <c r="C90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="6">
+        <v>19786997</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1110710</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="3" t="s">
@@ -1968,43 +1961,64 @@
       </c>
     </row>
     <row r="91" spans="2:10" hidden="1">
-      <c r="B91" s="5">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="8">
+        <v>19696488</v>
+      </c>
+      <c r="E91" s="8">
+        <v>1103513</v>
+      </c>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" hidden="1">
+      <c r="B92" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D92" s="6">
         <v>19532177</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E92" s="6">
         <v>1098889</v>
       </c>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="14"/>
-    </row>
-    <row r="95" spans="2:10">
       <c r="D95" s="13"/>
       <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="D96" s="13"/>
+      <c r="E96" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11966938-54C8-41BA-A83A-C302714A2090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71758A87-E407-405F-B7C9-D956256C1ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -213,7 +215,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -224,7 +228,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -350,7 +356,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -435,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E92" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="B4:E92" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E94" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="B4:E94" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -676,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O96"/>
+  <dimension ref="B2:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -750,13 +756,13 @@
         <v>2025</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="8">
-        <v>22417668</v>
+        <v>22325666</v>
       </c>
       <c r="E5" s="8">
-        <v>1579216</v>
+        <v>1577491</v>
       </c>
     </row>
     <row r="6" spans="2:15" s="4" customFormat="1">
@@ -764,13 +770,13 @@
         <v>2025</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6">
-        <v>22465110</v>
+        <v>22372044</v>
       </c>
       <c r="E6" s="6">
-        <v>1581128</v>
+        <v>1581552</v>
       </c>
     </row>
     <row r="7" spans="2:15" s="4" customFormat="1">
@@ -778,55 +784,55 @@
         <v>2025</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="8">
-        <v>22430931</v>
+        <v>22417668</v>
       </c>
       <c r="E7" s="8">
-        <v>1573792</v>
+        <v>1579216</v>
       </c>
     </row>
     <row r="8" spans="2:15" s="4" customFormat="1">
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>2025</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10">
-        <v>22311546</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1572317</v>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6">
+        <v>22465110</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1581128</v>
       </c>
     </row>
     <row r="9" spans="2:15" s="4" customFormat="1">
       <c r="B9" s="7">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="8">
-        <v>22238379</v>
+        <v>22430931</v>
       </c>
       <c r="E9" s="8">
-        <v>1581718</v>
+        <v>1573792</v>
       </c>
     </row>
     <row r="10" spans="2:15" s="4" customFormat="1">
-      <c r="B10" s="5">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6">
-        <v>22643638</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1612249</v>
+      <c r="B10" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10">
+        <v>22311546</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1572317</v>
       </c>
     </row>
     <row r="11" spans="2:15" s="4" customFormat="1">
@@ -834,69 +840,69 @@
         <v>2024</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8">
-        <v>22618942</v>
+        <v>22238379</v>
       </c>
       <c r="E11" s="8">
-        <v>1601366</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="18" customHeight="1">
+        <v>1581718</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" s="4" customFormat="1">
       <c r="B12" s="5">
         <v>2024</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="6">
-        <v>22480803</v>
+        <v>22643638</v>
       </c>
       <c r="E12" s="6">
-        <v>1573441</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="18" customHeight="1">
+        <v>1612249</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" s="4" customFormat="1">
       <c r="B13" s="7">
         <v>2024</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D13" s="8">
-        <v>22389835</v>
+        <v>22618942</v>
       </c>
       <c r="E13" s="8">
-        <v>1563033</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+        <v>1601366</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="18" customHeight="1">
       <c r="B14" s="5">
         <v>2024</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D14" s="6">
-        <v>22331788</v>
+        <v>22480803</v>
       </c>
       <c r="E14" s="6">
-        <v>1559076</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+        <v>1573441</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="18" customHeight="1">
       <c r="B15" s="7">
         <v>2024</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="8">
-        <v>22319444</v>
+        <v>22389835</v>
       </c>
       <c r="E15" s="8">
-        <v>1555259</v>
+        <v>1563033</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -904,13 +910,13 @@
         <v>2024</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="6">
-        <v>22348999</v>
+        <v>22331788</v>
       </c>
       <c r="E16" s="6">
-        <v>1559328</v>
+        <v>1559076</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -918,13 +924,13 @@
         <v>2024</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="8">
-        <v>22374202</v>
+        <v>22319444</v>
       </c>
       <c r="E17" s="8">
-        <v>1561135</v>
+        <v>1555259</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -932,13 +938,13 @@
         <v>2024</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="6">
-        <v>22289345</v>
+        <v>22348999</v>
       </c>
       <c r="E18" s="6">
-        <v>1545250</v>
+        <v>1559328</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -946,69 +952,69 @@
         <v>2024</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8">
+        <v>22374202</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1561135</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="6">
+        <v>22289345</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1545250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D21" s="8">
         <v>22289810</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E21" s="8">
         <v>1540972</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="9">
+    <row r="22" spans="2:5">
+      <c r="B22" s="9">
         <v>2024</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D22" s="10">
         <v>22133407</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E22" s="10">
         <v>1532544</v>
       </c>
     </row>
-    <row r="21" spans="2:5" hidden="1">
-      <c r="B21" s="11">
+    <row r="23" spans="2:5" hidden="1">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D23" s="12">
         <v>22024386</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E23" s="12">
         <v>1522386</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" hidden="1">
-      <c r="B22" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6">
-        <v>22409268</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1536052</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" hidden="1">
-      <c r="B23" s="7">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="8">
-        <v>22302690</v>
-      </c>
-      <c r="E23" s="8">
-        <v>1517214</v>
       </c>
     </row>
     <row r="24" spans="2:5" hidden="1">
@@ -1016,13 +1022,13 @@
         <v>2023</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="6">
-        <v>22129433</v>
+        <v>22409268</v>
       </c>
       <c r="E24" s="6">
-        <v>1492386</v>
+        <v>1536052</v>
       </c>
     </row>
     <row r="25" spans="2:5" hidden="1">
@@ -1030,13 +1036,13 @@
         <v>2023</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D25" s="8">
-        <v>21996875</v>
+        <v>22302690</v>
       </c>
       <c r="E25" s="8">
-        <v>1486423</v>
+        <v>1517214</v>
       </c>
     </row>
     <row r="26" spans="2:5" hidden="1">
@@ -1044,13 +1050,13 @@
         <v>2023</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D26" s="6">
-        <v>21885139</v>
+        <v>22129433</v>
       </c>
       <c r="E26" s="6">
-        <v>1476689</v>
+        <v>1492386</v>
       </c>
     </row>
     <row r="27" spans="2:5" hidden="1">
@@ -1058,13 +1064,13 @@
         <v>2023</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" s="8">
-        <v>21887307</v>
+        <v>21996875</v>
       </c>
       <c r="E27" s="8">
-        <v>1472427</v>
+        <v>1486423</v>
       </c>
     </row>
     <row r="28" spans="2:5" hidden="1">
@@ -1072,13 +1078,13 @@
         <v>2023</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="6">
-        <v>21862909</v>
+        <v>21885139</v>
       </c>
       <c r="E28" s="6">
-        <v>1473285</v>
+        <v>1476689</v>
       </c>
     </row>
     <row r="29" spans="2:5" hidden="1">
@@ -1086,13 +1092,13 @@
         <v>2023</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="8">
-        <v>21820291</v>
+        <v>21887307</v>
       </c>
       <c r="E29" s="8">
-        <v>1458395</v>
+        <v>1472427</v>
       </c>
     </row>
     <row r="30" spans="2:5" hidden="1">
@@ -1100,13 +1106,13 @@
         <v>2023</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" s="6">
-        <v>21796280</v>
+        <v>21862909</v>
       </c>
       <c r="E30" s="6">
-        <v>1453808</v>
+        <v>1473285</v>
       </c>
     </row>
     <row r="31" spans="2:5" hidden="1">
@@ -1114,69 +1120,69 @@
         <v>2023</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="8">
+        <v>21820291</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1458395</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" hidden="1">
+      <c r="B32" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="6">
+        <v>21796280</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1453808</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" hidden="1">
+      <c r="B33" s="7">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D33" s="8">
         <v>21660469</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E33" s="8">
         <v>1439808</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1">
-      <c r="B32" s="9">
+    <row r="34" spans="2:5" hidden="1">
+      <c r="B34" s="9">
         <v>2023</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D34" s="10">
         <v>21484595</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E34" s="10">
         <v>1431720</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1">
-      <c r="B33" s="11">
+    <row r="35" spans="2:5" hidden="1">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D35" s="12">
         <v>21372896</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E35" s="12">
         <v>1432765</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" hidden="1">
-      <c r="B34" s="5">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="6">
-        <v>21718601</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1449414</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" hidden="1">
-      <c r="B35" s="7">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="8">
-        <v>21617326</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1438643</v>
       </c>
     </row>
     <row r="36" spans="2:5" hidden="1">
@@ -1184,13 +1190,13 @@
         <v>2022</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36" s="6">
-        <v>21409358</v>
+        <v>21718601</v>
       </c>
       <c r="E36" s="6">
-        <v>1421088</v>
+        <v>1449414</v>
       </c>
     </row>
     <row r="37" spans="2:5" hidden="1">
@@ -1198,13 +1204,13 @@
         <v>2022</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D37" s="8">
-        <v>21236866</v>
+        <v>21617326</v>
       </c>
       <c r="E37" s="8">
-        <v>1409658</v>
+        <v>1438643</v>
       </c>
     </row>
     <row r="38" spans="2:5" hidden="1">
@@ -1212,13 +1218,13 @@
         <v>2022</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D38" s="6">
-        <v>21079434</v>
+        <v>21409358</v>
       </c>
       <c r="E38" s="6">
-        <v>1400461</v>
+        <v>1421088</v>
       </c>
     </row>
     <row r="39" spans="2:5" hidden="1">
@@ -1226,13 +1232,13 @@
         <v>2022</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" s="8">
-        <v>21068708</v>
+        <v>21236866</v>
       </c>
       <c r="E39" s="8">
-        <v>1394745</v>
+        <v>1409658</v>
       </c>
     </row>
     <row r="40" spans="2:5" hidden="1">
@@ -1240,13 +1246,13 @@
         <v>2022</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="6">
-        <v>21008487</v>
+        <v>21079434</v>
       </c>
       <c r="E40" s="6">
-        <v>1387090</v>
+        <v>1400461</v>
       </c>
     </row>
     <row r="41" spans="2:5" hidden="1">
@@ -1254,13 +1260,13 @@
         <v>2022</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41" s="8">
-        <v>21011342</v>
+        <v>21068708</v>
       </c>
       <c r="E41" s="8">
-        <v>1371403</v>
+        <v>1394745</v>
       </c>
     </row>
     <row r="42" spans="2:5" hidden="1">
@@ -1268,13 +1274,13 @@
         <v>2022</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42" s="6">
-        <v>21005852</v>
+        <v>21008487</v>
       </c>
       <c r="E42" s="6">
-        <v>1366419</v>
+        <v>1387090</v>
       </c>
     </row>
     <row r="43" spans="2:5" hidden="1">
@@ -1282,69 +1288,69 @@
         <v>2022</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="8">
+        <v>21011342</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1371403</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" hidden="1">
+      <c r="B44" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="6">
+        <v>21005852</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1366419</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" hidden="1">
+      <c r="B45" s="7">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D45" s="8">
         <v>20941286</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E45" s="8">
         <v>1362139</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="18" hidden="1" customHeight="1">
-      <c r="B44" s="9">
+    <row r="46" spans="2:5" ht="18" hidden="1" customHeight="1">
+      <c r="B46" s="9">
         <v>2022</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D46" s="10">
         <v>20762419</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E46" s="10">
         <v>1353437</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1">
-      <c r="B45" s="11">
+    <row r="47" spans="2:5" hidden="1">
+      <c r="B47" s="11">
         <v>2021</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D47" s="12">
         <v>20620148</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E47" s="12">
         <v>1346231</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" hidden="1">
-      <c r="B46" s="5">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="6">
-        <v>20933050</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1355387</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" hidden="1">
-      <c r="B47" s="7">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="8">
-        <v>20767587</v>
-      </c>
-      <c r="E47" s="8">
-        <v>1334726</v>
       </c>
     </row>
     <row r="48" spans="2:5" hidden="1">
@@ -1352,13 +1358,13 @@
         <v>2021</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D48" s="6">
-        <v>20594919</v>
+        <v>20933050</v>
       </c>
       <c r="E48" s="6">
-        <v>1322061</v>
+        <v>1355387</v>
       </c>
     </row>
     <row r="49" spans="2:5" hidden="1">
@@ -1366,13 +1372,13 @@
         <v>2021</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D49" s="8">
-        <v>20420823</v>
+        <v>20767587</v>
       </c>
       <c r="E49" s="8">
-        <v>1297793</v>
+        <v>1334726</v>
       </c>
     </row>
     <row r="50" spans="2:5" hidden="1">
@@ -1380,13 +1386,13 @@
         <v>2021</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50" s="6">
-        <v>20291923</v>
+        <v>20594919</v>
       </c>
       <c r="E50" s="6">
-        <v>1281115</v>
+        <v>1322061</v>
       </c>
     </row>
     <row r="51" spans="2:5" hidden="1">
@@ -1394,13 +1400,13 @@
         <v>2021</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D51" s="8">
-        <v>20175380</v>
+        <v>20420823</v>
       </c>
       <c r="E51" s="8">
-        <v>1238603</v>
+        <v>1297793</v>
       </c>
     </row>
     <row r="52" spans="2:5" hidden="1">
@@ -1408,13 +1414,13 @@
         <v>2021</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="6">
-        <v>20109444</v>
+        <v>20291923</v>
       </c>
       <c r="E52" s="6">
-        <v>1233478</v>
+        <v>1281115</v>
       </c>
     </row>
     <row r="53" spans="2:5" hidden="1">
@@ -1422,13 +1428,13 @@
         <v>2021</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" s="8">
-        <v>20070483</v>
+        <v>20175380</v>
       </c>
       <c r="E53" s="8">
-        <v>1228178</v>
+        <v>1238603</v>
       </c>
     </row>
     <row r="54" spans="2:5" hidden="1">
@@ -1436,13 +1442,13 @@
         <v>2021</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54" s="6">
-        <v>20025709</v>
+        <v>20109444</v>
       </c>
       <c r="E54" s="6">
-        <v>1221474</v>
+        <v>1233478</v>
       </c>
     </row>
     <row r="55" spans="2:5" hidden="1">
@@ -1450,69 +1456,69 @@
         <v>2021</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="8">
+        <v>20070483</v>
+      </c>
+      <c r="E55" s="8">
+        <v>1228178</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" hidden="1">
+      <c r="B56" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="6">
+        <v>20025709</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1221474</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" hidden="1">
+      <c r="B57" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D57" s="8">
         <v>19936938</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E57" s="8">
         <v>1217940</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1">
-      <c r="B56" s="9">
+    <row r="58" spans="2:5" hidden="1">
+      <c r="B58" s="9">
         <v>2021</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D58" s="10">
         <v>19821651</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E58" s="10">
         <v>1215685</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1">
-      <c r="B57" s="11">
+    <row r="59" spans="2:5" hidden="1">
+      <c r="B59" s="11">
         <v>2020</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D59" s="12">
         <v>19773732</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E59" s="12">
         <v>1213211</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" hidden="1">
-      <c r="B58" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="6">
-        <v>20051552</v>
-      </c>
-      <c r="E58" s="6">
-        <v>1220915</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" hidden="1">
-      <c r="B59" s="7">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="8">
-        <v>19902833</v>
-      </c>
-      <c r="E59" s="8">
-        <v>1208882</v>
       </c>
     </row>
     <row r="60" spans="2:5" hidden="1">
@@ -1520,13 +1526,13 @@
         <v>2020</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D60" s="6">
-        <v>19702192</v>
+        <v>20051552</v>
       </c>
       <c r="E60" s="6">
-        <v>1193903</v>
+        <v>1220915</v>
       </c>
     </row>
     <row r="61" spans="2:5" hidden="1">
@@ -1534,13 +1540,13 @@
         <v>2020</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D61" s="8">
-        <v>19588342</v>
+        <v>19902833</v>
       </c>
       <c r="E61" s="8">
-        <v>1187467</v>
+        <v>1208882</v>
       </c>
     </row>
     <row r="62" spans="2:5" hidden="1">
@@ -1548,13 +1554,13 @@
         <v>2020</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D62" s="6">
-        <v>19495952</v>
+        <v>19702192</v>
       </c>
       <c r="E62" s="6">
-        <v>1183455</v>
+        <v>1193903</v>
       </c>
     </row>
     <row r="63" spans="2:5" hidden="1">
@@ -1562,13 +1568,13 @@
         <v>2020</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D63" s="8">
-        <v>19499859</v>
+        <v>19588342</v>
       </c>
       <c r="E63" s="8">
-        <v>1182594</v>
+        <v>1187467</v>
       </c>
     </row>
     <row r="64" spans="2:5" hidden="1">
@@ -1576,13 +1582,13 @@
         <v>2020</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" s="6">
-        <v>19583170</v>
+        <v>19495952</v>
       </c>
       <c r="E64" s="6">
-        <v>1186977</v>
+        <v>1183455</v>
       </c>
     </row>
     <row r="65" spans="2:5" hidden="1">
@@ -1590,13 +1596,13 @@
         <v>2020</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65" s="8">
-        <v>19927696</v>
+        <v>19499859</v>
       </c>
       <c r="E65" s="8">
-        <v>1202788</v>
+        <v>1182594</v>
       </c>
     </row>
     <row r="66" spans="2:5" hidden="1">
@@ -1604,13 +1610,13 @@
         <v>2020</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66" s="6">
-        <v>20482943</v>
+        <v>19583170</v>
       </c>
       <c r="E66" s="6">
-        <v>1226995</v>
+        <v>1186977</v>
       </c>
     </row>
     <row r="67" spans="2:5" hidden="1">
@@ -1618,69 +1624,69 @@
         <v>2020</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="8">
+        <v>19927696</v>
+      </c>
+      <c r="E67" s="8">
+        <v>1202788</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" hidden="1">
+      <c r="B68" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="6">
+        <v>20482943</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1226995</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" hidden="1">
+      <c r="B69" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D69" s="8">
         <v>20613536</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E69" s="8">
         <v>1223755</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1">
-      <c r="B68" s="9">
+    <row r="70" spans="2:5" hidden="1">
+      <c r="B70" s="9">
         <v>2020</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D70" s="10">
         <v>20490397</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E70" s="10">
         <v>1217337</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1">
-      <c r="B69" s="11">
+    <row r="71" spans="2:5" hidden="1">
+      <c r="B71" s="11">
         <v>2019</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D71" s="12">
         <v>20421442</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E71" s="12">
         <v>1215181</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" hidden="1">
-      <c r="B70" s="5">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="6">
-        <v>20803652</v>
-      </c>
-      <c r="E70" s="6">
-        <v>1220127</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" hidden="1">
-      <c r="B71" s="7">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="8">
-        <v>20727424</v>
-      </c>
-      <c r="E71" s="8">
-        <v>1214110</v>
       </c>
     </row>
     <row r="72" spans="2:5" hidden="1">
@@ -1688,13 +1694,13 @@
         <v>2019</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D72" s="6">
-        <v>20567426</v>
+        <v>20803652</v>
       </c>
       <c r="E72" s="6">
-        <v>1204267</v>
+        <v>1220127</v>
       </c>
     </row>
     <row r="73" spans="2:5" hidden="1">
@@ -1702,13 +1708,13 @@
         <v>2019</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D73" s="8">
-        <v>20422010</v>
+        <v>20727424</v>
       </c>
       <c r="E73" s="8">
-        <v>1199362</v>
+        <v>1214110</v>
       </c>
     </row>
     <row r="74" spans="2:5" hidden="1">
@@ -1716,13 +1722,13 @@
         <v>2019</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="6">
-        <v>20385379</v>
+        <v>20567426</v>
       </c>
       <c r="E74" s="6">
-        <v>1196621</v>
+        <v>1204267</v>
       </c>
     </row>
     <row r="75" spans="2:5" hidden="1">
@@ -1730,13 +1736,13 @@
         <v>2019</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D75" s="8">
-        <v>20368666</v>
+        <v>20422010</v>
       </c>
       <c r="E75" s="8">
-        <v>1183628</v>
+        <v>1199362</v>
       </c>
     </row>
     <row r="76" spans="2:5" hidden="1">
@@ -1744,13 +1750,13 @@
         <v>2019</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" s="6">
-        <v>20382910</v>
+        <v>20385379</v>
       </c>
       <c r="E76" s="6">
-        <v>1176213</v>
+        <v>1196621</v>
       </c>
     </row>
     <row r="77" spans="2:5" hidden="1">
@@ -1758,13 +1764,13 @@
         <v>2019</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D77" s="8">
-        <v>20378927</v>
+        <v>20368666</v>
       </c>
       <c r="E77" s="8">
-        <v>1173595</v>
+        <v>1183628</v>
       </c>
     </row>
     <row r="78" spans="2:5" hidden="1">
@@ -1772,13 +1778,13 @@
         <v>2019</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" s="6">
-        <v>20348508</v>
+        <v>20382910</v>
       </c>
       <c r="E78" s="6">
-        <v>1166805</v>
+        <v>1176213</v>
       </c>
     </row>
     <row r="79" spans="2:5" hidden="1">
@@ -1786,55 +1792,55 @@
         <v>2019</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D79" s="8">
-        <v>20299993</v>
+        <v>20378927</v>
       </c>
       <c r="E79" s="8">
-        <v>1162018</v>
+        <v>1173595</v>
       </c>
     </row>
     <row r="80" spans="2:5" hidden="1">
-      <c r="B80" s="9">
+      <c r="B80" s="5">
         <v>2019</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="10">
-        <v>20174011</v>
-      </c>
-      <c r="E80" s="10">
-        <v>1151961</v>
+      <c r="C80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="6">
+        <v>20348508</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1166805</v>
       </c>
     </row>
     <row r="81" spans="2:10" hidden="1">
       <c r="B81" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" s="8">
-        <v>20079365</v>
+        <v>20299993</v>
       </c>
       <c r="E81" s="8">
-        <v>1150983</v>
+        <v>1162018</v>
       </c>
     </row>
     <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="6">
-        <v>20457926</v>
-      </c>
-      <c r="E82" s="6">
-        <v>1158571</v>
+      <c r="B82" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="10">
+        <v>20174011</v>
+      </c>
+      <c r="E82" s="10">
+        <v>1151961</v>
       </c>
     </row>
     <row r="83" spans="2:10" hidden="1">
@@ -1842,13 +1848,13 @@
         <v>2018</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D83" s="8">
-        <v>20356179</v>
+        <v>20079365</v>
       </c>
       <c r="E83" s="8">
-        <v>1154332</v>
+        <v>1150983</v>
       </c>
     </row>
     <row r="84" spans="2:10" hidden="1">
@@ -1856,13 +1862,13 @@
         <v>2018</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D84" s="6">
-        <v>20192960</v>
+        <v>20457926</v>
       </c>
       <c r="E84" s="6">
-        <v>1140678</v>
+        <v>1158571</v>
       </c>
     </row>
     <row r="85" spans="2:10" hidden="1">
@@ -1870,13 +1876,13 @@
         <v>2018</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D85" s="8">
-        <v>20063433</v>
+        <v>20356179</v>
       </c>
       <c r="E85" s="8">
-        <v>1138592</v>
+        <v>1154332</v>
       </c>
     </row>
     <row r="86" spans="2:10" hidden="1">
@@ -1884,13 +1890,13 @@
         <v>2018</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="6">
-        <v>19949244</v>
+        <v>20192960</v>
       </c>
       <c r="E86" s="6">
-        <v>1130363</v>
+        <v>1140678</v>
       </c>
     </row>
     <row r="87" spans="2:10" hidden="1">
@@ -1898,13 +1904,13 @@
         <v>2018</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D87" s="8">
-        <v>19894575</v>
+        <v>20063433</v>
       </c>
       <c r="E87" s="8">
-        <v>1125051</v>
+        <v>1138592</v>
       </c>
     </row>
     <row r="88" spans="2:10" hidden="1">
@@ -1912,13 +1918,13 @@
         <v>2018</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88" s="6">
-        <v>19908072</v>
+        <v>19949244</v>
       </c>
       <c r="E88" s="6">
-        <v>1122774</v>
+        <v>1130363</v>
       </c>
     </row>
     <row r="89" spans="2:10" hidden="1">
@@ -1926,38 +1932,27 @@
         <v>2018</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89" s="8">
-        <v>19874106</v>
+        <v>19894575</v>
       </c>
       <c r="E89" s="8">
-        <v>1118667</v>
-      </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-    </row>
-    <row r="90" spans="2:10" ht="18" hidden="1" customHeight="1">
+        <v>1125051</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" hidden="1">
       <c r="B90" s="5">
         <v>2018</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D90" s="6">
-        <v>19786997</v>
+        <v>19908072</v>
       </c>
       <c r="E90" s="6">
-        <v>1110710</v>
-      </c>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="3" t="s">
-        <v>0</v>
+        <v>1122774</v>
       </c>
     </row>
     <row r="91" spans="2:10" hidden="1">
@@ -1965,60 +1960,99 @@
         <v>2018</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D91" s="8">
-        <v>19696488</v>
+        <v>19874106</v>
       </c>
       <c r="E91" s="8">
-        <v>1103513</v>
-      </c>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
+        <v>1118667</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
-      <c r="J91" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" hidden="1">
+    </row>
+    <row r="92" spans="2:10" ht="18" hidden="1" customHeight="1">
       <c r="B92" s="5">
         <v>2018</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="6">
+        <v>19786997</v>
+      </c>
+      <c r="E92" s="6">
+        <v>1110710</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" hidden="1">
+      <c r="B93" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="8">
+        <v>19696488</v>
+      </c>
+      <c r="E93" s="8">
+        <v>1103513</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" hidden="1">
+      <c r="B94" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D94" s="6">
         <v>19532177</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E94" s="6">
         <v>1098889</v>
       </c>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="14"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="D96" s="13"/>
-      <c r="E96" s="14"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="14"/>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="D98" s="13"/>
+      <c r="E98" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71758A87-E407-405F-B7C9-D956256C1ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E377EE4-D84F-4380-94E8-136A96E2FFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -356,13 +356,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -390,6 +383,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -441,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E94" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="B4:E94" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E95" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="B4:E95" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -682,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O98"/>
+  <dimension ref="B2:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -752,1263 +752,1256 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="4" customFormat="1">
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>2025</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>23591691</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1703568</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1">
+      <c r="B6" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D6" s="8">
         <v>22325666</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="8">
         <v>1577491</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1">
-      <c r="B6" s="5">
+    <row r="7" spans="2:15" s="4" customFormat="1">
+      <c r="B7" s="5">
         <v>2025</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <v>22372044</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="6">
         <v>1581552</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="4" customFormat="1">
-      <c r="B7" s="7">
+    <row r="8" spans="2:15" s="4" customFormat="1">
+      <c r="B8" s="7">
         <v>2025</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="8">
         <v>22417668</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="8">
         <v>1579216</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="4" customFormat="1">
-      <c r="B8" s="5">
+    <row r="9" spans="2:15" s="4" customFormat="1">
+      <c r="B9" s="5">
         <v>2025</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>22465110</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>1581128</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="4" customFormat="1">
-      <c r="B9" s="7">
+    <row r="10" spans="2:15" s="4" customFormat="1">
+      <c r="B10" s="7">
         <v>2025</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>22430931</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>1573792</v>
       </c>
     </row>
-    <row r="10" spans="2:15" s="4" customFormat="1">
-      <c r="B10" s="9">
+    <row r="11" spans="2:15" s="4" customFormat="1">
+      <c r="B11" s="9">
         <v>2025</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="10">
         <v>22311546</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="10">
         <v>1572317</v>
       </c>
     </row>
-    <row r="11" spans="2:15" s="4" customFormat="1">
-      <c r="B11" s="7">
+    <row r="12" spans="2:15" s="4" customFormat="1">
+      <c r="B12" s="7">
         <v>2024</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <v>22238379</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="8">
         <v>1581718</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="4" customFormat="1">
-      <c r="B12" s="5">
+    <row r="13" spans="2:15" s="4" customFormat="1">
+      <c r="B13" s="5">
         <v>2024</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>22643638</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>1612249</v>
       </c>
     </row>
-    <row r="13" spans="2:15" s="4" customFormat="1">
-      <c r="B13" s="7">
+    <row r="14" spans="2:15" s="4" customFormat="1">
+      <c r="B14" s="7">
         <v>2024</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <v>22618942</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>1601366</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="18" customHeight="1">
-      <c r="B14" s="5">
+    <row r="15" spans="2:15" ht="18" customHeight="1">
+      <c r="B15" s="5">
         <v>2024</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>22480803</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>1573441</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="18" customHeight="1">
-      <c r="B15" s="7">
+    <row r="16" spans="2:15" ht="18" customHeight="1">
+      <c r="B16" s="7">
         <v>2024</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <v>22389835</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>1563033</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="5">
+    <row r="17" spans="2:5">
+      <c r="B17" s="5">
         <v>2024</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>22331788</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>1559076</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="7">
+    <row r="18" spans="2:5">
+      <c r="B18" s="7">
         <v>2024</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>22319444</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>1555259</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="5">
+    <row r="19" spans="2:5">
+      <c r="B19" s="5">
         <v>2024</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>22348999</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>1559328</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="7">
+    <row r="20" spans="2:5">
+      <c r="B20" s="7">
         <v>2024</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <v>22374202</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>1561135</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="5">
+    <row r="21" spans="2:5">
+      <c r="B21" s="5">
         <v>2024</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>22289345</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>1545250</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="7">
+    <row r="22" spans="2:5">
+      <c r="B22" s="7">
         <v>2024</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>22289810</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>1540972</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="9">
+    <row r="23" spans="2:5">
+      <c r="B23" s="9">
         <v>2024</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>22133407</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>1532544</v>
       </c>
     </row>
-    <row r="23" spans="2:5" hidden="1">
-      <c r="B23" s="11">
+    <row r="24" spans="2:5" hidden="1">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <v>22024386</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="12">
         <v>1522386</v>
       </c>
     </row>
-    <row r="24" spans="2:5" hidden="1">
-      <c r="B24" s="5">
+    <row r="25" spans="2:5" hidden="1">
+      <c r="B25" s="5">
         <v>2023</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>22409268</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>1536052</v>
       </c>
     </row>
-    <row r="25" spans="2:5" hidden="1">
-      <c r="B25" s="7">
+    <row r="26" spans="2:5" hidden="1">
+      <c r="B26" s="7">
         <v>2023</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <v>22302690</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>1517214</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1">
-      <c r="B26" s="5">
+    <row r="27" spans="2:5" hidden="1">
+      <c r="B27" s="5">
         <v>2023</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="6">
         <v>22129433</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>1492386</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1">
-      <c r="B27" s="7">
+    <row r="28" spans="2:5" hidden="1">
+      <c r="B28" s="7">
         <v>2023</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>21996875</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>1486423</v>
       </c>
     </row>
-    <row r="28" spans="2:5" hidden="1">
-      <c r="B28" s="5">
+    <row r="29" spans="2:5" hidden="1">
+      <c r="B29" s="5">
         <v>2023</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>21885139</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>1476689</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1">
-      <c r="B29" s="7">
+    <row r="30" spans="2:5" hidden="1">
+      <c r="B30" s="7">
         <v>2023</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>21887307</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>1472427</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1">
-      <c r="B30" s="5">
+    <row r="31" spans="2:5" hidden="1">
+      <c r="B31" s="5">
         <v>2023</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <v>21862909</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <v>1473285</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1">
-      <c r="B31" s="7">
+    <row r="32" spans="2:5" hidden="1">
+      <c r="B32" s="7">
         <v>2023</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <v>21820291</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <v>1458395</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1">
-      <c r="B32" s="5">
+    <row r="33" spans="2:5" hidden="1">
+      <c r="B33" s="5">
         <v>2023</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>21796280</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <v>1453808</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1">
-      <c r="B33" s="7">
+    <row r="34" spans="2:5" hidden="1">
+      <c r="B34" s="7">
         <v>2023</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <v>21660469</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <v>1439808</v>
       </c>
     </row>
-    <row r="34" spans="2:5" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:5" hidden="1">
+      <c r="B35" s="9">
         <v>2023</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <v>21484595</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>1431720</v>
       </c>
     </row>
-    <row r="35" spans="2:5" hidden="1">
-      <c r="B35" s="11">
+    <row r="36" spans="2:5" hidden="1">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <v>21372896</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E36" s="12">
         <v>1432765</v>
       </c>
     </row>
-    <row r="36" spans="2:5" hidden="1">
-      <c r="B36" s="5">
+    <row r="37" spans="2:5" hidden="1">
+      <c r="B37" s="5">
         <v>2022</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="6">
         <v>21718601</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E37" s="6">
         <v>1449414</v>
       </c>
     </row>
-    <row r="37" spans="2:5" hidden="1">
-      <c r="B37" s="7">
+    <row r="38" spans="2:5" hidden="1">
+      <c r="B38" s="7">
         <v>2022</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <v>21617326</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E38" s="8">
         <v>1438643</v>
       </c>
     </row>
-    <row r="38" spans="2:5" hidden="1">
-      <c r="B38" s="5">
+    <row r="39" spans="2:5" hidden="1">
+      <c r="B39" s="5">
         <v>2022</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="6">
         <v>21409358</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>1421088</v>
       </c>
     </row>
-    <row r="39" spans="2:5" hidden="1">
-      <c r="B39" s="7">
+    <row r="40" spans="2:5" hidden="1">
+      <c r="B40" s="7">
         <v>2022</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <v>21236866</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E40" s="8">
         <v>1409658</v>
       </c>
     </row>
-    <row r="40" spans="2:5" hidden="1">
-      <c r="B40" s="5">
+    <row r="41" spans="2:5" hidden="1">
+      <c r="B41" s="5">
         <v>2022</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="6">
         <v>21079434</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <v>1400461</v>
       </c>
     </row>
-    <row r="41" spans="2:5" hidden="1">
-      <c r="B41" s="7">
+    <row r="42" spans="2:5" hidden="1">
+      <c r="B42" s="7">
         <v>2022</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <v>21068708</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E42" s="8">
         <v>1394745</v>
       </c>
     </row>
-    <row r="42" spans="2:5" hidden="1">
-      <c r="B42" s="5">
+    <row r="43" spans="2:5" hidden="1">
+      <c r="B43" s="5">
         <v>2022</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D43" s="6">
         <v>21008487</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E43" s="6">
         <v>1387090</v>
       </c>
     </row>
-    <row r="43" spans="2:5" hidden="1">
-      <c r="B43" s="7">
+    <row r="44" spans="2:5" hidden="1">
+      <c r="B44" s="7">
         <v>2022</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D44" s="8">
         <v>21011342</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E44" s="8">
         <v>1371403</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1">
-      <c r="B44" s="5">
+    <row r="45" spans="2:5" hidden="1">
+      <c r="B45" s="5">
         <v>2022</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D45" s="6">
         <v>21005852</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E45" s="6">
         <v>1366419</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1">
-      <c r="B45" s="7">
+    <row r="46" spans="2:5" hidden="1">
+      <c r="B46" s="7">
         <v>2022</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <v>20941286</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E46" s="8">
         <v>1362139</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="18" hidden="1" customHeight="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:5" ht="18" hidden="1" customHeight="1">
+      <c r="B47" s="9">
         <v>2022</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D47" s="10">
         <v>20762419</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>1353437</v>
       </c>
     </row>
-    <row r="47" spans="2:5" hidden="1">
-      <c r="B47" s="11">
+    <row r="48" spans="2:5" hidden="1">
+      <c r="B48" s="11">
         <v>2021</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <v>20620148</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>1346231</v>
       </c>
     </row>
-    <row r="48" spans="2:5" hidden="1">
-      <c r="B48" s="5">
+    <row r="49" spans="2:5" hidden="1">
+      <c r="B49" s="5">
         <v>2021</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D49" s="6">
         <v>20933050</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E49" s="6">
         <v>1355387</v>
       </c>
     </row>
-    <row r="49" spans="2:5" hidden="1">
-      <c r="B49" s="7">
+    <row r="50" spans="2:5" hidden="1">
+      <c r="B50" s="7">
         <v>2021</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <v>20767587</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E50" s="8">
         <v>1334726</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1">
-      <c r="B50" s="5">
+    <row r="51" spans="2:5" hidden="1">
+      <c r="B51" s="5">
         <v>2021</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>20594919</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>1322061</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1">
-      <c r="B51" s="7">
+    <row r="52" spans="2:5" hidden="1">
+      <c r="B52" s="7">
         <v>2021</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="8">
         <v>20420823</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E52" s="8">
         <v>1297793</v>
       </c>
     </row>
-    <row r="52" spans="2:5" hidden="1">
-      <c r="B52" s="5">
+    <row r="53" spans="2:5" hidden="1">
+      <c r="B53" s="5">
         <v>2021</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <v>20291923</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>1281115</v>
       </c>
     </row>
-    <row r="53" spans="2:5" hidden="1">
-      <c r="B53" s="7">
+    <row r="54" spans="2:5" hidden="1">
+      <c r="B54" s="7">
         <v>2021</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <v>20175380</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E54" s="8">
         <v>1238603</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1">
-      <c r="B54" s="5">
+    <row r="55" spans="2:5" hidden="1">
+      <c r="B55" s="5">
         <v>2021</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D55" s="6">
         <v>20109444</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E55" s="6">
         <v>1233478</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1">
-      <c r="B55" s="7">
+    <row r="56" spans="2:5" hidden="1">
+      <c r="B56" s="7">
         <v>2021</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="8">
         <v>20070483</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E56" s="8">
         <v>1228178</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1">
-      <c r="B56" s="5">
+    <row r="57" spans="2:5" hidden="1">
+      <c r="B57" s="5">
         <v>2021</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <v>20025709</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="6">
         <v>1221474</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1">
-      <c r="B57" s="7">
+    <row r="58" spans="2:5" hidden="1">
+      <c r="B58" s="7">
         <v>2021</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <v>19936938</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E58" s="8">
         <v>1217940</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:5" hidden="1">
+      <c r="B59" s="9">
         <v>2021</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="10">
         <v>19821651</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E59" s="10">
         <v>1215685</v>
       </c>
     </row>
-    <row r="59" spans="2:5" hidden="1">
-      <c r="B59" s="11">
+    <row r="60" spans="2:5" hidden="1">
+      <c r="B60" s="11">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <v>19773732</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>1213211</v>
       </c>
     </row>
-    <row r="60" spans="2:5" hidden="1">
-      <c r="B60" s="5">
+    <row r="61" spans="2:5" hidden="1">
+      <c r="B61" s="5">
         <v>2020</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="6">
         <v>20051552</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E61" s="6">
         <v>1220915</v>
       </c>
     </row>
-    <row r="61" spans="2:5" hidden="1">
-      <c r="B61" s="7">
+    <row r="62" spans="2:5" hidden="1">
+      <c r="B62" s="7">
         <v>2020</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <v>19902833</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E62" s="8">
         <v>1208882</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1">
-      <c r="B62" s="5">
+    <row r="63" spans="2:5" hidden="1">
+      <c r="B63" s="5">
         <v>2020</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D63" s="6">
         <v>19702192</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>1193903</v>
       </c>
     </row>
-    <row r="63" spans="2:5" hidden="1">
-      <c r="B63" s="7">
+    <row r="64" spans="2:5" hidden="1">
+      <c r="B64" s="7">
         <v>2020</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <v>19588342</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E64" s="8">
         <v>1187467</v>
       </c>
     </row>
-    <row r="64" spans="2:5" hidden="1">
-      <c r="B64" s="5">
+    <row r="65" spans="2:5" hidden="1">
+      <c r="B65" s="5">
         <v>2020</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <v>19495952</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="6">
         <v>1183455</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1">
-      <c r="B65" s="7">
+    <row r="66" spans="2:5" hidden="1">
+      <c r="B66" s="7">
         <v>2020</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="8">
         <v>19499859</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E66" s="8">
         <v>1182594</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1">
-      <c r="B66" s="5">
+    <row r="67" spans="2:5" hidden="1">
+      <c r="B67" s="5">
         <v>2020</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D67" s="6">
         <v>19583170</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E67" s="6">
         <v>1186977</v>
       </c>
     </row>
-    <row r="67" spans="2:5" hidden="1">
-      <c r="B67" s="7">
+    <row r="68" spans="2:5" hidden="1">
+      <c r="B68" s="7">
         <v>2020</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="8">
         <v>19927696</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E68" s="8">
         <v>1202788</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1">
-      <c r="B68" s="5">
+    <row r="69" spans="2:5" hidden="1">
+      <c r="B69" s="5">
         <v>2020</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="6">
         <v>20482943</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E69" s="6">
         <v>1226995</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1">
-      <c r="B69" s="7">
+    <row r="70" spans="2:5" hidden="1">
+      <c r="B70" s="7">
         <v>2020</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="8">
         <v>20613536</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E70" s="8">
         <v>1223755</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:5" hidden="1">
+      <c r="B71" s="9">
         <v>2020</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <v>20490397</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E71" s="10">
         <v>1217337</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1">
-      <c r="B71" s="11">
+    <row r="72" spans="2:5" hidden="1">
+      <c r="B72" s="11">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <v>20421442</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>1215181</v>
       </c>
     </row>
-    <row r="72" spans="2:5" hidden="1">
-      <c r="B72" s="5">
+    <row r="73" spans="2:5" hidden="1">
+      <c r="B73" s="5">
         <v>2019</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="6">
         <v>20803652</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <v>1220127</v>
       </c>
     </row>
-    <row r="73" spans="2:5" hidden="1">
-      <c r="B73" s="7">
+    <row r="74" spans="2:5" hidden="1">
+      <c r="B74" s="7">
         <v>2019</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="8">
         <v>20727424</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E74" s="8">
         <v>1214110</v>
       </c>
     </row>
-    <row r="74" spans="2:5" hidden="1">
-      <c r="B74" s="5">
+    <row r="75" spans="2:5" hidden="1">
+      <c r="B75" s="5">
         <v>2019</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <v>20567426</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>1204267</v>
       </c>
     </row>
-    <row r="75" spans="2:5" hidden="1">
-      <c r="B75" s="7">
+    <row r="76" spans="2:5" hidden="1">
+      <c r="B76" s="7">
         <v>2019</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <v>20422010</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E76" s="8">
         <v>1199362</v>
       </c>
     </row>
-    <row r="76" spans="2:5" hidden="1">
-      <c r="B76" s="5">
+    <row r="77" spans="2:5" hidden="1">
+      <c r="B77" s="5">
         <v>2019</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <v>20385379</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <v>1196621</v>
       </c>
     </row>
-    <row r="77" spans="2:5" hidden="1">
-      <c r="B77" s="7">
+    <row r="78" spans="2:5" hidden="1">
+      <c r="B78" s="7">
         <v>2019</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <v>20368666</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E78" s="8">
         <v>1183628</v>
       </c>
     </row>
-    <row r="78" spans="2:5" hidden="1">
-      <c r="B78" s="5">
+    <row r="79" spans="2:5" hidden="1">
+      <c r="B79" s="5">
         <v>2019</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D79" s="6">
         <v>20382910</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E79" s="6">
         <v>1176213</v>
       </c>
     </row>
-    <row r="79" spans="2:5" hidden="1">
-      <c r="B79" s="7">
+    <row r="80" spans="2:5" hidden="1">
+      <c r="B80" s="7">
         <v>2019</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <v>20378927</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E80" s="8">
         <v>1173595</v>
       </c>
     </row>
-    <row r="80" spans="2:5" hidden="1">
-      <c r="B80" s="5">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="5">
         <v>2019</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="6">
         <v>20348508</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E81" s="6">
         <v>1166805</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1">
-      <c r="B81" s="7">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="7">
         <v>2019</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <v>20299993</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E82" s="8">
         <v>1162018</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="9">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="9">
         <v>2019</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D83" s="10">
         <v>20174011</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E83" s="10">
         <v>1151961</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1">
-      <c r="B83" s="7">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="7">
         <v>2018</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="8">
         <v>20079365</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E84" s="8">
         <v>1150983</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1">
-      <c r="B84" s="5">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="5">
         <v>2018</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D85" s="6">
         <v>20457926</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E85" s="6">
         <v>1158571</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1">
-      <c r="B85" s="7">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="7">
         <v>2018</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <v>20356179</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E86" s="8">
         <v>1154332</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1">
-      <c r="B86" s="5">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="5">
         <v>2018</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D87" s="6">
         <v>20192960</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E87" s="6">
         <v>1140678</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1">
-      <c r="B87" s="7">
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="7">
         <v>2018</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <v>20063433</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E88" s="8">
         <v>1138592</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1">
-      <c r="B88" s="5">
+    <row r="89" spans="2:10" hidden="1">
+      <c r="B89" s="5">
         <v>2018</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D89" s="6">
         <v>19949244</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E89" s="6">
         <v>1130363</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1">
-      <c r="B89" s="7">
+    <row r="90" spans="2:10" hidden="1">
+      <c r="B90" s="7">
         <v>2018</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D90" s="8">
         <v>19894575</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E90" s="8">
         <v>1125051</v>
       </c>
     </row>
-    <row r="90" spans="2:10" hidden="1">
-      <c r="B90" s="5">
+    <row r="91" spans="2:10" hidden="1">
+      <c r="B91" s="5">
         <v>2018</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D91" s="6">
         <v>19908072</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E91" s="6">
         <v>1122774</v>
       </c>
     </row>
-    <row r="91" spans="2:10" hidden="1">
-      <c r="B91" s="7">
+    <row r="92" spans="2:10" hidden="1">
+      <c r="B92" s="7">
         <v>2018</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D92" s="8">
         <v>19874106</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E92" s="8">
         <v>1118667</v>
-      </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-    </row>
-    <row r="92" spans="2:10" ht="18" hidden="1" customHeight="1">
-      <c r="B92" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="6">
-        <v>19786997</v>
-      </c>
-      <c r="E92" s="6">
-        <v>1110710</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
-      <c r="J92" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" hidden="1">
-      <c r="B93" s="7">
+    </row>
+    <row r="93" spans="2:10" ht="18" hidden="1" customHeight="1">
+      <c r="B93" s="5">
         <v>2018</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="8">
-        <v>19696488</v>
-      </c>
-      <c r="E93" s="8">
-        <v>1103513</v>
-      </c>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
+      <c r="C93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="6">
+        <v>19786997</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1110710</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
       <c r="J93" s="3" t="s">
@@ -2016,43 +2009,64 @@
       </c>
     </row>
     <row r="94" spans="2:10" hidden="1">
-      <c r="B94" s="5">
+      <c r="B94" s="7">
         <v>2018</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="8">
+        <v>19696488</v>
+      </c>
+      <c r="E94" s="8">
+        <v>1103513</v>
+      </c>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" hidden="1">
+      <c r="B95" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D95" s="6">
         <v>19532177</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E95" s="6">
         <v>1098889</v>
       </c>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="13"/>
-      <c r="E97" s="14"/>
-    </row>
-    <row r="98" spans="2:5">
       <c r="D98" s="13"/>
       <c r="E98" s="14"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="D99" s="13"/>
+      <c r="E99" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Trabajadores_asegurados.xlsx
+++ b/Trabajadores_asegurados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E377EE4-D84F-4380-94E8-136A96E2FFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF3E463-525C-4039-8FE8-FDC917E8E932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -356,6 +356,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -383,13 +390,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -441,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E95" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="B4:E95" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}" name="Tabla1" displayName="Tabla1" ref="B4:E96" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="B4:E96" xr:uid="{3FCECC73-1465-417C-866F-E1744FB5E786}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -682,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O99"/>
+  <dimension ref="B2:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -752,1277 +752,1270 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="4" customFormat="1">
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>2025</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
+        <v>22454917</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1699987</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1">
+      <c r="B6" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6">
-        <v>23591691</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D6" s="6">
+        <v>22433167</v>
+      </c>
+      <c r="E6" s="6">
         <v>1703568</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1">
-      <c r="B6" s="7">
+    <row r="7" spans="2:15" s="4" customFormat="1">
+      <c r="B7" s="7">
         <v>2025</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="8">
         <v>22325666</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="8">
         <v>1577491</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="4" customFormat="1">
-      <c r="B7" s="5">
+    <row r="8" spans="2:15" s="4" customFormat="1">
+      <c r="B8" s="5">
         <v>2025</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="6">
         <v>22372044</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="6">
         <v>1581552</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="4" customFormat="1">
-      <c r="B8" s="7">
+    <row r="9" spans="2:15" s="4" customFormat="1">
+      <c r="B9" s="7">
         <v>2025</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="8">
         <v>22417668</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>1579216</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="4" customFormat="1">
-      <c r="B9" s="5">
+    <row r="10" spans="2:15" s="4" customFormat="1">
+      <c r="B10" s="5">
         <v>2025</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="6">
         <v>22465110</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>1581128</v>
       </c>
     </row>
-    <row r="10" spans="2:15" s="4" customFormat="1">
-      <c r="B10" s="7">
+    <row r="11" spans="2:15" s="4" customFormat="1">
+      <c r="B11" s="7">
         <v>2025</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <v>22430931</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="8">
         <v>1573792</v>
       </c>
     </row>
-    <row r="11" spans="2:15" s="4" customFormat="1">
-      <c r="B11" s="9">
+    <row r="12" spans="2:15" s="4" customFormat="1">
+      <c r="B12" s="9">
         <v>2025</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="10">
         <v>22311546</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>1572317</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="4" customFormat="1">
-      <c r="B12" s="7">
+    <row r="13" spans="2:15" s="4" customFormat="1">
+      <c r="B13" s="7">
         <v>2024</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <v>22238379</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="8">
         <v>1581718</v>
       </c>
     </row>
-    <row r="13" spans="2:15" s="4" customFormat="1">
-      <c r="B13" s="5">
+    <row r="14" spans="2:15" s="4" customFormat="1">
+      <c r="B14" s="5">
         <v>2024</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>22643638</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>1612249</v>
       </c>
     </row>
-    <row r="14" spans="2:15" s="4" customFormat="1">
-      <c r="B14" s="7">
+    <row r="15" spans="2:15" s="4" customFormat="1">
+      <c r="B15" s="7">
         <v>2024</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <v>22618942</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>1601366</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="18" customHeight="1">
-      <c r="B15" s="5">
+    <row r="16" spans="2:15" ht="18" customHeight="1">
+      <c r="B16" s="5">
         <v>2024</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="6">
         <v>22480803</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>1573441</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="18" customHeight="1">
-      <c r="B16" s="7">
+    <row r="17" spans="2:5" ht="18" customHeight="1">
+      <c r="B17" s="7">
         <v>2024</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>22389835</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>1563033</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="5">
+    <row r="18" spans="2:5">
+      <c r="B18" s="5">
         <v>2024</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>22331788</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>1559076</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="7">
+    <row r="19" spans="2:5">
+      <c r="B19" s="7">
         <v>2024</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <v>22319444</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>1555259</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="5">
+    <row r="20" spans="2:5">
+      <c r="B20" s="5">
         <v>2024</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <v>22348999</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <v>1559328</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="7">
+    <row r="21" spans="2:5">
+      <c r="B21" s="7">
         <v>2024</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="8">
         <v>22374202</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="8">
         <v>1561135</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="5">
+    <row r="22" spans="2:5">
+      <c r="B22" s="5">
         <v>2024</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <v>22289345</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>1545250</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="7">
+    <row r="23" spans="2:5">
+      <c r="B23" s="7">
         <v>2024</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <v>22289810</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="8">
         <v>1540972</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="9">
+    <row r="24" spans="2:5">
+      <c r="B24" s="9">
         <v>2024</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>22133407</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>1532544</v>
       </c>
     </row>
-    <row r="24" spans="2:5" hidden="1">
-      <c r="B24" s="11">
+    <row r="25" spans="2:5" hidden="1">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <v>22024386</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="12">
         <v>1522386</v>
       </c>
     </row>
-    <row r="25" spans="2:5" hidden="1">
-      <c r="B25" s="5">
+    <row r="26" spans="2:5" hidden="1">
+      <c r="B26" s="5">
         <v>2023</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="6">
         <v>22409268</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>1536052</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1">
-      <c r="B26" s="7">
+    <row r="27" spans="2:5" hidden="1">
+      <c r="B27" s="7">
         <v>2023</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <v>22302690</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="8">
         <v>1517214</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1">
-      <c r="B27" s="5">
+    <row r="28" spans="2:5" hidden="1">
+      <c r="B28" s="5">
         <v>2023</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <v>22129433</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <v>1492386</v>
       </c>
     </row>
-    <row r="28" spans="2:5" hidden="1">
-      <c r="B28" s="7">
+    <row r="29" spans="2:5" hidden="1">
+      <c r="B29" s="7">
         <v>2023</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <v>21996875</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <v>1486423</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1">
-      <c r="B29" s="5">
+    <row r="30" spans="2:5" hidden="1">
+      <c r="B30" s="5">
         <v>2023</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <v>21885139</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <v>1476689</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1">
-      <c r="B30" s="7">
+    <row r="31" spans="2:5" hidden="1">
+      <c r="B31" s="7">
         <v>2023</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <v>21887307</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>1472427</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1">
-      <c r="B31" s="5">
+    <row r="32" spans="2:5" hidden="1">
+      <c r="B32" s="5">
         <v>2023</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="6">
         <v>21862909</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="6">
         <v>1473285</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1">
-      <c r="B32" s="7">
+    <row r="33" spans="2:5" hidden="1">
+      <c r="B33" s="7">
         <v>2023</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <v>21820291</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="8">
         <v>1458395</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1">
-      <c r="B33" s="5">
+    <row r="34" spans="2:5" hidden="1">
+      <c r="B34" s="5">
         <v>2023</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>21796280</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <v>1453808</v>
       </c>
     </row>
-    <row r="34" spans="2:5" hidden="1">
-      <c r="B34" s="7">
+    <row r="35" spans="2:5" hidden="1">
+      <c r="B35" s="7">
         <v>2023</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <v>21660469</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E35" s="8">
         <v>1439808</v>
       </c>
     </row>
-    <row r="35" spans="2:5" hidden="1">
-      <c r="B35" s="9">
+    <row r="36" spans="2:5" hidden="1">
+      <c r="B36" s="9">
         <v>2023</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <v>21484595</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <v>1431720</v>
       </c>
     </row>
-    <row r="36" spans="2:5" hidden="1">
-      <c r="B36" s="11">
+    <row r="37" spans="2:5" hidden="1">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <v>21372896</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="12">
         <v>1432765</v>
       </c>
     </row>
-    <row r="37" spans="2:5" hidden="1">
-      <c r="B37" s="5">
+    <row r="38" spans="2:5" hidden="1">
+      <c r="B38" s="5">
         <v>2022</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="6">
         <v>21718601</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>1449414</v>
       </c>
     </row>
-    <row r="38" spans="2:5" hidden="1">
-      <c r="B38" s="7">
+    <row r="39" spans="2:5" hidden="1">
+      <c r="B39" s="7">
         <v>2022</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <v>21617326</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="8">
         <v>1438643</v>
       </c>
     </row>
-    <row r="39" spans="2:5" hidden="1">
-      <c r="B39" s="5">
+    <row r="40" spans="2:5" hidden="1">
+      <c r="B40" s="5">
         <v>2022</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <v>21409358</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="6">
         <v>1421088</v>
       </c>
     </row>
-    <row r="40" spans="2:5" hidden="1">
-      <c r="B40" s="7">
+    <row r="41" spans="2:5" hidden="1">
+      <c r="B41" s="7">
         <v>2022</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <v>21236866</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E41" s="8">
         <v>1409658</v>
       </c>
     </row>
-    <row r="41" spans="2:5" hidden="1">
-      <c r="B41" s="5">
+    <row r="42" spans="2:5" hidden="1">
+      <c r="B42" s="5">
         <v>2022</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <v>21079434</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>1400461</v>
       </c>
     </row>
-    <row r="42" spans="2:5" hidden="1">
-      <c r="B42" s="7">
+    <row r="43" spans="2:5" hidden="1">
+      <c r="B43" s="7">
         <v>2022</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <v>21068708</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E43" s="8">
         <v>1394745</v>
       </c>
     </row>
-    <row r="43" spans="2:5" hidden="1">
-      <c r="B43" s="5">
+    <row r="44" spans="2:5" hidden="1">
+      <c r="B44" s="5">
         <v>2022</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D44" s="6">
         <v>21008487</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E44" s="6">
         <v>1387090</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1">
-      <c r="B44" s="7">
+    <row r="45" spans="2:5" hidden="1">
+      <c r="B45" s="7">
         <v>2022</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D45" s="8">
         <v>21011342</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E45" s="8">
         <v>1371403</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1">
-      <c r="B45" s="5">
+    <row r="46" spans="2:5" hidden="1">
+      <c r="B46" s="5">
         <v>2022</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="6">
         <v>21005852</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="6">
         <v>1366419</v>
       </c>
     </row>
-    <row r="46" spans="2:5" hidden="1">
-      <c r="B46" s="7">
+    <row r="47" spans="2:5" hidden="1">
+      <c r="B47" s="7">
         <v>2022</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <v>20941286</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E47" s="8">
         <v>1362139</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="18" hidden="1" customHeight="1">
-      <c r="B47" s="9">
+    <row r="48" spans="2:5" ht="18" hidden="1" customHeight="1">
+      <c r="B48" s="9">
         <v>2022</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D48" s="10">
         <v>20762419</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E48" s="10">
         <v>1353437</v>
       </c>
     </row>
-    <row r="48" spans="2:5" hidden="1">
-      <c r="B48" s="11">
+    <row r="49" spans="2:5" hidden="1">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <v>20620148</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="12">
         <v>1346231</v>
       </c>
     </row>
-    <row r="49" spans="2:5" hidden="1">
-      <c r="B49" s="5">
+    <row r="50" spans="2:5" hidden="1">
+      <c r="B50" s="5">
         <v>2021</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="6">
         <v>20933050</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>1355387</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1">
-      <c r="B50" s="7">
+    <row r="51" spans="2:5" hidden="1">
+      <c r="B51" s="7">
         <v>2021</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <v>20767587</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E51" s="8">
         <v>1334726</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1">
-      <c r="B51" s="5">
+    <row r="52" spans="2:5" hidden="1">
+      <c r="B52" s="5">
         <v>2021</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>20594919</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="6">
         <v>1322061</v>
       </c>
     </row>
-    <row r="52" spans="2:5" hidden="1">
-      <c r="B52" s="7">
+    <row r="53" spans="2:5" hidden="1">
+      <c r="B53" s="7">
         <v>2021</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="8">
         <v>20420823</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E53" s="8">
         <v>1297793</v>
       </c>
     </row>
-    <row r="53" spans="2:5" hidden="1">
-      <c r="B53" s="5">
+    <row r="54" spans="2:5" hidden="1">
+      <c r="B54" s="5">
         <v>2021</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="6">
         <v>20291923</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="6">
         <v>1281115</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1">
-      <c r="B54" s="7">
+    <row r="55" spans="2:5" hidden="1">
+      <c r="B55" s="7">
         <v>2021</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <v>20175380</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E55" s="8">
         <v>1238603</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1">
-      <c r="B55" s="5">
+    <row r="56" spans="2:5" hidden="1">
+      <c r="B56" s="5">
         <v>2021</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D56" s="6">
         <v>20109444</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E56" s="6">
         <v>1233478</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1">
-      <c r="B56" s="7">
+    <row r="57" spans="2:5" hidden="1">
+      <c r="B57" s="7">
         <v>2021</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D57" s="8">
         <v>20070483</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E57" s="8">
         <v>1228178</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1">
-      <c r="B57" s="5">
+    <row r="58" spans="2:5" hidden="1">
+      <c r="B58" s="5">
         <v>2021</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <v>20025709</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="6">
         <v>1221474</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1">
-      <c r="B58" s="7">
+    <row r="59" spans="2:5" hidden="1">
+      <c r="B59" s="7">
         <v>2021</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <v>19936938</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E59" s="8">
         <v>1217940</v>
       </c>
     </row>
-    <row r="59" spans="2:5" hidden="1">
-      <c r="B59" s="9">
+    <row r="60" spans="2:5" hidden="1">
+      <c r="B60" s="9">
         <v>2021</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D60" s="10">
         <v>19821651</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E60" s="10">
         <v>1215685</v>
       </c>
     </row>
-    <row r="60" spans="2:5" hidden="1">
-      <c r="B60" s="11">
+    <row r="61" spans="2:5" hidden="1">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="12">
         <v>19773732</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="12">
         <v>1213211</v>
       </c>
     </row>
-    <row r="61" spans="2:5" hidden="1">
-      <c r="B61" s="5">
+    <row r="62" spans="2:5" hidden="1">
+      <c r="B62" s="5">
         <v>2020</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="6">
         <v>20051552</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="6">
         <v>1220915</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1">
-      <c r="B62" s="7">
+    <row r="63" spans="2:5" hidden="1">
+      <c r="B63" s="7">
         <v>2020</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <v>19902833</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E63" s="8">
         <v>1208882</v>
       </c>
     </row>
-    <row r="63" spans="2:5" hidden="1">
-      <c r="B63" s="5">
+    <row r="64" spans="2:5" hidden="1">
+      <c r="B64" s="5">
         <v>2020</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="6">
         <v>19702192</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="6">
         <v>1193903</v>
       </c>
     </row>
-    <row r="64" spans="2:5" hidden="1">
-      <c r="B64" s="7">
+    <row r="65" spans="2:5" hidden="1">
+      <c r="B65" s="7">
         <v>2020</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <v>19588342</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E65" s="8">
         <v>1187467</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1">
-      <c r="B65" s="5">
+    <row r="66" spans="2:5" hidden="1">
+      <c r="B66" s="5">
         <v>2020</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="6">
         <v>19495952</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="6">
         <v>1183455</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1">
-      <c r="B66" s="7">
+    <row r="67" spans="2:5" hidden="1">
+      <c r="B67" s="7">
         <v>2020</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <v>19499859</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E67" s="8">
         <v>1182594</v>
       </c>
     </row>
-    <row r="67" spans="2:5" hidden="1">
-      <c r="B67" s="5">
+    <row r="68" spans="2:5" hidden="1">
+      <c r="B68" s="5">
         <v>2020</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D68" s="6">
         <v>19583170</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E68" s="6">
         <v>1186977</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1">
-      <c r="B68" s="7">
+    <row r="69" spans="2:5" hidden="1">
+      <c r="B69" s="7">
         <v>2020</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D69" s="8">
         <v>19927696</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E69" s="8">
         <v>1202788</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1">
-      <c r="B69" s="5">
+    <row r="70" spans="2:5" hidden="1">
+      <c r="B70" s="5">
         <v>2020</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="6">
         <v>20482943</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E70" s="6">
         <v>1226995</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1">
-      <c r="B70" s="7">
+    <row r="71" spans="2:5" hidden="1">
+      <c r="B71" s="7">
         <v>2020</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <v>20613536</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E71" s="8">
         <v>1223755</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1">
-      <c r="B71" s="9">
+    <row r="72" spans="2:5" hidden="1">
+      <c r="B72" s="9">
         <v>2020</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D72" s="10">
         <v>20490397</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E72" s="10">
         <v>1217337</v>
       </c>
     </row>
-    <row r="72" spans="2:5" hidden="1">
-      <c r="B72" s="11">
+    <row r="73" spans="2:5" hidden="1">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="12">
         <v>20421442</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E73" s="12">
         <v>1215181</v>
       </c>
     </row>
-    <row r="73" spans="2:5" hidden="1">
-      <c r="B73" s="5">
+    <row r="74" spans="2:5" hidden="1">
+      <c r="B74" s="5">
         <v>2019</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>20803652</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="6">
         <v>1220127</v>
       </c>
     </row>
-    <row r="74" spans="2:5" hidden="1">
-      <c r="B74" s="7">
+    <row r="75" spans="2:5" hidden="1">
+      <c r="B75" s="7">
         <v>2019</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <v>20727424</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E75" s="8">
         <v>1214110</v>
       </c>
     </row>
-    <row r="75" spans="2:5" hidden="1">
-      <c r="B75" s="5">
+    <row r="76" spans="2:5" hidden="1">
+      <c r="B76" s="5">
         <v>2019</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <v>20567426</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="6">
         <v>1204267</v>
       </c>
     </row>
-    <row r="76" spans="2:5" hidden="1">
-      <c r="B76" s="7">
+    <row r="77" spans="2:5" hidden="1">
+      <c r="B77" s="7">
         <v>2019</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <v>20422010</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E77" s="8">
         <v>1199362</v>
       </c>
     </row>
-    <row r="77" spans="2:5" hidden="1">
-      <c r="B77" s="5">
+    <row r="78" spans="2:5" hidden="1">
+      <c r="B78" s="5">
         <v>2019</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <v>20385379</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>1196621</v>
       </c>
     </row>
-    <row r="78" spans="2:5" hidden="1">
-      <c r="B78" s="7">
+    <row r="79" spans="2:5" hidden="1">
+      <c r="B79" s="7">
         <v>2019</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <v>20368666</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E79" s="8">
         <v>1183628</v>
       </c>
     </row>
-    <row r="79" spans="2:5" hidden="1">
-      <c r="B79" s="5">
+    <row r="80" spans="2:5" hidden="1">
+      <c r="B80" s="5">
         <v>2019</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D80" s="6">
         <v>20382910</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E80" s="6">
         <v>1176213</v>
       </c>
     </row>
-    <row r="80" spans="2:5" hidden="1">
-      <c r="B80" s="7">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="7">
         <v>2019</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D81" s="8">
         <v>20378927</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E81" s="8">
         <v>1173595</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1">
-      <c r="B81" s="5">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="5">
         <v>2019</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="6">
         <v>20348508</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="6">
         <v>1166805</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="7">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="7">
         <v>2019</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <v>20299993</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E83" s="8">
         <v>1162018</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1">
-      <c r="B83" s="9">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="9">
         <v>2019</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D84" s="10">
         <v>20174011</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E84" s="10">
         <v>1151961</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1">
-      <c r="B84" s="7">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D85" s="8">
         <v>20079365</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E85" s="8">
         <v>1150983</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1">
-      <c r="B85" s="5">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="5">
         <v>2018</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D86" s="6">
         <v>20457926</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E86" s="6">
         <v>1158571</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1">
-      <c r="B86" s="7">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <v>20356179</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E87" s="8">
         <v>1154332</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1">
-      <c r="B87" s="5">
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="5">
         <v>2018</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D88" s="6">
         <v>20192960</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E88" s="6">
         <v>1140678</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1">
-      <c r="B88" s="7">
+    <row r="89" spans="2:10" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D89" s="8">
         <v>20063433</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E89" s="8">
         <v>1138592</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1">
-      <c r="B89" s="5">
+    <row r="90" spans="2:10" hidden="1">
+      <c r="B90" s="5">
         <v>2018</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D90" s="6">
         <v>19949244</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E90" s="6">
         <v>1130363</v>
       </c>
     </row>
-    <row r="90" spans="2:10" hidden="1">
-      <c r="B90" s="7">
+    <row r="91" spans="2:10" hidden="1">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D91" s="8">
         <v>19894575</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E91" s="8">
         <v>1125051</v>
       </c>
     </row>
-    <row r="91" spans="2:10" hidden="1">
-      <c r="B91" s="5">
+    <row r="92" spans="2:10" hidden="1">
+      <c r="B92" s="5">
         <v>2018</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D92" s="6">
         <v>19908072</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E92" s="6">
         <v>1122774</v>
       </c>
     </row>
-    <row r="92" spans="2:10" hidden="1">
-      <c r="B92" s="7">
+    <row r="93" spans="2:10" hidden="1">
+      <c r="B93" s="7">
         <v>2018</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D93" s="8">
         <v>19874106</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E93" s="8">
         <v>1118667</v>
-      </c>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-    </row>
-    <row r="93" spans="2:10" ht="18" hidden="1" customHeight="1">
-      <c r="B93" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="6">
-        <v>19786997</v>
-      </c>
-      <c r="E93" s="6">
-        <v>1110710</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
-      <c r="J93" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" hidden="1">
-      <c r="B94" s="7">
+    </row>
+    <row r="94" spans="2:10" ht="18" hidden="1" customHeight="1">
+      <c r="B94" s="5">
         <v>2018</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="8">
-        <v>19696488</v>
-      </c>
-      <c r="E94" s="8">
-        <v>1103513</v>
-      </c>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
+      <c r="C94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="6">
+        <v>19786997</v>
+      </c>
+      <c r="E94" s="6">
+        <v>1110710</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
       <c r="J94" s="3" t="s">
@@ -2030,43 +2023,64 @@
       </c>
     </row>
     <row r="95" spans="2:10" hidden="1">
-      <c r="B95" s="5">
+      <c r="B95" s="7">
         <v>2018</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="8">
+        <v>19696488</v>
+      </c>
+      <c r="E95" s="8">
+        <v>1103513</v>
+      </c>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" hidden="1">
+      <c r="B96" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D96" s="6">
         <v>19532177</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E96" s="6">
         <v>1098889</v>
       </c>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D98" s="13"/>
-      <c r="E98" s="14"/>
-    </row>
-    <row r="99" spans="2:5">
       <c r="D99" s="13"/>
       <c r="E99" s="14"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="D100" s="13"/>
+      <c r="E100" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
